--- a/app/weapon_data.xlsx
+++ b/app/weapon_data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Great_Sword" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Long_Sword" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="565">
   <si>
     <t>용골대검 I</t>
   </si>
@@ -1443,6 +1443,267 @@
   </si>
   <si>
     <t>첨룡골*10</t>
+  </si>
+  <si>
+    <t>철도 I</t>
+  </si>
+  <si>
+    <t>철도 II</t>
+  </si>
+  <si>
+    <t>철도 III</t>
+  </si>
+  <si>
+    <t>철도 [계] I</t>
+  </si>
+  <si>
+    <t>철도 [계] II</t>
+  </si>
+  <si>
+    <t>철도 [계] III</t>
+  </si>
+  <si>
+    <t>철도 [신락] I</t>
+  </si>
+  <si>
+    <t>철도 [신락] II</t>
+  </si>
+  <si>
+    <t>네르갈리베</t>
+  </si>
+  <si>
+    <t>90(대)</t>
+  </si>
+  <si>
+    <t>멸절의일도</t>
+  </si>
+  <si>
+    <t>120(대)</t>
+  </si>
+  <si>
+    <t>현도 [요] I</t>
+  </si>
+  <si>
+    <t>현도 [요] II</t>
+  </si>
+  <si>
+    <t>현혹도 [섬] I</t>
+  </si>
+  <si>
+    <t>현혹도 [섬] II</t>
+  </si>
+  <si>
+    <t>현혹도 [섬] III</t>
+  </si>
+  <si>
+    <t>알리샤 I</t>
+  </si>
+  <si>
+    <t>알리샤 II</t>
+  </si>
+  <si>
+    <t>알리샤 III</t>
+  </si>
+  <si>
+    <t>알다자주 I</t>
+  </si>
+  <si>
+    <t>알다자주 II</t>
+  </si>
+  <si>
+    <t>알다자주 III</t>
+  </si>
+  <si>
+    <t>브라스리지 I</t>
+  </si>
+  <si>
+    <t>브라스리지 II</t>
+  </si>
+  <si>
+    <t>31-</t>
+  </si>
+  <si>
+    <t>비룡도 [청엽]</t>
+  </si>
+  <si>
+    <t>비룡도 [익]</t>
+  </si>
+  <si>
+    <t>비룡도 [규]</t>
+  </si>
+  <si>
+    <t>비룡도 [홍엽]</t>
+  </si>
+  <si>
+    <t>비룡도 [주]</t>
+  </si>
+  <si>
+    <t>비룡도 [창]</t>
+  </si>
+  <si>
+    <t>비룡도 [감염]</t>
+  </si>
+  <si>
+    <t>본쇼텔 I</t>
+  </si>
+  <si>
+    <t>본쇼텔 II</t>
+  </si>
+  <si>
+    <t>본쇼텔 III</t>
+  </si>
+  <si>
+    <t>하드본쇼텔 I</t>
+  </si>
+  <si>
+    <t>하드본쇼텔 II</t>
+  </si>
+  <si>
+    <t>하드본쇼텔 III</t>
+  </si>
+  <si>
+    <t>본리퍼 I</t>
+  </si>
+  <si>
+    <t>본리퍼 II</t>
+  </si>
+  <si>
+    <t>폭린의대도</t>
+  </si>
+  <si>
+    <t>폭린도바젤바르가</t>
+  </si>
+  <si>
+    <t>블레이즈쇼텔 I</t>
+  </si>
+  <si>
+    <t>블레이즈쇼텔 II</t>
+  </si>
+  <si>
+    <t>쟈나프시미터 I</t>
+  </si>
+  <si>
+    <t>쟈나프시미터 II</t>
+  </si>
+  <si>
+    <t>쟈나프시미터 III</t>
+  </si>
+  <si>
+    <t>슈람쇼텔 I</t>
+  </si>
+  <si>
+    <t>슈람쇼텔 II</t>
+  </si>
+  <si>
+    <t>슈람쇼텔 III</t>
+  </si>
+  <si>
+    <t>디프테루스 I</t>
+  </si>
+  <si>
+    <t>디프테루스 II</t>
+  </si>
+  <si>
+    <t>디프테루스 III</t>
+  </si>
+  <si>
+    <t>하자크그로서 I</t>
+  </si>
+  <si>
+    <t>210(중)</t>
+  </si>
+  <si>
+    <t>하자크그로서 II</t>
+  </si>
+  <si>
+    <t>270(중)</t>
+  </si>
+  <si>
+    <t>펄서쇼텔 I</t>
+  </si>
+  <si>
+    <t>펄서쇼텔 II</t>
+  </si>
+  <si>
+    <t>펄서쇼텔 III</t>
+  </si>
+  <si>
+    <t>카가치의송곳니 I</t>
+  </si>
+  <si>
+    <t>카가치의송곳니 II</t>
+  </si>
+  <si>
+    <t>카가치의송곳니 III</t>
+  </si>
+  <si>
+    <t>그레이스쇼텔 I</t>
+  </si>
+  <si>
+    <t>그레이스쇼텔 II</t>
+  </si>
+  <si>
+    <t>스틸러</t>
+  </si>
+  <si>
+    <t>레이스틸러</t>
+  </si>
+  <si>
+    <t>다크쇼텔 I</t>
+  </si>
+  <si>
+    <t>다크쇼텔 II</t>
+  </si>
+  <si>
+    <t>다크시미터 I</t>
+  </si>
+  <si>
+    <t>다크시미터 II</t>
+  </si>
+  <si>
+    <t>다크시미터 III</t>
+  </si>
+  <si>
+    <t>용골도 I</t>
+  </si>
+  <si>
+    <t>용골도 II</t>
+  </si>
+  <si>
+    <t>용골도 III</t>
+  </si>
+  <si>
+    <t>마그다-파클타스 I</t>
+  </si>
+  <si>
+    <t>마그다-파클타스 II</t>
+  </si>
+  <si>
+    <t>흑강의태도 I</t>
+  </si>
+  <si>
+    <t>흑강의태도 II</t>
+  </si>
+  <si>
+    <t>150(소)</t>
+  </si>
+  <si>
+    <t>제왕도</t>
+  </si>
+  <si>
+    <t>제왕도 [양염]</t>
+  </si>
+  <si>
+    <t>제노사이퍼</t>
+  </si>
+  <si>
+    <t>180(소)</t>
+  </si>
+  <si>
+    <t>천하무쌍도</t>
+  </si>
+  <si>
+    <t>천상천하무쌍도</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1715,7 @@
     <numFmt numFmtId="65" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="66" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1589,10 +1850,20 @@
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1829,16 +2100,20 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1853,25 +2128,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1886,7 +2169,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -1901,7 +2186,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -1916,13 +2203,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -1930,6 +2221,23 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1945,6 +2253,339 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal style="none">
         <color rgb="FF000000"/>
@@ -1967,355 +2608,6 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2466,7 +2758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2836,7 +3128,37 @@
     <xf numFmtId="0" fontId="20" fillId="39" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="24" fillId="40" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="66" fontId="0" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3163,8 +3485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="A6" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3278,7 +3600,7 @@
       <c r="G2" s="100"/>
       <c r="H2" s="100"/>
       <c r="I2" s="105"/>
-      <c r="J2" s="124">
+      <c r="J2" s="134">
         <v>0</v>
       </c>
       <c r="K2" s="100"/>
@@ -3314,7 +3636,7 @@
       <c r="G3" s="100"/>
       <c r="H3" s="100"/>
       <c r="I3" s="105"/>
-      <c r="J3" s="124">
+      <c r="J3" s="134">
         <v>0</v>
       </c>
       <c r="K3" s="100"/>
@@ -3353,7 +3675,7 @@
       <c r="G4" s="100"/>
       <c r="H4" s="100"/>
       <c r="I4" s="105"/>
-      <c r="J4" s="124">
+      <c r="J4" s="134">
         <v>0</v>
       </c>
       <c r="K4" s="100"/>
@@ -3396,7 +3718,7 @@
       <c r="G5" s="100"/>
       <c r="H5" s="100"/>
       <c r="I5" s="105"/>
-      <c r="J5" s="124">
+      <c r="J5" s="134">
         <v>0</v>
       </c>
       <c r="K5" s="100"/>
@@ -3439,7 +3761,7 @@
       <c r="G6" s="100"/>
       <c r="H6" s="100"/>
       <c r="I6" s="105"/>
-      <c r="J6" s="124">
+      <c r="J6" s="134">
         <v>0</v>
       </c>
       <c r="K6" s="100"/>
@@ -3488,7 +3810,7 @@
       <c r="I7" s="105">
         <v>240</v>
       </c>
-      <c r="J7" s="124">
+      <c r="J7" s="134">
         <v>0</v>
       </c>
       <c r="K7" s="100" t="s">
@@ -3537,7 +3859,7 @@
       <c r="I8" s="105">
         <v>330</v>
       </c>
-      <c r="J8" s="124">
+      <c r="J8" s="134">
         <v>0</v>
       </c>
       <c r="K8" s="100" t="s">
@@ -3588,7 +3910,7 @@
       <c r="I9" s="105">
         <v>420</v>
       </c>
-      <c r="J9" s="124">
+      <c r="J9" s="134">
         <v>0</v>
       </c>
       <c r="K9" s="100" t="s">
@@ -3639,7 +3961,7 @@
       </c>
       <c r="H10" s="100"/>
       <c r="I10" s="105"/>
-      <c r="J10" s="124">
+      <c r="J10" s="134">
         <v>0</v>
       </c>
       <c r="K10" s="100" t="s">
@@ -3690,7 +4012,7 @@
       </c>
       <c r="H11" s="100"/>
       <c r="I11" s="105"/>
-      <c r="J11" s="124">
+      <c r="J11" s="134">
         <v>0</v>
       </c>
       <c r="K11" s="100" t="s">
@@ -3741,7 +4063,7 @@
       </c>
       <c r="H12" s="100"/>
       <c r="I12" s="105"/>
-      <c r="J12" s="124">
+      <c r="J12" s="134">
         <v>0</v>
       </c>
       <c r="K12" s="100"/>
@@ -3790,7 +4112,7 @@
       </c>
       <c r="H13" s="100"/>
       <c r="I13" s="105"/>
-      <c r="J13" s="124">
+      <c r="J13" s="134">
         <v>0</v>
       </c>
       <c r="K13" s="100"/>
@@ -3839,7 +4161,7 @@
       </c>
       <c r="H14" s="100"/>
       <c r="I14" s="105"/>
-      <c r="J14" s="124">
+      <c r="J14" s="134">
         <v>0</v>
       </c>
       <c r="K14" s="100" t="s">
@@ -3890,7 +4212,7 @@
       </c>
       <c r="H15" s="100"/>
       <c r="I15" s="105"/>
-      <c r="J15" s="124">
+      <c r="J15" s="134">
         <v>0</v>
       </c>
       <c r="K15" s="100" t="s">
@@ -3941,7 +4263,7 @@
       </c>
       <c r="H16" s="100"/>
       <c r="I16" s="105"/>
-      <c r="J16" s="124">
+      <c r="J16" s="134">
         <v>0</v>
       </c>
       <c r="K16" s="100" t="s">
@@ -3992,7 +4314,7 @@
       </c>
       <c r="H17" s="100"/>
       <c r="I17" s="105"/>
-      <c r="J17" s="124">
+      <c r="J17" s="134">
         <v>0</v>
       </c>
       <c r="K17" s="100"/>
@@ -4041,7 +4363,7 @@
       </c>
       <c r="H18" s="100"/>
       <c r="I18" s="105"/>
-      <c r="J18" s="124">
+      <c r="J18" s="134">
         <v>0</v>
       </c>
       <c r="K18" s="100" t="s">
@@ -4092,7 +4414,7 @@
       </c>
       <c r="H19" s="100"/>
       <c r="I19" s="105"/>
-      <c r="J19" s="124">
+      <c r="J19" s="134">
         <v>0</v>
       </c>
       <c r="K19" s="100" t="s">
@@ -4143,7 +4465,7 @@
       </c>
       <c r="H20" s="100"/>
       <c r="I20" s="105"/>
-      <c r="J20" s="124">
+      <c r="J20" s="134">
         <v>0</v>
       </c>
       <c r="K20" s="100" t="s">
@@ -4195,7 +4517,7 @@
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
       <c r="I21" s="105"/>
-      <c r="J21" s="124">
+      <c r="J21" s="134">
         <v>0</v>
       </c>
       <c r="K21" s="100"/>
@@ -4245,7 +4567,7 @@
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
       <c r="I22" s="105"/>
-      <c r="J22" s="124">
+      <c r="J22" s="134">
         <v>0</v>
       </c>
       <c r="K22" s="100"/>
@@ -4295,7 +4617,7 @@
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
       <c r="I23" s="105"/>
-      <c r="J23" s="124">
+      <c r="J23" s="134">
         <v>0</v>
       </c>
       <c r="K23" s="100"/>
@@ -4345,11 +4667,11 @@
         <v>183</v>
       </c>
       <c r="G24" s="103">
-        <v>-210</v>
+        <v>210</v>
       </c>
       <c r="H24" s="100"/>
       <c r="I24" s="105"/>
-      <c r="J24" s="124">
+      <c r="J24" s="134">
         <v>0</v>
       </c>
       <c r="K24" s="100" t="s">
@@ -4401,11 +4723,11 @@
         <v>183</v>
       </c>
       <c r="G25" s="103">
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="H25" s="100"/>
       <c r="I25" s="105"/>
-      <c r="J25" s="124">
+      <c r="J25" s="134">
         <v>0</v>
       </c>
       <c r="K25" s="100" t="s">
@@ -4457,11 +4779,11 @@
         <v>183</v>
       </c>
       <c r="G26" s="103">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="105"/>
-      <c r="J26" s="124">
+      <c r="J26" s="134">
         <v>0</v>
       </c>
       <c r="K26" s="100" t="s">
@@ -4517,7 +4839,7 @@
       <c r="I27" s="105">
         <v>210</v>
       </c>
-      <c r="J27" s="124">
+      <c r="J27" s="134">
         <v>15</v>
       </c>
       <c r="K27" s="100"/>
@@ -4569,7 +4891,7 @@
       <c r="I28" s="105">
         <v>240</v>
       </c>
-      <c r="J28" s="124">
+      <c r="J28" s="134">
         <v>15</v>
       </c>
       <c r="K28" s="100"/>
@@ -4623,7 +4945,7 @@
       <c r="I29" s="105">
         <v>270</v>
       </c>
-      <c r="J29" s="124">
+      <c r="J29" s="134">
         <v>15</v>
       </c>
       <c r="K29" s="100"/>
@@ -4689,7 +5011,7 @@
       <c r="I30" s="105">
         <v>360</v>
       </c>
-      <c r="J30" s="124">
+      <c r="J30" s="134">
         <v>20</v>
       </c>
       <c r="K30" s="100"/>
@@ -4743,7 +5065,7 @@
       <c r="I31" s="105">
         <v>450</v>
       </c>
-      <c r="J31" s="124">
+      <c r="J31" s="134">
         <v>20</v>
       </c>
       <c r="K31" s="100"/>
@@ -4797,7 +5119,7 @@
       </c>
       <c r="H32" s="100"/>
       <c r="I32" s="105"/>
-      <c r="J32" s="124">
+      <c r="J32" s="134">
         <v>0</v>
       </c>
       <c r="K32" s="100" t="s">
@@ -4851,7 +5173,7 @@
       </c>
       <c r="H33" s="100"/>
       <c r="I33" s="105"/>
-      <c r="J33" s="124">
+      <c r="J33" s="134">
         <v>0</v>
       </c>
       <c r="K33" s="100" t="s">
@@ -4907,7 +5229,7 @@
       <c r="I34" s="105">
         <v>240</v>
       </c>
-      <c r="J34" s="124">
+      <c r="J34" s="134">
         <v>0</v>
       </c>
       <c r="K34" s="100"/>
@@ -4959,7 +5281,7 @@
       <c r="I35" s="105">
         <v>300</v>
       </c>
-      <c r="J35" s="124">
+      <c r="J35" s="134">
         <v>0</v>
       </c>
       <c r="K35" s="100"/>
@@ -5013,7 +5335,7 @@
       <c r="I36" s="105">
         <v>360</v>
       </c>
-      <c r="J36" s="124">
+      <c r="J36" s="134">
         <v>0</v>
       </c>
       <c r="K36" s="100"/>
@@ -5067,7 +5389,7 @@
       <c r="I37" s="105">
         <v>420</v>
       </c>
-      <c r="J37" s="124">
+      <c r="J37" s="134">
         <v>0</v>
       </c>
       <c r="K37" s="100" t="s">
@@ -5123,7 +5445,7 @@
       <c r="I38" s="105">
         <v>480</v>
       </c>
-      <c r="J38" s="124">
+      <c r="J38" s="134">
         <v>0</v>
       </c>
       <c r="K38" s="100" t="s">
@@ -5179,7 +5501,7 @@
       <c r="I39" s="105">
         <v>540</v>
       </c>
-      <c r="J39" s="124">
+      <c r="J39" s="134">
         <v>0</v>
       </c>
       <c r="K39" s="100" t="s">
@@ -5235,7 +5557,7 @@
       </c>
       <c r="H40" s="100"/>
       <c r="I40" s="105"/>
-      <c r="J40" s="124">
+      <c r="J40" s="134">
         <v>10</v>
       </c>
       <c r="K40" s="100"/>
@@ -5289,7 +5611,7 @@
       </c>
       <c r="H41" s="100"/>
       <c r="I41" s="105"/>
-      <c r="J41" s="124">
+      <c r="J41" s="134">
         <v>10</v>
       </c>
       <c r="K41" s="100"/>
@@ -5343,8 +5665,8 @@
       </c>
       <c r="H42" s="100"/>
       <c r="I42" s="105"/>
-      <c r="J42" s="124">
-        <v>15</v>
+      <c r="J42" s="134">
+        <v>25</v>
       </c>
       <c r="K42" s="100" t="s">
         <v>445</v>
@@ -5399,7 +5721,7 @@
       </c>
       <c r="H43" s="100"/>
       <c r="I43" s="105"/>
-      <c r="J43" s="124">
+      <c r="J43" s="134">
         <v>15</v>
       </c>
       <c r="K43" s="100" t="s">
@@ -5455,7 +5777,7 @@
       </c>
       <c r="H44" s="100"/>
       <c r="I44" s="105"/>
-      <c r="J44" s="124">
+      <c r="J44" s="134">
         <v>15</v>
       </c>
       <c r="K44" s="100" t="s">
@@ -5507,8 +5829,8 @@
       <c r="G45" s="100"/>
       <c r="H45" s="100"/>
       <c r="I45" s="105"/>
-      <c r="J45" s="124">
-        <v>15</v>
+      <c r="J45" s="134">
+        <v>-15</v>
       </c>
       <c r="K45" s="100"/>
       <c r="L45" s="118" t="s">
@@ -5555,8 +5877,8 @@
       <c r="G46" s="100"/>
       <c r="H46" s="100"/>
       <c r="I46" s="105"/>
-      <c r="J46" s="124">
-        <v>15</v>
+      <c r="J46" s="134">
+        <v>-15</v>
       </c>
       <c r="K46" s="100" t="s">
         <v>441</v>
@@ -5605,7 +5927,7 @@
       <c r="G47" s="100"/>
       <c r="H47" s="100"/>
       <c r="I47" s="105"/>
-      <c r="J47" s="124">
+      <c r="J47" s="134">
         <v>0</v>
       </c>
       <c r="K47" s="100"/>
@@ -5651,7 +5973,7 @@
       <c r="G48" s="100"/>
       <c r="H48" s="100"/>
       <c r="I48" s="105"/>
-      <c r="J48" s="124">
+      <c r="J48" s="134">
         <v>0</v>
       </c>
       <c r="K48" s="100"/>
@@ -5695,7 +6017,7 @@
       <c r="G49" s="100"/>
       <c r="H49" s="100"/>
       <c r="I49" s="105"/>
-      <c r="J49" s="124">
+      <c r="J49" s="134">
         <v>0</v>
       </c>
       <c r="K49" s="100"/>
@@ -5741,7 +6063,7 @@
       <c r="G50" s="100"/>
       <c r="H50" s="100"/>
       <c r="I50" s="105"/>
-      <c r="J50" s="124">
+      <c r="J50" s="134">
         <v>0</v>
       </c>
       <c r="K50" s="100"/>
@@ -5789,7 +6111,7 @@
       <c r="G51" s="100"/>
       <c r="H51" s="100"/>
       <c r="I51" s="105"/>
-      <c r="J51" s="124">
+      <c r="J51" s="134">
         <v>0</v>
       </c>
       <c r="K51" s="100"/>
@@ -5837,11 +6159,11 @@
         <v>69</v>
       </c>
       <c r="G52" s="103">
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="H52" s="100"/>
       <c r="I52" s="105"/>
-      <c r="J52" s="124">
+      <c r="J52" s="134">
         <v>0</v>
       </c>
       <c r="K52" s="100" t="s">
@@ -5891,11 +6213,11 @@
         <v>69</v>
       </c>
       <c r="G53" s="103">
-        <v>-240</v>
+        <v>240</v>
       </c>
       <c r="H53" s="100"/>
       <c r="I53" s="105"/>
-      <c r="J53" s="124">
+      <c r="J53" s="134">
         <v>0</v>
       </c>
       <c r="K53" s="100" t="s">
@@ -5957,11 +6279,11 @@
         <v>69</v>
       </c>
       <c r="G54" s="103">
-        <v>-300</v>
+        <v>300</v>
       </c>
       <c r="H54" s="100"/>
       <c r="I54" s="105"/>
-      <c r="J54" s="124">
+      <c r="J54" s="134">
         <v>0</v>
       </c>
       <c r="K54" s="100" t="s">
@@ -6017,7 +6339,7 @@
       </c>
       <c r="H55" s="100"/>
       <c r="I55" s="105"/>
-      <c r="J55" s="124">
+      <c r="J55" s="134">
         <v>0</v>
       </c>
       <c r="K55" s="100" t="s">
@@ -6073,7 +6395,7 @@
       </c>
       <c r="H56" s="100"/>
       <c r="I56" s="105"/>
-      <c r="J56" s="124">
+      <c r="J56" s="134">
         <v>0</v>
       </c>
       <c r="K56" s="100" t="s">
@@ -6129,8 +6451,8 @@
       </c>
       <c r="H57" s="100"/>
       <c r="I57" s="105"/>
-      <c r="J57" s="124">
-        <v>30</v>
+      <c r="J57" s="134">
+        <v>-30</v>
       </c>
       <c r="K57" s="100"/>
       <c r="L57" s="118" t="s">
@@ -6183,8 +6505,8 @@
       </c>
       <c r="H58" s="100"/>
       <c r="I58" s="105"/>
-      <c r="J58" s="124">
-        <v>30</v>
+      <c r="J58" s="134">
+        <v>-30</v>
       </c>
       <c r="K58" s="100"/>
       <c r="L58" s="118" t="s">
@@ -6237,8 +6559,8 @@
       </c>
       <c r="H59" s="100"/>
       <c r="I59" s="105"/>
-      <c r="J59" s="124">
-        <v>30</v>
+      <c r="J59" s="134">
+        <v>-30</v>
       </c>
       <c r="K59" s="100"/>
       <c r="L59" s="118" t="s">
@@ -6291,7 +6613,7 @@
       </c>
       <c r="H60" s="100"/>
       <c r="I60" s="105"/>
-      <c r="J60" s="124">
+      <c r="J60" s="134">
         <v>0</v>
       </c>
       <c r="K60" s="100"/>
@@ -6345,7 +6667,7 @@
       </c>
       <c r="H61" s="100"/>
       <c r="I61" s="105"/>
-      <c r="J61" s="124">
+      <c r="J61" s="134">
         <v>0</v>
       </c>
       <c r="K61" s="100"/>
@@ -6399,7 +6721,7 @@
       </c>
       <c r="H62" s="100"/>
       <c r="I62" s="105"/>
-      <c r="J62" s="124">
+      <c r="J62" s="134">
         <v>0</v>
       </c>
       <c r="K62" s="100"/>
@@ -6453,7 +6775,7 @@
       </c>
       <c r="H63" s="100"/>
       <c r="I63" s="105"/>
-      <c r="J63" s="124">
+      <c r="J63" s="134">
         <v>0</v>
       </c>
       <c r="K63" s="100" t="s">
@@ -6509,7 +6831,7 @@
       </c>
       <c r="H64" s="100"/>
       <c r="I64" s="105"/>
-      <c r="J64" s="124">
+      <c r="J64" s="134">
         <v>0</v>
       </c>
       <c r="K64" s="100" t="s">
@@ -6565,7 +6887,7 @@
       </c>
       <c r="H65" s="100"/>
       <c r="I65" s="105"/>
-      <c r="J65" s="124">
+      <c r="J65" s="134">
         <v>0</v>
       </c>
       <c r="K65" s="100" t="s">
@@ -6617,8 +6939,8 @@
       <c r="G66" s="100"/>
       <c r="H66" s="100"/>
       <c r="I66" s="105"/>
-      <c r="J66" s="124">
-        <v>20</v>
+      <c r="J66" s="134">
+        <v>-20</v>
       </c>
       <c r="K66" s="100"/>
       <c r="L66" s="118" t="s">
@@ -6665,8 +6987,8 @@
       <c r="G67" s="100"/>
       <c r="H67" s="100"/>
       <c r="I67" s="105"/>
-      <c r="J67" s="124">
-        <v>20</v>
+      <c r="J67" s="134">
+        <v>-20</v>
       </c>
       <c r="K67" s="100"/>
       <c r="L67" s="118" t="s">
@@ -6715,8 +7037,8 @@
       <c r="G68" s="100"/>
       <c r="H68" s="100"/>
       <c r="I68" s="105"/>
-      <c r="J68" s="124">
-        <v>20</v>
+      <c r="J68" s="134">
+        <v>-20</v>
       </c>
       <c r="K68" s="100"/>
       <c r="L68" s="118" t="s">
@@ -6769,8 +7091,8 @@
       <c r="I69" s="105">
         <v>270</v>
       </c>
-      <c r="J69" s="124">
-        <v>20</v>
+      <c r="J69" s="134">
+        <v>-20</v>
       </c>
       <c r="K69" s="100" t="s">
         <v>457</v>
@@ -6825,8 +7147,8 @@
       <c r="I70" s="105">
         <v>330</v>
       </c>
-      <c r="J70" s="124">
-        <v>20</v>
+      <c r="J70" s="134">
+        <v>-20</v>
       </c>
       <c r="K70" s="100" t="s">
         <v>441</v>
@@ -6881,8 +7203,8 @@
       <c r="I71" s="105">
         <v>390</v>
       </c>
-      <c r="J71" s="124">
-        <v>20</v>
+      <c r="J71" s="134">
+        <v>-20</v>
       </c>
       <c r="K71" s="100" t="s">
         <v>458</v>
@@ -6937,7 +7259,7 @@
       <c r="I72" s="105">
         <v>150</v>
       </c>
-      <c r="J72" s="124">
+      <c r="J72" s="134">
         <v>0</v>
       </c>
       <c r="K72" s="100"/>
@@ -6989,7 +7311,7 @@
       <c r="I73" s="105">
         <v>180</v>
       </c>
-      <c r="J73" s="124">
+      <c r="J73" s="134">
         <v>0</v>
       </c>
       <c r="K73" s="100"/>
@@ -7043,7 +7365,7 @@
       <c r="I74" s="105">
         <v>210</v>
       </c>
-      <c r="J74" s="124">
+      <c r="J74" s="134">
         <v>0</v>
       </c>
       <c r="K74" s="100"/>
@@ -7097,7 +7419,7 @@
       <c r="I75" s="105">
         <v>240</v>
       </c>
-      <c r="J75" s="124">
+      <c r="J75" s="134">
         <v>0</v>
       </c>
       <c r="K75" s="100"/>
@@ -7151,7 +7473,7 @@
       <c r="I76" s="105">
         <v>270</v>
       </c>
-      <c r="J76" s="124">
+      <c r="J76" s="134">
         <v>0</v>
       </c>
       <c r="K76" s="100"/>
@@ -7205,7 +7527,7 @@
       </c>
       <c r="H77" s="100"/>
       <c r="I77" s="105"/>
-      <c r="J77" s="124">
+      <c r="J77" s="134">
         <v>0</v>
       </c>
       <c r="K77" s="100"/>
@@ -7263,7 +7585,7 @@
       </c>
       <c r="H78" s="100"/>
       <c r="I78" s="105"/>
-      <c r="J78" s="124">
+      <c r="J78" s="134">
         <v>0</v>
       </c>
       <c r="K78" s="100"/>
@@ -7315,7 +7637,7 @@
       </c>
       <c r="H79" s="100"/>
       <c r="I79" s="105"/>
-      <c r="J79" s="124">
+      <c r="J79" s="134">
         <v>0</v>
       </c>
       <c r="K79" s="100" t="s">
@@ -7371,7 +7693,7 @@
       </c>
       <c r="H80" s="100"/>
       <c r="I80" s="105"/>
-      <c r="J80" s="124">
+      <c r="J80" s="134">
         <v>0</v>
       </c>
       <c r="K80" s="100"/>
@@ -7425,7 +7747,7 @@
       </c>
       <c r="H81" s="100"/>
       <c r="I81" s="105"/>
-      <c r="J81" s="124">
+      <c r="J81" s="134">
         <v>0</v>
       </c>
       <c r="K81" s="100"/>
@@ -7479,7 +7801,7 @@
       </c>
       <c r="H82" s="100"/>
       <c r="I82" s="105"/>
-      <c r="J82" s="124">
+      <c r="J82" s="134">
         <v>0</v>
       </c>
       <c r="K82" s="100"/>
@@ -7533,8 +7855,8 @@
       <c r="I83" s="105">
         <v>330</v>
       </c>
-      <c r="J83" s="124">
-        <v>20</v>
+      <c r="J83" s="134">
+        <v>-20</v>
       </c>
       <c r="K83" s="100" t="s">
         <v>456</v>
@@ -7589,8 +7911,8 @@
       <c r="I84" s="105">
         <v>420</v>
       </c>
-      <c r="J84" s="124">
-        <v>20</v>
+      <c r="J84" s="134">
+        <v>-20</v>
       </c>
       <c r="K84" s="100" t="s">
         <v>459</v>
@@ -7645,7 +7967,7 @@
       </c>
       <c r="H85" s="100"/>
       <c r="I85" s="105"/>
-      <c r="J85" s="124">
+      <c r="J85" s="134">
         <v>10</v>
       </c>
       <c r="K85" s="100"/>
@@ -7703,7 +8025,7 @@
       </c>
       <c r="H86" s="100"/>
       <c r="I86" s="105"/>
-      <c r="J86" s="124">
+      <c r="J86" s="134">
         <v>10</v>
       </c>
       <c r="K86" s="100"/>
@@ -7757,7 +8079,7 @@
       </c>
       <c r="H87" s="100"/>
       <c r="I87" s="105"/>
-      <c r="J87" s="124">
+      <c r="J87" s="134">
         <v>0</v>
       </c>
       <c r="K87" s="100" t="s">
@@ -7813,7 +8135,7 @@
       </c>
       <c r="H88" s="100"/>
       <c r="I88" s="105"/>
-      <c r="J88" s="124">
+      <c r="J88" s="134">
         <v>10</v>
       </c>
       <c r="K88" s="100" t="s">
@@ -7869,7 +8191,7 @@
       </c>
       <c r="H89" s="100"/>
       <c r="I89" s="105"/>
-      <c r="J89" s="124">
+      <c r="J89" s="134">
         <v>15</v>
       </c>
       <c r="K89" s="100" t="s">
@@ -7925,7 +8247,7 @@
       <c r="I90" s="105">
         <v>240</v>
       </c>
-      <c r="J90" s="124">
+      <c r="J90" s="134">
         <v>0</v>
       </c>
       <c r="K90" s="100" t="s">
@@ -7973,7 +8295,7 @@
       <c r="I91" s="105">
         <v>330</v>
       </c>
-      <c r="J91" s="124">
+      <c r="J91" s="134">
         <v>0</v>
       </c>
       <c r="K91" s="100" t="s">
@@ -8006,14 +8328,2341 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="123" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="124">
+        <v>1</v>
+      </c>
+      <c r="C1" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="125">
+        <v>264</v>
+      </c>
+      <c r="E1" s="126">
+        <v>0</v>
+      </c>
+      <c r="F1" s="127"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="129">
+        <v>0</v>
+      </c>
+      <c r="K1" s="126"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="123" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" s="124">
+        <v>1</v>
+      </c>
+      <c r="C2" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="125">
+        <v>297</v>
+      </c>
+      <c r="E2" s="126">
+        <v>0</v>
+      </c>
+      <c r="F2" s="127"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="129">
+        <v>0</v>
+      </c>
+      <c r="K2" s="126"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="123" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="124">
+        <v>2</v>
+      </c>
+      <c r="C3" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="125">
+        <v>330</v>
+      </c>
+      <c r="E3" s="126">
+        <v>0</v>
+      </c>
+      <c r="F3" s="127"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="129">
+        <v>0</v>
+      </c>
+      <c r="K3" s="126"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="123" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" s="124">
+        <v>3</v>
+      </c>
+      <c r="C4" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="125">
+        <v>363</v>
+      </c>
+      <c r="E4" s="126">
+        <v>0</v>
+      </c>
+      <c r="F4" s="127"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="129">
+        <v>0</v>
+      </c>
+      <c r="K4" s="126"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="123" t="s">
+        <v>482</v>
+      </c>
+      <c r="B5" s="124">
+        <v>4</v>
+      </c>
+      <c r="C5" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="125">
+        <v>429</v>
+      </c>
+      <c r="E5" s="126">
+        <v>0</v>
+      </c>
+      <c r="F5" s="127"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="129">
+        <v>0</v>
+      </c>
+      <c r="K5" s="126"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="123" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" s="124">
+        <v>5</v>
+      </c>
+      <c r="C6" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="125">
+        <v>462</v>
+      </c>
+      <c r="E6" s="126">
+        <v>0</v>
+      </c>
+      <c r="F6" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="130">
+        <v>120</v>
+      </c>
+      <c r="H6" s="128"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="129">
+        <v>0</v>
+      </c>
+      <c r="K6" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="123" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="124">
+        <v>6</v>
+      </c>
+      <c r="C7" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="125">
+        <v>528</v>
+      </c>
+      <c r="E7" s="126">
+        <v>0</v>
+      </c>
+      <c r="F7" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="130">
+        <v>150</v>
+      </c>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="129">
+        <v>0</v>
+      </c>
+      <c r="K7" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="123" t="s">
+        <v>485</v>
+      </c>
+      <c r="B8" s="124">
+        <v>6</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="125">
+        <v>594</v>
+      </c>
+      <c r="E8" s="126">
+        <v>0</v>
+      </c>
+      <c r="F8" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="130">
+        <v>180</v>
+      </c>
+      <c r="H8" s="128"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129">
+        <v>0</v>
+      </c>
+      <c r="K8" s="126" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="123" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" s="124">
+        <v>7</v>
+      </c>
+      <c r="C9" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="125">
+        <v>627</v>
+      </c>
+      <c r="E9" s="126">
+        <v>0</v>
+      </c>
+      <c r="F9" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="128" t="s">
+        <v>487</v>
+      </c>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="129">
+        <v>0</v>
+      </c>
+      <c r="K9" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="123" t="s">
+        <v>488</v>
+      </c>
+      <c r="B10" s="124">
+        <v>8</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="125">
+        <v>693</v>
+      </c>
+      <c r="E10" s="126">
+        <v>0</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>489</v>
+      </c>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="129">
+        <v>0</v>
+      </c>
+      <c r="K10" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="123" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" s="124">
+        <v>3</v>
+      </c>
+      <c r="C11" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="125">
+        <v>429</v>
+      </c>
+      <c r="E11" s="126">
+        <v>0</v>
+      </c>
+      <c r="F11" s="127"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="129">
+        <v>0</v>
+      </c>
+      <c r="K11" s="126"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="123" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" s="124">
+        <v>4</v>
+      </c>
+      <c r="C12" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" s="125">
+        <v>462</v>
+      </c>
+      <c r="E12" s="126">
+        <v>0</v>
+      </c>
+      <c r="F12" s="127"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="128"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="129">
+        <v>0</v>
+      </c>
+      <c r="K12" s="126"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="123" t="s">
+        <v>492</v>
+      </c>
+      <c r="B13" s="124">
+        <v>5</v>
+      </c>
+      <c r="C13" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="125">
+        <v>528</v>
+      </c>
+      <c r="E13" s="126">
+        <v>0</v>
+      </c>
+      <c r="F13" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="130">
+        <v>240</v>
+      </c>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="129">
+        <v>0</v>
+      </c>
+      <c r="K13" s="126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="123" t="s">
+        <v>493</v>
+      </c>
+      <c r="B14" s="124">
+        <v>6</v>
+      </c>
+      <c r="C14" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="125">
+        <v>561</v>
+      </c>
+      <c r="E14" s="126">
+        <v>0</v>
+      </c>
+      <c r="F14" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="130">
+        <v>300</v>
+      </c>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="129">
+        <v>0</v>
+      </c>
+      <c r="K14" s="126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="123" t="s">
+        <v>494</v>
+      </c>
+      <c r="B15" s="124">
+        <v>6</v>
+      </c>
+      <c r="C15" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" s="125">
+        <v>594</v>
+      </c>
+      <c r="E15" s="126">
+        <v>0</v>
+      </c>
+      <c r="F15" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="130">
+        <v>360</v>
+      </c>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="129">
+        <v>0</v>
+      </c>
+      <c r="K15" s="126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="123" t="s">
+        <v>495</v>
+      </c>
+      <c r="B16" s="124">
+        <v>2</v>
+      </c>
+      <c r="C16" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" s="125">
+        <v>330</v>
+      </c>
+      <c r="E16" s="126">
+        <v>0</v>
+      </c>
+      <c r="F16" s="127"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="129">
+        <v>0</v>
+      </c>
+      <c r="K16" s="126"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="123" t="s">
+        <v>496</v>
+      </c>
+      <c r="B17" s="124">
+        <v>3</v>
+      </c>
+      <c r="C17" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="125">
+        <v>363</v>
+      </c>
+      <c r="E17" s="126">
+        <v>0</v>
+      </c>
+      <c r="F17" s="127"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="129">
+        <v>15</v>
+      </c>
+      <c r="K17" s="126"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="123" t="s">
+        <v>497</v>
+      </c>
+      <c r="B18" s="124">
+        <v>4</v>
+      </c>
+      <c r="C18" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" s="125">
+        <v>429</v>
+      </c>
+      <c r="E18" s="126">
+        <v>0</v>
+      </c>
+      <c r="F18" s="127"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="129">
+        <v>15</v>
+      </c>
+      <c r="K18" s="126"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="124" t="s">
+        <v>498</v>
+      </c>
+      <c r="B19" s="124">
+        <v>5</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="125">
+        <v>495</v>
+      </c>
+      <c r="E19" s="126">
+        <v>0</v>
+      </c>
+      <c r="F19" s="127"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128" t="s">
+        <v>436</v>
+      </c>
+      <c r="I19" s="128">
+        <v>210</v>
+      </c>
+      <c r="J19" s="129">
+        <v>20</v>
+      </c>
+      <c r="K19" s="126"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="124" t="s">
+        <v>499</v>
+      </c>
+      <c r="B20" s="124">
+        <v>6</v>
+      </c>
+      <c r="C20" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="125">
+        <v>528</v>
+      </c>
+      <c r="E20" s="126">
+        <v>0</v>
+      </c>
+      <c r="F20" s="127"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128" t="s">
+        <v>436</v>
+      </c>
+      <c r="I20" s="128">
+        <v>240</v>
+      </c>
+      <c r="J20" s="129">
+        <v>20</v>
+      </c>
+      <c r="K20" s="126"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="124" t="s">
+        <v>500</v>
+      </c>
+      <c r="B21" s="124">
+        <v>6</v>
+      </c>
+      <c r="C21" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="125">
+        <v>561</v>
+      </c>
+      <c r="E21" s="126">
+        <v>0</v>
+      </c>
+      <c r="F21" s="127"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128" t="s">
+        <v>436</v>
+      </c>
+      <c r="I21" s="128">
+        <v>270</v>
+      </c>
+      <c r="J21" s="129">
+        <v>20</v>
+      </c>
+      <c r="K21" s="126"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="123" t="s">
+        <v>501</v>
+      </c>
+      <c r="B22" s="124">
+        <v>6</v>
+      </c>
+      <c r="C22" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="125">
+        <v>594</v>
+      </c>
+      <c r="E22" s="126">
+        <v>25</v>
+      </c>
+      <c r="F22" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="128">
+        <v>90</v>
+      </c>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="129">
+        <v>-10</v>
+      </c>
+      <c r="K22" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="123" t="s">
+        <v>502</v>
+      </c>
+      <c r="B23" s="124">
+        <v>7</v>
+      </c>
+      <c r="C23" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="125">
+        <v>660</v>
+      </c>
+      <c r="E23" s="126">
+        <v>30</v>
+      </c>
+      <c r="F23" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" s="128">
+        <v>120</v>
+      </c>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="129">
+        <v>-10</v>
+      </c>
+      <c r="K23" s="126" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="123" t="s">
+        <v>504</v>
+      </c>
+      <c r="B24" s="124">
+        <v>3</v>
+      </c>
+      <c r="C24" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="125">
+        <v>363</v>
+      </c>
+      <c r="E24" s="126">
+        <v>0</v>
+      </c>
+      <c r="F24" s="127"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128" t="s">
+        <v>434</v>
+      </c>
+      <c r="I24" s="128">
+        <v>240</v>
+      </c>
+      <c r="J24" s="129">
+        <v>10</v>
+      </c>
+      <c r="K24" s="126"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="123" t="s">
+        <v>505</v>
+      </c>
+      <c r="B25" s="124">
+        <v>5</v>
+      </c>
+      <c r="C25" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="125">
+        <v>495</v>
+      </c>
+      <c r="E25" s="126">
+        <v>0</v>
+      </c>
+      <c r="F25" s="127"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128" t="s">
+        <v>434</v>
+      </c>
+      <c r="I25" s="128">
+        <v>270</v>
+      </c>
+      <c r="J25" s="129">
+        <v>10</v>
+      </c>
+      <c r="K25" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="123" t="s">
+        <v>506</v>
+      </c>
+      <c r="B26" s="124">
+        <v>7</v>
+      </c>
+      <c r="C26" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D26" s="125">
+        <v>627</v>
+      </c>
+      <c r="E26" s="126">
+        <v>0</v>
+      </c>
+      <c r="F26" s="127"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128" t="s">
+        <v>434</v>
+      </c>
+      <c r="I26" s="128">
+        <v>33</v>
+      </c>
+      <c r="J26" s="129">
+        <v>10</v>
+      </c>
+      <c r="K26" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="123" t="s">
+        <v>507</v>
+      </c>
+      <c r="B27" s="124">
+        <v>4</v>
+      </c>
+      <c r="C27" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D27" s="125">
+        <v>396</v>
+      </c>
+      <c r="E27" s="126">
+        <v>0</v>
+      </c>
+      <c r="F27" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="128">
+        <v>150</v>
+      </c>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="129">
+        <v>15</v>
+      </c>
+      <c r="K27" s="126"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="123" t="s">
+        <v>508</v>
+      </c>
+      <c r="B28" s="124">
+        <v>6</v>
+      </c>
+      <c r="C28" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D28" s="125">
+        <v>528</v>
+      </c>
+      <c r="E28" s="126">
+        <v>0</v>
+      </c>
+      <c r="F28" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" s="128">
+        <v>180</v>
+      </c>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="129">
+        <v>15</v>
+      </c>
+      <c r="K28" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="123" t="s">
+        <v>509</v>
+      </c>
+      <c r="B29" s="124">
+        <v>7</v>
+      </c>
+      <c r="C29" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D29" s="125">
+        <v>561</v>
+      </c>
+      <c r="E29" s="126">
+        <v>0</v>
+      </c>
+      <c r="F29" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="128">
+        <v>210</v>
+      </c>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129">
+        <v>15</v>
+      </c>
+      <c r="K29" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="123" t="s">
+        <v>510</v>
+      </c>
+      <c r="B30" s="124">
+        <v>8</v>
+      </c>
+      <c r="C30" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D30" s="125">
+        <v>627</v>
+      </c>
+      <c r="E30" s="126">
+        <v>0</v>
+      </c>
+      <c r="F30" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" s="128">
+        <v>240</v>
+      </c>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129">
+        <v>15</v>
+      </c>
+      <c r="K30" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="123" t="s">
+        <v>511</v>
+      </c>
+      <c r="B31" s="124">
+        <v>1</v>
+      </c>
+      <c r="C31" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="125">
+        <v>297</v>
+      </c>
+      <c r="E31" s="126">
+        <v>0</v>
+      </c>
+      <c r="F31" s="127"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="129">
+        <v>0</v>
+      </c>
+      <c r="K31" s="126"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="123" t="s">
+        <v>512</v>
+      </c>
+      <c r="B32" s="124">
+        <v>1</v>
+      </c>
+      <c r="C32" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D32" s="125">
+        <v>330</v>
+      </c>
+      <c r="E32" s="126">
+        <v>0</v>
+      </c>
+      <c r="F32" s="127"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="129">
+        <v>0</v>
+      </c>
+      <c r="K32" s="126"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="123" t="s">
+        <v>513</v>
+      </c>
+      <c r="B33" s="124">
+        <v>2</v>
+      </c>
+      <c r="C33" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" s="125">
+        <v>396</v>
+      </c>
+      <c r="E33" s="126">
+        <v>0</v>
+      </c>
+      <c r="F33" s="127"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="129">
+        <v>0</v>
+      </c>
+      <c r="K33" s="126"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="123" t="s">
+        <v>514</v>
+      </c>
+      <c r="B34" s="124">
+        <v>3</v>
+      </c>
+      <c r="C34" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D34" s="125">
+        <v>429</v>
+      </c>
+      <c r="E34" s="126">
+        <v>0</v>
+      </c>
+      <c r="F34" s="127"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="129">
+        <v>0</v>
+      </c>
+      <c r="K34" s="126"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="123" t="s">
+        <v>515</v>
+      </c>
+      <c r="B35" s="124">
+        <v>4</v>
+      </c>
+      <c r="C35" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D35" s="125">
+        <v>495</v>
+      </c>
+      <c r="E35" s="126">
+        <v>0</v>
+      </c>
+      <c r="F35" s="127"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="129">
+        <v>0</v>
+      </c>
+      <c r="K35" s="126"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="124" t="s">
+        <v>516</v>
+      </c>
+      <c r="B36" s="124">
+        <v>5</v>
+      </c>
+      <c r="C36" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D36" s="125">
+        <v>582</v>
+      </c>
+      <c r="E36" s="126">
+        <v>0</v>
+      </c>
+      <c r="F36" s="127"/>
+      <c r="G36" s="130"/>
+      <c r="H36" s="128" t="s">
+        <v>436</v>
+      </c>
+      <c r="I36" s="128">
+        <v>210</v>
+      </c>
+      <c r="J36" s="129">
+        <v>0</v>
+      </c>
+      <c r="K36" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="124" t="s">
+        <v>517</v>
+      </c>
+      <c r="B37" s="124">
+        <v>6</v>
+      </c>
+      <c r="C37" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D37" s="125">
+        <v>561</v>
+      </c>
+      <c r="E37" s="126">
+        <v>10</v>
+      </c>
+      <c r="F37" s="127"/>
+      <c r="G37" s="130"/>
+      <c r="H37" s="128" t="s">
+        <v>436</v>
+      </c>
+      <c r="I37" s="128">
+        <v>240</v>
+      </c>
+      <c r="J37" s="129">
+        <v>0</v>
+      </c>
+      <c r="K37" s="126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="124" t="s">
+        <v>518</v>
+      </c>
+      <c r="B38" s="124">
+        <v>6</v>
+      </c>
+      <c r="C38" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D38" s="125">
+        <v>627</v>
+      </c>
+      <c r="E38" s="126">
+        <v>10</v>
+      </c>
+      <c r="F38" s="127"/>
+      <c r="G38" s="130"/>
+      <c r="H38" s="128" t="s">
+        <v>436</v>
+      </c>
+      <c r="I38" s="131">
+        <v>270</v>
+      </c>
+      <c r="J38" s="129">
+        <v>0</v>
+      </c>
+      <c r="K38" s="126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="123" t="s">
+        <v>519</v>
+      </c>
+      <c r="B39" s="124">
+        <v>6</v>
+      </c>
+      <c r="C39" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D39" s="125">
+        <v>561</v>
+      </c>
+      <c r="E39" s="126">
+        <v>0</v>
+      </c>
+      <c r="F39" s="127"/>
+      <c r="G39" s="130"/>
+      <c r="H39" s="128" t="s">
+        <v>437</v>
+      </c>
+      <c r="I39" s="128">
+        <v>150</v>
+      </c>
+      <c r="J39" s="129">
+        <v>-10</v>
+      </c>
+      <c r="K39" s="126" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="123" t="s">
+        <v>520</v>
+      </c>
+      <c r="B40" s="124">
+        <v>8</v>
+      </c>
+      <c r="C40" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D40" s="125">
+        <v>660</v>
+      </c>
+      <c r="E40" s="126">
+        <v>0</v>
+      </c>
+      <c r="F40" s="127"/>
+      <c r="G40" s="130"/>
+      <c r="H40" s="128" t="s">
+        <v>437</v>
+      </c>
+      <c r="I40" s="131">
+        <v>210</v>
+      </c>
+      <c r="J40" s="129">
+        <v>-10</v>
+      </c>
+      <c r="K40" s="126" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="123" t="s">
+        <v>521</v>
+      </c>
+      <c r="B41" s="124">
+        <v>3</v>
+      </c>
+      <c r="C41" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D41" s="125">
+        <v>462</v>
+      </c>
+      <c r="E41" s="126">
+        <v>0</v>
+      </c>
+      <c r="F41" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="130">
+        <v>150</v>
+      </c>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="129">
+        <v>-20</v>
+      </c>
+      <c r="K41" s="126"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="123" t="s">
+        <v>522</v>
+      </c>
+      <c r="B42" s="124">
+        <v>4</v>
+      </c>
+      <c r="C42" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D42" s="125">
+        <v>528</v>
+      </c>
+      <c r="E42" s="126">
+        <v>0</v>
+      </c>
+      <c r="F42" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="G42" s="130">
+        <v>210</v>
+      </c>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="129">
+        <v>-20</v>
+      </c>
+      <c r="K42" s="126"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="123" t="s">
+        <v>523</v>
+      </c>
+      <c r="B43" s="124">
+        <v>5</v>
+      </c>
+      <c r="C43" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D43" s="125">
+        <v>594</v>
+      </c>
+      <c r="E43" s="126">
+        <v>0</v>
+      </c>
+      <c r="F43" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="G43" s="130">
+        <v>270</v>
+      </c>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="129">
+        <v>-20</v>
+      </c>
+      <c r="K43" s="126"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="123" t="s">
+        <v>524</v>
+      </c>
+      <c r="B44" s="124">
+        <v>6</v>
+      </c>
+      <c r="C44" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D44" s="125">
+        <v>660</v>
+      </c>
+      <c r="E44" s="126">
+        <v>0</v>
+      </c>
+      <c r="F44" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="G44" s="130">
+        <v>330</v>
+      </c>
+      <c r="H44" s="128"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="129">
+        <v>-20</v>
+      </c>
+      <c r="K44" s="126"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="123" t="s">
+        <v>525</v>
+      </c>
+      <c r="B45" s="124">
+        <v>6</v>
+      </c>
+      <c r="C45" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D45" s="125">
+        <v>693</v>
+      </c>
+      <c r="E45" s="126">
+        <v>0</v>
+      </c>
+      <c r="F45" s="127" t="s">
+        <v>228</v>
+      </c>
+      <c r="G45" s="130">
+        <v>390</v>
+      </c>
+      <c r="H45" s="128"/>
+      <c r="I45" s="131"/>
+      <c r="J45" s="129">
+        <v>-20</v>
+      </c>
+      <c r="K45" s="126"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="123" t="s">
+        <v>526</v>
+      </c>
+      <c r="B46" s="124">
+        <v>2</v>
+      </c>
+      <c r="C46" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D46" s="125">
+        <v>396</v>
+      </c>
+      <c r="E46" s="126">
+        <v>0</v>
+      </c>
+      <c r="F46" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="130">
+        <v>150</v>
+      </c>
+      <c r="H46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="129">
+        <v>0</v>
+      </c>
+      <c r="K46" s="126"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="123" t="s">
+        <v>527</v>
+      </c>
+      <c r="B47" s="124">
+        <v>3</v>
+      </c>
+      <c r="C47" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D47" s="125">
+        <v>429</v>
+      </c>
+      <c r="E47" s="126">
+        <v>0</v>
+      </c>
+      <c r="F47" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="G47" s="130">
+        <v>180</v>
+      </c>
+      <c r="H47" s="128"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="129">
+        <v>0</v>
+      </c>
+      <c r="K47" s="126"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="123" t="s">
+        <v>528</v>
+      </c>
+      <c r="B48" s="124">
+        <v>4</v>
+      </c>
+      <c r="C48" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D48" s="125">
+        <v>462</v>
+      </c>
+      <c r="E48" s="126">
+        <v>0</v>
+      </c>
+      <c r="F48" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" s="130">
+        <v>210</v>
+      </c>
+      <c r="H48" s="128"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="129">
+        <v>0</v>
+      </c>
+      <c r="K48" s="126"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="123" t="s">
+        <v>529</v>
+      </c>
+      <c r="B49" s="124">
+        <v>5</v>
+      </c>
+      <c r="C49" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="125">
+        <v>495</v>
+      </c>
+      <c r="E49" s="126">
+        <v>0</v>
+      </c>
+      <c r="F49" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" s="130">
+        <v>240</v>
+      </c>
+      <c r="H49" s="128"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="129">
+        <v>0</v>
+      </c>
+      <c r="K49" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="123" t="s">
+        <v>530</v>
+      </c>
+      <c r="B50" s="124">
+        <v>6</v>
+      </c>
+      <c r="C50" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D50" s="125">
+        <v>561</v>
+      </c>
+      <c r="E50" s="126">
+        <v>0</v>
+      </c>
+      <c r="F50" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" s="130">
+        <v>300</v>
+      </c>
+      <c r="H50" s="128"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="129">
+        <v>0</v>
+      </c>
+      <c r="K50" s="126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="123" t="s">
+        <v>531</v>
+      </c>
+      <c r="B51" s="124">
+        <v>6</v>
+      </c>
+      <c r="C51" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D51" s="125">
+        <v>627</v>
+      </c>
+      <c r="E51" s="126">
+        <v>0</v>
+      </c>
+      <c r="F51" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51" s="130">
+        <v>360</v>
+      </c>
+      <c r="H51" s="128"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="129">
+        <v>0</v>
+      </c>
+      <c r="K51" s="126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="123" t="s">
+        <v>532</v>
+      </c>
+      <c r="B52" s="124">
+        <v>7</v>
+      </c>
+      <c r="C52" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D52" s="125">
+        <v>627</v>
+      </c>
+      <c r="E52" s="126">
+        <v>0</v>
+      </c>
+      <c r="F52" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="130" t="s">
+        <v>533</v>
+      </c>
+      <c r="H52" s="128"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="129">
+        <v>0</v>
+      </c>
+      <c r="K52" s="126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="123" t="s">
+        <v>534</v>
+      </c>
+      <c r="B53" s="124">
+        <v>7</v>
+      </c>
+      <c r="C53" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D53" s="125">
+        <v>660</v>
+      </c>
+      <c r="E53" s="126">
+        <v>0</v>
+      </c>
+      <c r="F53" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="130" t="s">
+        <v>535</v>
+      </c>
+      <c r="H53" s="128"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="129">
+        <v>0</v>
+      </c>
+      <c r="K53" s="126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="123" t="s">
+        <v>536</v>
+      </c>
+      <c r="B54" s="124">
+        <v>2</v>
+      </c>
+      <c r="C54" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D54" s="125">
+        <v>363</v>
+      </c>
+      <c r="E54" s="126">
+        <v>0</v>
+      </c>
+      <c r="F54" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="128">
+        <v>120</v>
+      </c>
+      <c r="H54" s="128"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="129">
+        <v>10</v>
+      </c>
+      <c r="K54" s="126"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="123" t="s">
+        <v>537</v>
+      </c>
+      <c r="B55" s="124">
+        <v>3</v>
+      </c>
+      <c r="C55" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D55" s="125">
+        <v>396</v>
+      </c>
+      <c r="E55" s="126">
+        <v>0</v>
+      </c>
+      <c r="F55" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" s="128">
+        <v>150</v>
+      </c>
+      <c r="H55" s="128"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="129">
+        <v>10</v>
+      </c>
+      <c r="K55" s="126"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="123" t="s">
+        <v>538</v>
+      </c>
+      <c r="B56" s="124">
+        <v>4</v>
+      </c>
+      <c r="C56" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D56" s="125">
+        <v>462</v>
+      </c>
+      <c r="E56" s="126">
+        <v>0</v>
+      </c>
+      <c r="F56" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="128">
+        <v>180</v>
+      </c>
+      <c r="H56" s="128"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="129">
+        <v>10</v>
+      </c>
+      <c r="K56" s="126"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="123" t="s">
+        <v>539</v>
+      </c>
+      <c r="B57" s="124">
+        <v>5</v>
+      </c>
+      <c r="C57" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D57" s="125">
+        <v>528</v>
+      </c>
+      <c r="E57" s="126">
+        <v>0</v>
+      </c>
+      <c r="F57" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" s="128">
+        <v>210</v>
+      </c>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="129">
+        <v>15</v>
+      </c>
+      <c r="K57" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="123" t="s">
+        <v>540</v>
+      </c>
+      <c r="B58" s="124">
+        <v>6</v>
+      </c>
+      <c r="C58" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D58" s="125">
+        <v>561</v>
+      </c>
+      <c r="E58" s="126">
+        <v>0</v>
+      </c>
+      <c r="F58" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" s="128">
+        <v>240</v>
+      </c>
+      <c r="H58" s="128"/>
+      <c r="I58" s="128"/>
+      <c r="J58" s="129">
+        <v>15</v>
+      </c>
+      <c r="K58" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="123" t="s">
+        <v>541</v>
+      </c>
+      <c r="B59" s="124">
+        <v>6</v>
+      </c>
+      <c r="C59" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D59" s="125">
+        <v>594</v>
+      </c>
+      <c r="E59" s="126">
+        <v>0</v>
+      </c>
+      <c r="F59" s="127" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" s="128">
+        <v>270</v>
+      </c>
+      <c r="H59" s="128"/>
+      <c r="I59" s="131"/>
+      <c r="J59" s="129">
+        <v>15</v>
+      </c>
+      <c r="K59" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="123" t="s">
+        <v>542</v>
+      </c>
+      <c r="B60" s="124">
+        <v>4</v>
+      </c>
+      <c r="C60" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D60" s="125">
+        <v>429</v>
+      </c>
+      <c r="E60" s="126">
+        <v>0</v>
+      </c>
+      <c r="F60" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" s="128">
+        <v>210</v>
+      </c>
+      <c r="H60" s="128"/>
+      <c r="I60" s="128"/>
+      <c r="J60" s="129">
+        <v>0</v>
+      </c>
+      <c r="K60" s="126"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="123" t="s">
+        <v>543</v>
+      </c>
+      <c r="B61" s="124">
+        <v>5</v>
+      </c>
+      <c r="C61" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D61" s="125">
+        <v>462</v>
+      </c>
+      <c r="E61" s="126">
+        <v>0</v>
+      </c>
+      <c r="F61" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" s="128">
+        <v>240</v>
+      </c>
+      <c r="H61" s="128"/>
+      <c r="I61" s="128"/>
+      <c r="J61" s="129">
+        <v>0</v>
+      </c>
+      <c r="K61" s="126"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="123" t="s">
+        <v>544</v>
+      </c>
+      <c r="B62" s="124">
+        <v>6</v>
+      </c>
+      <c r="C62" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D62" s="125">
+        <v>495</v>
+      </c>
+      <c r="E62" s="126">
+        <v>0</v>
+      </c>
+      <c r="F62" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="128">
+        <v>300</v>
+      </c>
+      <c r="H62" s="128"/>
+      <c r="I62" s="128"/>
+      <c r="J62" s="129">
+        <v>0</v>
+      </c>
+      <c r="K62" s="126"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="123" t="s">
+        <v>545</v>
+      </c>
+      <c r="B63" s="124">
+        <v>8</v>
+      </c>
+      <c r="C63" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D63" s="125">
+        <v>528</v>
+      </c>
+      <c r="E63" s="126">
+        <v>0</v>
+      </c>
+      <c r="F63" s="127" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="128">
+        <v>360</v>
+      </c>
+      <c r="H63" s="128"/>
+      <c r="I63" s="131"/>
+      <c r="J63" s="129">
+        <v>0</v>
+      </c>
+      <c r="K63" s="126"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="123" t="s">
+        <v>546</v>
+      </c>
+      <c r="B64" s="124">
+        <v>3</v>
+      </c>
+      <c r="C64" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D64" s="125">
+        <v>396</v>
+      </c>
+      <c r="E64" s="126">
+        <v>0</v>
+      </c>
+      <c r="F64" s="127"/>
+      <c r="G64" s="128"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="128"/>
+      <c r="J64" s="129">
+        <v>0</v>
+      </c>
+      <c r="K64" s="126"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="123" t="s">
+        <v>547</v>
+      </c>
+      <c r="B65" s="124">
+        <v>4</v>
+      </c>
+      <c r="C65" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D65" s="125">
+        <v>429</v>
+      </c>
+      <c r="E65" s="126">
+        <v>0</v>
+      </c>
+      <c r="F65" s="127"/>
+      <c r="G65" s="128"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="128"/>
+      <c r="J65" s="129">
+        <v>0</v>
+      </c>
+      <c r="K65" s="126"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="123" t="s">
+        <v>548</v>
+      </c>
+      <c r="B66" s="124">
+        <v>5</v>
+      </c>
+      <c r="C66" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D66" s="125">
+        <v>462</v>
+      </c>
+      <c r="E66" s="126">
+        <v>0</v>
+      </c>
+      <c r="F66" s="127"/>
+      <c r="G66" s="128"/>
+      <c r="H66" s="128" t="s">
+        <v>435</v>
+      </c>
+      <c r="I66" s="128">
+        <v>180</v>
+      </c>
+      <c r="J66" s="129">
+        <v>0</v>
+      </c>
+      <c r="K66" s="126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="123" t="s">
+        <v>549</v>
+      </c>
+      <c r="B67" s="124">
+        <v>6</v>
+      </c>
+      <c r="C67" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D67" s="125">
+        <v>495</v>
+      </c>
+      <c r="E67" s="126">
+        <v>0</v>
+      </c>
+      <c r="F67" s="127"/>
+      <c r="G67" s="128"/>
+      <c r="H67" s="128" t="s">
+        <v>435</v>
+      </c>
+      <c r="I67" s="128">
+        <v>210</v>
+      </c>
+      <c r="J67" s="129">
+        <v>0</v>
+      </c>
+      <c r="K67" s="126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="123" t="s">
+        <v>550</v>
+      </c>
+      <c r="B68" s="124">
+        <v>6</v>
+      </c>
+      <c r="C68" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D68" s="125">
+        <v>528</v>
+      </c>
+      <c r="E68" s="126">
+        <v>0</v>
+      </c>
+      <c r="F68" s="127"/>
+      <c r="G68" s="128"/>
+      <c r="H68" s="128" t="s">
+        <v>435</v>
+      </c>
+      <c r="I68" s="131">
+        <v>240</v>
+      </c>
+      <c r="J68" s="129">
+        <v>0</v>
+      </c>
+      <c r="K68" s="126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="123" t="s">
+        <v>551</v>
+      </c>
+      <c r="B69" s="124">
+        <v>3</v>
+      </c>
+      <c r="C69" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="125">
+        <v>330</v>
+      </c>
+      <c r="E69" s="126">
+        <v>0</v>
+      </c>
+      <c r="F69" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" s="128"/>
+      <c r="I69" s="128"/>
+      <c r="J69" s="129">
+        <v>0</v>
+      </c>
+      <c r="K69" s="126"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="123" t="s">
+        <v>552</v>
+      </c>
+      <c r="B70" s="124">
+        <v>4</v>
+      </c>
+      <c r="C70" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D70" s="125">
+        <v>363</v>
+      </c>
+      <c r="E70" s="126">
+        <v>0</v>
+      </c>
+      <c r="F70" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G70" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="128"/>
+      <c r="I70" s="128"/>
+      <c r="J70" s="129">
+        <v>0</v>
+      </c>
+      <c r="K70" s="126"/>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="123" t="s">
+        <v>553</v>
+      </c>
+      <c r="B71" s="124">
+        <v>6</v>
+      </c>
+      <c r="C71" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D71" s="125">
+        <v>528</v>
+      </c>
+      <c r="E71" s="126">
+        <v>0</v>
+      </c>
+      <c r="F71" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="128" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="128"/>
+      <c r="I71" s="128"/>
+      <c r="J71" s="129">
+        <v>0</v>
+      </c>
+      <c r="K71" s="126" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="123" t="s">
+        <v>554</v>
+      </c>
+      <c r="B72" s="124">
+        <v>5</v>
+      </c>
+      <c r="C72" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D72" s="125">
+        <v>528</v>
+      </c>
+      <c r="E72" s="126">
+        <v>20</v>
+      </c>
+      <c r="F72" s="127"/>
+      <c r="G72" s="128"/>
+      <c r="H72" s="128" t="s">
+        <v>437</v>
+      </c>
+      <c r="I72" s="128">
+        <v>300</v>
+      </c>
+      <c r="J72" s="129">
+        <v>-20</v>
+      </c>
+      <c r="K72" s="126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="123" t="s">
+        <v>555</v>
+      </c>
+      <c r="B73" s="124">
+        <v>7</v>
+      </c>
+      <c r="C73" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D73" s="125">
+        <v>726</v>
+      </c>
+      <c r="E73" s="126">
+        <v>20</v>
+      </c>
+      <c r="F73" s="127"/>
+      <c r="G73" s="128"/>
+      <c r="H73" s="128" t="s">
+        <v>437</v>
+      </c>
+      <c r="I73" s="128">
+        <v>360</v>
+      </c>
+      <c r="J73" s="129">
+        <v>-20</v>
+      </c>
+      <c r="K73" s="126" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="123" t="s">
+        <v>556</v>
+      </c>
+      <c r="B74" s="124">
+        <v>5</v>
+      </c>
+      <c r="C74" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="125">
+        <v>330</v>
+      </c>
+      <c r="E74" s="126">
+        <v>0</v>
+      </c>
+      <c r="F74" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74" s="128" t="s">
+        <v>63</v>
+      </c>
+      <c r="H74" s="128"/>
+      <c r="I74" s="128"/>
+      <c r="J74" s="129">
+        <v>0</v>
+      </c>
+      <c r="K74" s="126"/>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="123" t="s">
+        <v>557</v>
+      </c>
+      <c r="B75" s="124">
+        <v>6</v>
+      </c>
+      <c r="C75" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D75" s="125">
+        <v>363</v>
+      </c>
+      <c r="E75" s="126">
+        <v>0</v>
+      </c>
+      <c r="F75" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G75" s="128" t="s">
+        <v>558</v>
+      </c>
+      <c r="H75" s="128"/>
+      <c r="I75" s="128"/>
+      <c r="J75" s="129">
+        <v>0</v>
+      </c>
+      <c r="K75" s="126"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="123" t="s">
+        <v>559</v>
+      </c>
+      <c r="B76" s="124">
+        <v>7</v>
+      </c>
+      <c r="C76" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D76" s="125">
+        <v>561</v>
+      </c>
+      <c r="E76" s="126">
+        <v>0</v>
+      </c>
+      <c r="F76" s="127"/>
+      <c r="G76" s="128"/>
+      <c r="H76" s="128" t="s">
+        <v>437</v>
+      </c>
+      <c r="I76" s="128">
+        <v>300</v>
+      </c>
+      <c r="J76" s="129">
+        <v>0</v>
+      </c>
+      <c r="K76" s="126"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="123" t="s">
+        <v>560</v>
+      </c>
+      <c r="B77" s="124">
+        <v>8</v>
+      </c>
+      <c r="C77" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D77" s="125">
+        <v>627</v>
+      </c>
+      <c r="E77" s="126">
+        <v>0</v>
+      </c>
+      <c r="F77" s="127"/>
+      <c r="G77" s="128"/>
+      <c r="H77" s="128" t="s">
+        <v>437</v>
+      </c>
+      <c r="I77" s="128">
+        <v>300</v>
+      </c>
+      <c r="J77" s="129">
+        <v>0</v>
+      </c>
+      <c r="K77" s="126"/>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="123" t="s">
+        <v>561</v>
+      </c>
+      <c r="B78" s="124">
+        <v>8</v>
+      </c>
+      <c r="C78" s="123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D78" s="125">
+        <v>594</v>
+      </c>
+      <c r="E78" s="126">
+        <v>0</v>
+      </c>
+      <c r="F78" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78" s="128" t="s">
+        <v>562</v>
+      </c>
+      <c r="H78" s="128"/>
+      <c r="I78" s="128"/>
+      <c r="J78" s="129">
+        <v>15</v>
+      </c>
+      <c r="K78" s="126" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="123" t="s">
+        <v>563</v>
+      </c>
+      <c r="B79" s="124">
+        <v>6</v>
+      </c>
+      <c r="C79" s="123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="125">
+        <v>561</v>
+      </c>
+      <c r="E79" s="126">
+        <v>20</v>
+      </c>
+      <c r="F79" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="128" t="s">
+        <v>489</v>
+      </c>
+      <c r="H79" s="128"/>
+      <c r="I79" s="128"/>
+      <c r="J79" s="129">
+        <v>0</v>
+      </c>
+      <c r="K79" s="126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" s="123" t="s">
+        <v>564</v>
+      </c>
+      <c r="B80" s="124">
+        <v>8</v>
+      </c>
+      <c r="C80" s="132" t="s">
+        <v>421</v>
+      </c>
+      <c r="D80" s="125">
+        <v>693</v>
+      </c>
+      <c r="E80" s="126">
+        <v>20</v>
+      </c>
+      <c r="F80" s="127" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="H80" s="128"/>
+      <c r="I80" s="128"/>
+      <c r="J80" s="129">
+        <v>0</v>
+      </c>
+      <c r="K80" s="126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/app/weapon_data.xlsx
+++ b/app/weapon_data.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Great_Sword" sheetId="1" r:id="rId1"/>
     <sheet name="Long_Sword" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="One_Hand_Sword" sheetId="3" r:id="rId3"/>
+    <sheet name="Two_Swords" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="810">
   <si>
     <t>용골대검 I</t>
   </si>
@@ -1704,18 +1705,754 @@
   </si>
   <si>
     <t>천상천하무쌍도</t>
+  </si>
+  <si>
+    <t>헌터나이프 III</t>
+  </si>
+  <si>
+    <t>스틸나이프 I</t>
+  </si>
+  <si>
+    <t>스틸나이프 II</t>
+  </si>
+  <si>
+    <t>스틸나이프 III</t>
+  </si>
+  <si>
+    <t>수면(120)</t>
+  </si>
+  <si>
+    <t>크롬슬라이서 I</t>
+  </si>
+  <si>
+    <t>수면(150)</t>
+  </si>
+  <si>
+    <t>크롬슬라이서 II</t>
+  </si>
+  <si>
+    <t>수면(240)</t>
+  </si>
+  <si>
+    <t>네르갈잭</t>
+  </si>
+  <si>
+    <t>토멸의첨병</t>
+  </si>
+  <si>
+    <t>플레임나이프 I</t>
+  </si>
+  <si>
+    <t>플레임나이프 II</t>
+  </si>
+  <si>
+    <t>히트에지</t>
+  </si>
+  <si>
+    <t>코로나</t>
+  </si>
+  <si>
+    <t>헤비뱅</t>
+  </si>
+  <si>
+    <t>헤비뱅+</t>
+  </si>
+  <si>
+    <t>마스터뱅</t>
+  </si>
+  <si>
+    <t>아쿠아메서 II</t>
+  </si>
+  <si>
+    <t>아쿠아메서 III</t>
+  </si>
+  <si>
+    <t>플러드웨이브 I</t>
+  </si>
+  <si>
+    <t>플러드웨이브 II</t>
+  </si>
+  <si>
+    <t>플러드웨이브 III</t>
+  </si>
+  <si>
+    <t>그레이스파이터 I</t>
+  </si>
+  <si>
+    <t>그레이스파이터 II</t>
+  </si>
+  <si>
+    <t>트라이앵글러</t>
+  </si>
+  <si>
+    <t>레이트라이앵글러</t>
+  </si>
+  <si>
+    <t>프린세스레이피어</t>
+  </si>
+  <si>
+    <t>독150</t>
+  </si>
+  <si>
+    <t>퀸레이피어</t>
+  </si>
+  <si>
+    <t>독180</t>
+  </si>
+  <si>
+    <t>퀸로즈</t>
+  </si>
+  <si>
+    <t>독210</t>
+  </si>
+  <si>
+    <t>로열로즈</t>
+  </si>
+  <si>
+    <t>우르무나이프 I</t>
+  </si>
+  <si>
+    <t>우르무나이프 II</t>
+  </si>
+  <si>
+    <t>우르무타바르 I</t>
+  </si>
+  <si>
+    <t>폭파(270)</t>
+  </si>
+  <si>
+    <t>우르무타바르 II</t>
+  </si>
+  <si>
+    <t>폭파(300)</t>
+  </si>
+  <si>
+    <t>우르무타바르 III</t>
+  </si>
+  <si>
+    <t>폭파(330)</t>
+  </si>
+  <si>
+    <t>블룸나이프 II</t>
+  </si>
+  <si>
+    <t>블룸나이프 III</t>
+  </si>
+  <si>
+    <t>독270</t>
+  </si>
+  <si>
+    <t>다추라블로섬 I</t>
+  </si>
+  <si>
+    <t>독330</t>
+  </si>
+  <si>
+    <t>다추라블로섬 II</t>
+  </si>
+  <si>
+    <t>다추라블로섬 III</t>
+  </si>
+  <si>
+    <t>독390</t>
+  </si>
+  <si>
+    <t>기르오스나이프 I</t>
+  </si>
+  <si>
+    <t>마비120</t>
+  </si>
+  <si>
+    <t>기르오스나이프 II</t>
+  </si>
+  <si>
+    <t>마비150</t>
+  </si>
+  <si>
+    <t>마라드타바르 I</t>
+  </si>
+  <si>
+    <t>마비180</t>
+  </si>
+  <si>
+    <t>마라드타바르 II</t>
+  </si>
+  <si>
+    <t>마비210</t>
+  </si>
+  <si>
+    <t>마라드타바르 III</t>
+  </si>
+  <si>
+    <t>마비240</t>
+  </si>
+  <si>
+    <t>본쿠크리 III</t>
+  </si>
+  <si>
+    <t>치프쿠크리 I</t>
+  </si>
+  <si>
+    <t>치프쿠크리 II</t>
+  </si>
+  <si>
+    <t>치프쿠크리 III</t>
+  </si>
+  <si>
+    <t>마비(240)</t>
+  </si>
+  <si>
+    <t>그랜드바롱 I</t>
+  </si>
+  <si>
+    <t>그랜드바롱 II</t>
+  </si>
+  <si>
+    <t>마비(300)</t>
+  </si>
+  <si>
+    <t>스파이크에지 I</t>
+  </si>
+  <si>
+    <t>수면120</t>
+  </si>
+  <si>
+    <t>스파이크에지 II</t>
+  </si>
+  <si>
+    <t>발킨가로테 I</t>
+  </si>
+  <si>
+    <t>수면150</t>
+  </si>
+  <si>
+    <t>발킨가로테 II</t>
+  </si>
+  <si>
+    <t>수면180</t>
+  </si>
+  <si>
+    <t>발킨가로테 III</t>
+  </si>
+  <si>
+    <t>수면210</t>
+  </si>
+  <si>
+    <t>쟈그라스에지 I</t>
+  </si>
+  <si>
+    <t>쟈그라스에지 II</t>
+  </si>
+  <si>
+    <t>쟈그라스에지 III</t>
+  </si>
+  <si>
+    <t>쟈그라스가로테 I</t>
+  </si>
+  <si>
+    <t>쟈그라스가로테 II</t>
+  </si>
+  <si>
+    <t>쟈그라스가로테 III</t>
+  </si>
+  <si>
+    <t>선더에지 I</t>
+  </si>
+  <si>
+    <t>선더에지 II</t>
+  </si>
+  <si>
+    <t>라이트닝배틀러 I</t>
+  </si>
+  <si>
+    <t>라이트닝배틀러 II</t>
+  </si>
+  <si>
+    <t>라이트닝배틀러 III</t>
+  </si>
+  <si>
+    <t>드래그로에지 I</t>
+  </si>
+  <si>
+    <t>드래그로에지 II</t>
+  </si>
+  <si>
+    <t>드래그로에지 III</t>
+  </si>
+  <si>
+    <t>볼보클럽 I</t>
+  </si>
+  <si>
+    <t>마비(120)</t>
+  </si>
+  <si>
+    <t>볼보클럽 II</t>
+  </si>
+  <si>
+    <t>마비(150)</t>
+  </si>
+  <si>
+    <t>볼보클럽 III</t>
+  </si>
+  <si>
+    <t>마비(180)</t>
+  </si>
+  <si>
+    <t>블레이즈에지 I</t>
+  </si>
+  <si>
+    <t>블레이즈에지 II</t>
+  </si>
+  <si>
+    <t>플람엘시커</t>
+  </si>
+  <si>
+    <t>만악검플람시커</t>
+  </si>
+  <si>
+    <t>용골검 III</t>
+  </si>
+  <si>
+    <t>뇌광인 I</t>
+  </si>
+  <si>
+    <t>뇌광인 II</t>
+  </si>
+  <si>
+    <t>테오스파다</t>
+  </si>
+  <si>
+    <t>폭파 210</t>
+  </si>
+  <si>
+    <t>테오엠블렘</t>
+  </si>
+  <si>
+    <t>폭파 240</t>
+  </si>
+  <si>
+    <t>제노마부라</t>
+  </si>
+  <si>
+    <t>헌터나이프 I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">헌터나이프 </t>
+  </si>
+  <si>
+    <t>헌터나이프 II</t>
+  </si>
+  <si>
+    <t>아쿠아메서 l</t>
+  </si>
+  <si>
+    <t>본쿠크리 I</t>
+  </si>
+  <si>
+    <t>본쿠크리 ll</t>
+  </si>
+  <si>
+    <t>블룸나이프 l</t>
+  </si>
+  <si>
+    <t>용골검 I</t>
+  </si>
+  <si>
+    <t>용골검 ll</t>
+  </si>
+  <si>
+    <t>뇌인</t>
+  </si>
+  <si>
+    <t>흑강의검 l</t>
+  </si>
+  <si>
+    <t>흑강</t>
+  </si>
+  <si>
+    <t>흑강의검 ll</t>
+  </si>
+  <si>
+    <t>폭ㅠㅏ</t>
+  </si>
+  <si>
+    <t>11-</t>
+  </si>
+  <si>
+    <t>21-</t>
+  </si>
+  <si>
+    <t>31-</t>
+  </si>
+  <si>
+    <t>21-</t>
+  </si>
+  <si>
+    <t>21-</t>
+  </si>
+  <si>
+    <t>22-</t>
+  </si>
+  <si>
+    <t>32-</t>
+  </si>
+  <si>
+    <t>11-</t>
+  </si>
+  <si>
+    <t>33-</t>
+  </si>
+  <si>
+    <t>트윈대거 I</t>
+  </si>
+  <si>
+    <t>트윈대거 II</t>
+  </si>
+  <si>
+    <t>트윈대거 III</t>
+  </si>
+  <si>
+    <t>듀얼트윈대거 I</t>
+  </si>
+  <si>
+    <t>듀얼트윈대거 II</t>
+  </si>
+  <si>
+    <t>듀얼트윈대거 III</t>
+  </si>
+  <si>
+    <t>독(210)</t>
+  </si>
+  <si>
+    <t>크롬트윈대거 I</t>
+  </si>
+  <si>
+    <t>크롬트윈대거 II</t>
+  </si>
+  <si>
+    <t>독(270)</t>
+  </si>
+  <si>
+    <t>진멸의발톱</t>
+  </si>
+  <si>
+    <t>일루미널대거 I</t>
+  </si>
+  <si>
+    <t>일루미널대거 II</t>
+  </si>
+  <si>
+    <t>듀얼데스테리오 I</t>
+  </si>
+  <si>
+    <t>듀얼데스테리오 II</t>
+  </si>
+  <si>
+    <t>듀얼데스테리오 III</t>
+  </si>
+  <si>
+    <t>폭린의손도끼</t>
+  </si>
+  <si>
+    <t>폭파 120</t>
+  </si>
+  <si>
+    <t>폭린의쌍도끼바젤호크</t>
+  </si>
+  <si>
+    <t>폭파 150</t>
+  </si>
+  <si>
+    <t>프리즈대거 I</t>
+  </si>
+  <si>
+    <t>프리즈대거 II</t>
+  </si>
+  <si>
+    <t>프리즈체인 I</t>
+  </si>
+  <si>
+    <t>프리즈체인 II</t>
+  </si>
+  <si>
+    <t>비크대거 I</t>
+  </si>
+  <si>
+    <t>비크대거 II</t>
+  </si>
+  <si>
+    <t>비크대거 III</t>
+  </si>
+  <si>
+    <t>아르카나리아 I</t>
+  </si>
+  <si>
+    <t>수면(90)</t>
+  </si>
+  <si>
+    <t>아르카나리아 II</t>
+  </si>
+  <si>
+    <t>아르카나리아 III</t>
+  </si>
+  <si>
+    <t>오더레이피어</t>
+  </si>
+  <si>
+    <t>오더레이피어+</t>
+  </si>
+  <si>
+    <t>홀리세이버</t>
+  </si>
+  <si>
+    <t>본해체트 I</t>
+  </si>
+  <si>
+    <t>본해체트 II</t>
+  </si>
+  <si>
+    <t>본해체트 III</t>
+  </si>
+  <si>
+    <t>와일드해체트 I</t>
+  </si>
+  <si>
+    <t>와일드해체트 II</t>
+  </si>
+  <si>
+    <t>와일드해체트 III</t>
+  </si>
+  <si>
+    <t>폭파(120)</t>
+  </si>
+  <si>
+    <t>스트롱해체트 I</t>
+  </si>
+  <si>
+    <t>폭파(150)</t>
+  </si>
+  <si>
+    <t>스트롱해체트 II</t>
+  </si>
+  <si>
+    <t>폭파(180)</t>
+  </si>
+  <si>
+    <t>블레이즈해체트 I</t>
+  </si>
+  <si>
+    <t>블레이즈해체트 II</t>
+  </si>
+  <si>
+    <t>쟈나프사이클론 I</t>
+  </si>
+  <si>
+    <t>쟈나프사이클론 II</t>
+  </si>
+  <si>
+    <t>쟈나프사이클론 III</t>
+  </si>
+  <si>
+    <t>블로스해체트 I</t>
+  </si>
+  <si>
+    <t>블로스해체트 II</t>
+  </si>
+  <si>
+    <t>블로스클럽 I</t>
+  </si>
+  <si>
+    <t>블로스클럽 II</t>
+  </si>
+  <si>
+    <t>매드뱅어 I</t>
+  </si>
+  <si>
+    <t>매드뱅어 II</t>
+  </si>
+  <si>
+    <t>매드뱅어 III</t>
+  </si>
+  <si>
+    <t>슈람해체트 I</t>
+  </si>
+  <si>
+    <t>슈람해체트 II</t>
+  </si>
+  <si>
+    <t>슈람해체트 III</t>
+  </si>
+  <si>
+    <t>라바사이클론 I</t>
+  </si>
+  <si>
+    <t>라바사이클론 II</t>
+  </si>
+  <si>
+    <t>타로스뱅어 I</t>
+  </si>
+  <si>
+    <t>타로스뱅어 II</t>
+  </si>
+  <si>
+    <t>다크리퍼 I</t>
+  </si>
+  <si>
+    <t>마비(90)</t>
+  </si>
+  <si>
+    <t>다크리퍼 II</t>
+  </si>
+  <si>
+    <t>다크리퍼 III</t>
+  </si>
+  <si>
+    <t>펄서해체트 I</t>
+  </si>
+  <si>
+    <t>펄서해체트 II</t>
+  </si>
+  <si>
+    <t>펄서해체트 III</t>
+  </si>
+  <si>
+    <t>카가치의발톱 I</t>
+  </si>
+  <si>
+    <t>카가치의발톱 II</t>
+  </si>
+  <si>
+    <t>카가치의발톱 III</t>
+  </si>
+  <si>
+    <t>가론해체트 I</t>
+  </si>
+  <si>
+    <t>가론해체트 II</t>
+  </si>
+  <si>
+    <t>흡혈의사슬낫</t>
+  </si>
+  <si>
+    <t>죄 [신]</t>
+  </si>
+  <si>
+    <t>용골쌍검 I</t>
+  </si>
+  <si>
+    <t>용골쌍검 II</t>
+  </si>
+  <si>
+    <t>봉룡검 [초절일문]</t>
+  </si>
+  <si>
+    <t>쌍뢰검 키린</t>
+  </si>
+  <si>
+    <t>쌍뢰검 키린+</t>
+  </si>
+  <si>
+    <t>신뢰</t>
+  </si>
+  <si>
+    <t>마그다-운그라 I</t>
+  </si>
+  <si>
+    <t>폭파 180</t>
+  </si>
+  <si>
+    <t>마그다-운그라 II</t>
+  </si>
+  <si>
+    <t>흑강의쌍검 I</t>
+  </si>
+  <si>
+    <t>흑강의쌍검 II</t>
+  </si>
+  <si>
+    <t>트윈네일</t>
+  </si>
+  <si>
+    <t>빙염검 빌마플레어</t>
+  </si>
+  <si>
+    <t>제노라크스</t>
+  </si>
+  <si>
+    <t>폭파</t>
+  </si>
+  <si>
+    <t>마비(91)</t>
+  </si>
+  <si>
+    <t>마비(92)</t>
+  </si>
+  <si>
+    <t>1--</t>
+  </si>
+  <si>
+    <t>1--</t>
+  </si>
+  <si>
+    <t>3--</t>
+  </si>
+  <si>
+    <t>1--</t>
+  </si>
+  <si>
+    <t>2--</t>
+  </si>
+  <si>
+    <t>2--</t>
+  </si>
+  <si>
+    <t>2--</t>
+  </si>
+  <si>
+    <t>3--</t>
+  </si>
+  <si>
+    <t>2--</t>
+  </si>
+  <si>
+    <t>2--</t>
+  </si>
+  <si>
+    <t>1--</t>
+  </si>
+  <si>
+    <t>1--</t>
+  </si>
+  <si>
+    <t>22-</t>
+  </si>
+  <si>
+    <t>2--</t>
+  </si>
+  <si>
+    <t>1--</t>
+  </si>
+  <si>
+    <t>11-</t>
+  </si>
+  <si>
+    <t>2--</t>
+  </si>
+  <si>
+    <t>2--</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;!\\-&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="65" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="66" formatCode="General"/>
+    <numFmt numFmtId="67" formatCode="General"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="53">
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
@@ -1860,10 +2597,140 @@
     <font>
       <sz val="11.0"/>
       <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF969696"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFF00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF99CC00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF99CCFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF99CCFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF99CCFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF800080"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF99CC00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF00FF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFF99"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF6600"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3366FF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFF00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF0066CC"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF00CCFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF0066CC"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFCC00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF99CC"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF00FF00"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF00FF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF99CC"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="100">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2106,14 +2973,312 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -2128,33 +3293,25 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2169,9 +3326,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2186,9 +3341,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -2203,17 +3356,13 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <top style="thin">
@@ -2221,23 +3370,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2253,339 +3385,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
       </bottom>
       <diagonal style="none">
         <color rgb="FF000000"/>
@@ -2608,6 +3407,419 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2758,7 +3970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3158,10 +4370,715 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="37" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="66" fontId="0" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="48" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="49" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="50" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="51" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="52" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="53" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="54" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="55" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="26" fillId="56" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="58" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="59" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="60" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="61" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="62" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="63" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="64" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="65" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="66" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="67" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="68" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="69" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="70" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="71" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="72" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="73" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="74" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="75" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="76" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="77" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="78" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="79" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="80" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="81" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="82" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="83" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="26" fillId="84" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="85" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="86" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="87" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="88" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="89" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="90" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="91" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="92" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="93" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="94" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="95" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="96" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="97" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="98" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="42" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="43" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="44" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="45" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="46" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="47" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="48" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="49" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="50" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="51" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="52" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="53" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="54" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="55" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="50" fillId="56" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="57" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="58" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="59" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="60" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="61" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="62" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="63" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="64" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="65" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="66" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="67" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="68" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="69" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="70" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="71" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="72" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="73" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="74" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="75" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="76" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="77" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="78" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="79" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="80" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="81" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="82" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="83" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="50" fillId="84" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="85" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="86" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="87" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="88" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="89" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="90" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="91" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="92" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="93" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="94" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="95" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="96" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="97" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="98" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="99" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="50" fillId="99" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="50" fillId="99" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="99" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="38" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="99" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="99" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="50" fillId="99" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="99" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="50" fillId="99" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="26" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="41" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="41" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="39" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="41" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="26" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="41" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="41" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="41" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="41" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="41" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="41" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="51" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="51" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="51" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="51" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="51" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="50" fillId="41" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="41" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="65" fontId="50" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="41" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="50" fillId="99" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="67" fontId="0" fillId="33" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3485,8 +5402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -3600,7 +5517,7 @@
       <c r="G2" s="100"/>
       <c r="H2" s="100"/>
       <c r="I2" s="105"/>
-      <c r="J2" s="134">
+      <c r="J2" s="369">
         <v>0</v>
       </c>
       <c r="K2" s="100"/>
@@ -3636,7 +5553,7 @@
       <c r="G3" s="100"/>
       <c r="H3" s="100"/>
       <c r="I3" s="105"/>
-      <c r="J3" s="134">
+      <c r="J3" s="369">
         <v>0</v>
       </c>
       <c r="K3" s="100"/>
@@ -3675,7 +5592,7 @@
       <c r="G4" s="100"/>
       <c r="H4" s="100"/>
       <c r="I4" s="105"/>
-      <c r="J4" s="134">
+      <c r="J4" s="369">
         <v>0</v>
       </c>
       <c r="K4" s="100"/>
@@ -3718,7 +5635,7 @@
       <c r="G5" s="100"/>
       <c r="H5" s="100"/>
       <c r="I5" s="105"/>
-      <c r="J5" s="134">
+      <c r="J5" s="369">
         <v>0</v>
       </c>
       <c r="K5" s="100"/>
@@ -3761,7 +5678,7 @@
       <c r="G6" s="100"/>
       <c r="H6" s="100"/>
       <c r="I6" s="105"/>
-      <c r="J6" s="134">
+      <c r="J6" s="369">
         <v>0</v>
       </c>
       <c r="K6" s="100"/>
@@ -3810,7 +5727,7 @@
       <c r="I7" s="105">
         <v>240</v>
       </c>
-      <c r="J7" s="134">
+      <c r="J7" s="369">
         <v>0</v>
       </c>
       <c r="K7" s="100" t="s">
@@ -3859,7 +5776,7 @@
       <c r="I8" s="105">
         <v>330</v>
       </c>
-      <c r="J8" s="134">
+      <c r="J8" s="369">
         <v>0</v>
       </c>
       <c r="K8" s="100" t="s">
@@ -3910,7 +5827,7 @@
       <c r="I9" s="105">
         <v>420</v>
       </c>
-      <c r="J9" s="134">
+      <c r="J9" s="369">
         <v>0</v>
       </c>
       <c r="K9" s="100" t="s">
@@ -3961,7 +5878,7 @@
       </c>
       <c r="H10" s="100"/>
       <c r="I10" s="105"/>
-      <c r="J10" s="134">
+      <c r="J10" s="369">
         <v>0</v>
       </c>
       <c r="K10" s="100" t="s">
@@ -4012,7 +5929,7 @@
       </c>
       <c r="H11" s="100"/>
       <c r="I11" s="105"/>
-      <c r="J11" s="134">
+      <c r="J11" s="369">
         <v>0</v>
       </c>
       <c r="K11" s="100" t="s">
@@ -4063,7 +5980,7 @@
       </c>
       <c r="H12" s="100"/>
       <c r="I12" s="105"/>
-      <c r="J12" s="134">
+      <c r="J12" s="369">
         <v>0</v>
       </c>
       <c r="K12" s="100"/>
@@ -4112,7 +6029,7 @@
       </c>
       <c r="H13" s="100"/>
       <c r="I13" s="105"/>
-      <c r="J13" s="134">
+      <c r="J13" s="369">
         <v>0</v>
       </c>
       <c r="K13" s="100"/>
@@ -4161,7 +6078,7 @@
       </c>
       <c r="H14" s="100"/>
       <c r="I14" s="105"/>
-      <c r="J14" s="134">
+      <c r="J14" s="369">
         <v>0</v>
       </c>
       <c r="K14" s="100" t="s">
@@ -4212,7 +6129,7 @@
       </c>
       <c r="H15" s="100"/>
       <c r="I15" s="105"/>
-      <c r="J15" s="134">
+      <c r="J15" s="369">
         <v>0</v>
       </c>
       <c r="K15" s="100" t="s">
@@ -4263,7 +6180,7 @@
       </c>
       <c r="H16" s="100"/>
       <c r="I16" s="105"/>
-      <c r="J16" s="134">
+      <c r="J16" s="369">
         <v>0</v>
       </c>
       <c r="K16" s="100" t="s">
@@ -4314,7 +6231,7 @@
       </c>
       <c r="H17" s="100"/>
       <c r="I17" s="105"/>
-      <c r="J17" s="134">
+      <c r="J17" s="369">
         <v>0</v>
       </c>
       <c r="K17" s="100"/>
@@ -4363,7 +6280,7 @@
       </c>
       <c r="H18" s="100"/>
       <c r="I18" s="105"/>
-      <c r="J18" s="134">
+      <c r="J18" s="369">
         <v>0</v>
       </c>
       <c r="K18" s="100" t="s">
@@ -4414,7 +6331,7 @@
       </c>
       <c r="H19" s="100"/>
       <c r="I19" s="105"/>
-      <c r="J19" s="134">
+      <c r="J19" s="369">
         <v>0</v>
       </c>
       <c r="K19" s="100" t="s">
@@ -4465,7 +6382,7 @@
       </c>
       <c r="H20" s="100"/>
       <c r="I20" s="105"/>
-      <c r="J20" s="134">
+      <c r="J20" s="369">
         <v>0</v>
       </c>
       <c r="K20" s="100" t="s">
@@ -4517,7 +6434,7 @@
       <c r="G21" s="100"/>
       <c r="H21" s="100"/>
       <c r="I21" s="105"/>
-      <c r="J21" s="134">
+      <c r="J21" s="369">
         <v>0</v>
       </c>
       <c r="K21" s="100"/>
@@ -4567,7 +6484,7 @@
       <c r="G22" s="100"/>
       <c r="H22" s="100"/>
       <c r="I22" s="105"/>
-      <c r="J22" s="134">
+      <c r="J22" s="369">
         <v>0</v>
       </c>
       <c r="K22" s="100"/>
@@ -4617,7 +6534,7 @@
       <c r="G23" s="100"/>
       <c r="H23" s="100"/>
       <c r="I23" s="105"/>
-      <c r="J23" s="134">
+      <c r="J23" s="369">
         <v>0</v>
       </c>
       <c r="K23" s="100"/>
@@ -4667,11 +6584,11 @@
         <v>183</v>
       </c>
       <c r="G24" s="103">
-        <v>210</v>
+        <v>-210</v>
       </c>
       <c r="H24" s="100"/>
       <c r="I24" s="105"/>
-      <c r="J24" s="134">
+      <c r="J24" s="369">
         <v>0</v>
       </c>
       <c r="K24" s="100" t="s">
@@ -4723,11 +6640,11 @@
         <v>183</v>
       </c>
       <c r="G25" s="103">
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="H25" s="100"/>
       <c r="I25" s="105"/>
-      <c r="J25" s="134">
+      <c r="J25" s="369">
         <v>0</v>
       </c>
       <c r="K25" s="100" t="s">
@@ -4779,11 +6696,11 @@
         <v>183</v>
       </c>
       <c r="G26" s="103">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="H26" s="100"/>
       <c r="I26" s="105"/>
-      <c r="J26" s="134">
+      <c r="J26" s="369">
         <v>0</v>
       </c>
       <c r="K26" s="100" t="s">
@@ -4839,7 +6756,7 @@
       <c r="I27" s="105">
         <v>210</v>
       </c>
-      <c r="J27" s="134">
+      <c r="J27" s="369">
         <v>15</v>
       </c>
       <c r="K27" s="100"/>
@@ -4891,7 +6808,7 @@
       <c r="I28" s="105">
         <v>240</v>
       </c>
-      <c r="J28" s="134">
+      <c r="J28" s="369">
         <v>15</v>
       </c>
       <c r="K28" s="100"/>
@@ -4945,7 +6862,7 @@
       <c r="I29" s="105">
         <v>270</v>
       </c>
-      <c r="J29" s="134">
+      <c r="J29" s="369">
         <v>15</v>
       </c>
       <c r="K29" s="100"/>
@@ -5011,7 +6928,7 @@
       <c r="I30" s="105">
         <v>360</v>
       </c>
-      <c r="J30" s="134">
+      <c r="J30" s="369">
         <v>20</v>
       </c>
       <c r="K30" s="100"/>
@@ -5065,7 +6982,7 @@
       <c r="I31" s="105">
         <v>450</v>
       </c>
-      <c r="J31" s="134">
+      <c r="J31" s="369">
         <v>20</v>
       </c>
       <c r="K31" s="100"/>
@@ -5119,7 +7036,7 @@
       </c>
       <c r="H32" s="100"/>
       <c r="I32" s="105"/>
-      <c r="J32" s="134">
+      <c r="J32" s="369">
         <v>0</v>
       </c>
       <c r="K32" s="100" t="s">
@@ -5173,7 +7090,7 @@
       </c>
       <c r="H33" s="100"/>
       <c r="I33" s="105"/>
-      <c r="J33" s="134">
+      <c r="J33" s="369">
         <v>0</v>
       </c>
       <c r="K33" s="100" t="s">
@@ -5229,7 +7146,7 @@
       <c r="I34" s="105">
         <v>240</v>
       </c>
-      <c r="J34" s="134">
+      <c r="J34" s="369">
         <v>0</v>
       </c>
       <c r="K34" s="100"/>
@@ -5281,7 +7198,7 @@
       <c r="I35" s="105">
         <v>300</v>
       </c>
-      <c r="J35" s="134">
+      <c r="J35" s="369">
         <v>0</v>
       </c>
       <c r="K35" s="100"/>
@@ -5335,7 +7252,7 @@
       <c r="I36" s="105">
         <v>360</v>
       </c>
-      <c r="J36" s="134">
+      <c r="J36" s="369">
         <v>0</v>
       </c>
       <c r="K36" s="100"/>
@@ -5389,7 +7306,7 @@
       <c r="I37" s="105">
         <v>420</v>
       </c>
-      <c r="J37" s="134">
+      <c r="J37" s="369">
         <v>0</v>
       </c>
       <c r="K37" s="100" t="s">
@@ -5445,7 +7362,7 @@
       <c r="I38" s="105">
         <v>480</v>
       </c>
-      <c r="J38" s="134">
+      <c r="J38" s="369">
         <v>0</v>
       </c>
       <c r="K38" s="100" t="s">
@@ -5501,7 +7418,7 @@
       <c r="I39" s="105">
         <v>540</v>
       </c>
-      <c r="J39" s="134">
+      <c r="J39" s="369">
         <v>0</v>
       </c>
       <c r="K39" s="100" t="s">
@@ -5557,7 +7474,7 @@
       </c>
       <c r="H40" s="100"/>
       <c r="I40" s="105"/>
-      <c r="J40" s="134">
+      <c r="J40" s="369">
         <v>10</v>
       </c>
       <c r="K40" s="100"/>
@@ -5611,7 +7528,7 @@
       </c>
       <c r="H41" s="100"/>
       <c r="I41" s="105"/>
-      <c r="J41" s="134">
+      <c r="J41" s="369">
         <v>10</v>
       </c>
       <c r="K41" s="100"/>
@@ -5665,8 +7582,8 @@
       </c>
       <c r="H42" s="100"/>
       <c r="I42" s="105"/>
-      <c r="J42" s="134">
-        <v>25</v>
+      <c r="J42" s="369">
+        <v>15</v>
       </c>
       <c r="K42" s="100" t="s">
         <v>445</v>
@@ -5721,7 +7638,7 @@
       </c>
       <c r="H43" s="100"/>
       <c r="I43" s="105"/>
-      <c r="J43" s="134">
+      <c r="J43" s="369">
         <v>15</v>
       </c>
       <c r="K43" s="100" t="s">
@@ -5777,7 +7694,7 @@
       </c>
       <c r="H44" s="100"/>
       <c r="I44" s="105"/>
-      <c r="J44" s="134">
+      <c r="J44" s="369">
         <v>15</v>
       </c>
       <c r="K44" s="100" t="s">
@@ -5829,7 +7746,7 @@
       <c r="G45" s="100"/>
       <c r="H45" s="100"/>
       <c r="I45" s="105"/>
-      <c r="J45" s="134">
+      <c r="J45" s="369">
         <v>-15</v>
       </c>
       <c r="K45" s="100"/>
@@ -5877,7 +7794,7 @@
       <c r="G46" s="100"/>
       <c r="H46" s="100"/>
       <c r="I46" s="105"/>
-      <c r="J46" s="134">
+      <c r="J46" s="369">
         <v>-15</v>
       </c>
       <c r="K46" s="100" t="s">
@@ -5927,7 +7844,7 @@
       <c r="G47" s="100"/>
       <c r="H47" s="100"/>
       <c r="I47" s="105"/>
-      <c r="J47" s="134">
+      <c r="J47" s="369">
         <v>0</v>
       </c>
       <c r="K47" s="100"/>
@@ -5973,7 +7890,7 @@
       <c r="G48" s="100"/>
       <c r="H48" s="100"/>
       <c r="I48" s="105"/>
-      <c r="J48" s="134">
+      <c r="J48" s="369">
         <v>0</v>
       </c>
       <c r="K48" s="100"/>
@@ -6017,7 +7934,7 @@
       <c r="G49" s="100"/>
       <c r="H49" s="100"/>
       <c r="I49" s="105"/>
-      <c r="J49" s="134">
+      <c r="J49" s="369">
         <v>0</v>
       </c>
       <c r="K49" s="100"/>
@@ -6063,7 +7980,7 @@
       <c r="G50" s="100"/>
       <c r="H50" s="100"/>
       <c r="I50" s="105"/>
-      <c r="J50" s="134">
+      <c r="J50" s="369">
         <v>0</v>
       </c>
       <c r="K50" s="100"/>
@@ -6111,7 +8028,7 @@
       <c r="G51" s="100"/>
       <c r="H51" s="100"/>
       <c r="I51" s="105"/>
-      <c r="J51" s="134">
+      <c r="J51" s="369">
         <v>0</v>
       </c>
       <c r="K51" s="100"/>
@@ -6159,11 +8076,11 @@
         <v>69</v>
       </c>
       <c r="G52" s="103">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="H52" s="100"/>
       <c r="I52" s="105"/>
-      <c r="J52" s="134">
+      <c r="J52" s="369">
         <v>0</v>
       </c>
       <c r="K52" s="100" t="s">
@@ -6213,11 +8130,11 @@
         <v>69</v>
       </c>
       <c r="G53" s="103">
-        <v>240</v>
+        <v>-240</v>
       </c>
       <c r="H53" s="100"/>
       <c r="I53" s="105"/>
-      <c r="J53" s="134">
+      <c r="J53" s="369">
         <v>0</v>
       </c>
       <c r="K53" s="100" t="s">
@@ -6279,11 +8196,11 @@
         <v>69</v>
       </c>
       <c r="G54" s="103">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="H54" s="100"/>
       <c r="I54" s="105"/>
-      <c r="J54" s="134">
+      <c r="J54" s="369">
         <v>0</v>
       </c>
       <c r="K54" s="100" t="s">
@@ -6339,7 +8256,7 @@
       </c>
       <c r="H55" s="100"/>
       <c r="I55" s="105"/>
-      <c r="J55" s="134">
+      <c r="J55" s="369">
         <v>0</v>
       </c>
       <c r="K55" s="100" t="s">
@@ -6395,7 +8312,7 @@
       </c>
       <c r="H56" s="100"/>
       <c r="I56" s="105"/>
-      <c r="J56" s="134">
+      <c r="J56" s="369">
         <v>0</v>
       </c>
       <c r="K56" s="100" t="s">
@@ -6451,7 +8368,7 @@
       </c>
       <c r="H57" s="100"/>
       <c r="I57" s="105"/>
-      <c r="J57" s="134">
+      <c r="J57" s="369">
         <v>-30</v>
       </c>
       <c r="K57" s="100"/>
@@ -6505,7 +8422,7 @@
       </c>
       <c r="H58" s="100"/>
       <c r="I58" s="105"/>
-      <c r="J58" s="134">
+      <c r="J58" s="369">
         <v>-30</v>
       </c>
       <c r="K58" s="100"/>
@@ -6559,7 +8476,7 @@
       </c>
       <c r="H59" s="100"/>
       <c r="I59" s="105"/>
-      <c r="J59" s="134">
+      <c r="J59" s="369">
         <v>-30</v>
       </c>
       <c r="K59" s="100"/>
@@ -6613,7 +8530,7 @@
       </c>
       <c r="H60" s="100"/>
       <c r="I60" s="105"/>
-      <c r="J60" s="134">
+      <c r="J60" s="369">
         <v>0</v>
       </c>
       <c r="K60" s="100"/>
@@ -6667,7 +8584,7 @@
       </c>
       <c r="H61" s="100"/>
       <c r="I61" s="105"/>
-      <c r="J61" s="134">
+      <c r="J61" s="369">
         <v>0</v>
       </c>
       <c r="K61" s="100"/>
@@ -6721,7 +8638,7 @@
       </c>
       <c r="H62" s="100"/>
       <c r="I62" s="105"/>
-      <c r="J62" s="134">
+      <c r="J62" s="369">
         <v>0</v>
       </c>
       <c r="K62" s="100"/>
@@ -6775,7 +8692,7 @@
       </c>
       <c r="H63" s="100"/>
       <c r="I63" s="105"/>
-      <c r="J63" s="134">
+      <c r="J63" s="369">
         <v>0</v>
       </c>
       <c r="K63" s="100" t="s">
@@ -6831,7 +8748,7 @@
       </c>
       <c r="H64" s="100"/>
       <c r="I64" s="105"/>
-      <c r="J64" s="134">
+      <c r="J64" s="369">
         <v>0</v>
       </c>
       <c r="K64" s="100" t="s">
@@ -6887,7 +8804,7 @@
       </c>
       <c r="H65" s="100"/>
       <c r="I65" s="105"/>
-      <c r="J65" s="134">
+      <c r="J65" s="369">
         <v>0</v>
       </c>
       <c r="K65" s="100" t="s">
@@ -6939,7 +8856,7 @@
       <c r="G66" s="100"/>
       <c r="H66" s="100"/>
       <c r="I66" s="105"/>
-      <c r="J66" s="134">
+      <c r="J66" s="369">
         <v>-20</v>
       </c>
       <c r="K66" s="100"/>
@@ -6987,7 +8904,7 @@
       <c r="G67" s="100"/>
       <c r="H67" s="100"/>
       <c r="I67" s="105"/>
-      <c r="J67" s="134">
+      <c r="J67" s="369">
         <v>-20</v>
       </c>
       <c r="K67" s="100"/>
@@ -7037,7 +8954,7 @@
       <c r="G68" s="100"/>
       <c r="H68" s="100"/>
       <c r="I68" s="105"/>
-      <c r="J68" s="134">
+      <c r="J68" s="369">
         <v>-20</v>
       </c>
       <c r="K68" s="100"/>
@@ -7091,7 +9008,7 @@
       <c r="I69" s="105">
         <v>270</v>
       </c>
-      <c r="J69" s="134">
+      <c r="J69" s="369">
         <v>-20</v>
       </c>
       <c r="K69" s="100" t="s">
@@ -7147,7 +9064,7 @@
       <c r="I70" s="105">
         <v>330</v>
       </c>
-      <c r="J70" s="134">
+      <c r="J70" s="369">
         <v>-20</v>
       </c>
       <c r="K70" s="100" t="s">
@@ -7203,7 +9120,7 @@
       <c r="I71" s="105">
         <v>390</v>
       </c>
-      <c r="J71" s="134">
+      <c r="J71" s="369">
         <v>-20</v>
       </c>
       <c r="K71" s="100" t="s">
@@ -7259,7 +9176,7 @@
       <c r="I72" s="105">
         <v>150</v>
       </c>
-      <c r="J72" s="134">
+      <c r="J72" s="369">
         <v>0</v>
       </c>
       <c r="K72" s="100"/>
@@ -7311,7 +9228,7 @@
       <c r="I73" s="105">
         <v>180</v>
       </c>
-      <c r="J73" s="134">
+      <c r="J73" s="369">
         <v>0</v>
       </c>
       <c r="K73" s="100"/>
@@ -7365,7 +9282,7 @@
       <c r="I74" s="105">
         <v>210</v>
       </c>
-      <c r="J74" s="134">
+      <c r="J74" s="369">
         <v>0</v>
       </c>
       <c r="K74" s="100"/>
@@ -7419,7 +9336,7 @@
       <c r="I75" s="105">
         <v>240</v>
       </c>
-      <c r="J75" s="134">
+      <c r="J75" s="369">
         <v>0</v>
       </c>
       <c r="K75" s="100"/>
@@ -7473,7 +9390,7 @@
       <c r="I76" s="105">
         <v>270</v>
       </c>
-      <c r="J76" s="134">
+      <c r="J76" s="369">
         <v>0</v>
       </c>
       <c r="K76" s="100"/>
@@ -7527,7 +9444,7 @@
       </c>
       <c r="H77" s="100"/>
       <c r="I77" s="105"/>
-      <c r="J77" s="134">
+      <c r="J77" s="369">
         <v>0</v>
       </c>
       <c r="K77" s="100"/>
@@ -7585,7 +9502,7 @@
       </c>
       <c r="H78" s="100"/>
       <c r="I78" s="105"/>
-      <c r="J78" s="134">
+      <c r="J78" s="369">
         <v>0</v>
       </c>
       <c r="K78" s="100"/>
@@ -7637,7 +9554,7 @@
       </c>
       <c r="H79" s="100"/>
       <c r="I79" s="105"/>
-      <c r="J79" s="134">
+      <c r="J79" s="369">
         <v>0</v>
       </c>
       <c r="K79" s="100" t="s">
@@ -7693,7 +9610,7 @@
       </c>
       <c r="H80" s="100"/>
       <c r="I80" s="105"/>
-      <c r="J80" s="134">
+      <c r="J80" s="369">
         <v>0</v>
       </c>
       <c r="K80" s="100"/>
@@ -7747,7 +9664,7 @@
       </c>
       <c r="H81" s="100"/>
       <c r="I81" s="105"/>
-      <c r="J81" s="134">
+      <c r="J81" s="369">
         <v>0</v>
       </c>
       <c r="K81" s="100"/>
@@ -7801,7 +9718,7 @@
       </c>
       <c r="H82" s="100"/>
       <c r="I82" s="105"/>
-      <c r="J82" s="134">
+      <c r="J82" s="369">
         <v>0</v>
       </c>
       <c r="K82" s="100"/>
@@ -7855,7 +9772,7 @@
       <c r="I83" s="105">
         <v>330</v>
       </c>
-      <c r="J83" s="134">
+      <c r="J83" s="369">
         <v>-20</v>
       </c>
       <c r="K83" s="100" t="s">
@@ -7911,7 +9828,7 @@
       <c r="I84" s="105">
         <v>420</v>
       </c>
-      <c r="J84" s="134">
+      <c r="J84" s="369">
         <v>-20</v>
       </c>
       <c r="K84" s="100" t="s">
@@ -7967,7 +9884,7 @@
       </c>
       <c r="H85" s="100"/>
       <c r="I85" s="105"/>
-      <c r="J85" s="134">
+      <c r="J85" s="369">
         <v>10</v>
       </c>
       <c r="K85" s="100"/>
@@ -8025,7 +9942,7 @@
       </c>
       <c r="H86" s="100"/>
       <c r="I86" s="105"/>
-      <c r="J86" s="134">
+      <c r="J86" s="369">
         <v>10</v>
       </c>
       <c r="K86" s="100"/>
@@ -8079,7 +9996,7 @@
       </c>
       <c r="H87" s="100"/>
       <c r="I87" s="105"/>
-      <c r="J87" s="134">
+      <c r="J87" s="369">
         <v>0</v>
       </c>
       <c r="K87" s="100" t="s">
@@ -8135,7 +10052,7 @@
       </c>
       <c r="H88" s="100"/>
       <c r="I88" s="105"/>
-      <c r="J88" s="134">
+      <c r="J88" s="369">
         <v>10</v>
       </c>
       <c r="K88" s="100" t="s">
@@ -8191,7 +10108,7 @@
       </c>
       <c r="H89" s="100"/>
       <c r="I89" s="105"/>
-      <c r="J89" s="134">
+      <c r="J89" s="369">
         <v>15</v>
       </c>
       <c r="K89" s="100" t="s">
@@ -8247,7 +10164,7 @@
       <c r="I90" s="105">
         <v>240</v>
       </c>
-      <c r="J90" s="134">
+      <c r="J90" s="369">
         <v>0</v>
       </c>
       <c r="K90" s="100" t="s">
@@ -8295,7 +10212,7 @@
       <c r="I91" s="105">
         <v>330</v>
       </c>
-      <c r="J91" s="134">
+      <c r="J91" s="369">
         <v>0</v>
       </c>
       <c r="K91" s="100" t="s">
@@ -8330,8 +10247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="P97" sqref="P97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -10671,14 +12588,6225 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" width="18.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="275" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="16" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="20" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="269" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1" s="269">
+        <v>1</v>
+      </c>
+      <c r="C1" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="269">
+        <v>112</v>
+      </c>
+      <c r="E1" s="269">
+        <v>0</v>
+      </c>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="276">
+        <v>0</v>
+      </c>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="269"/>
+      <c r="R1" s="105"/>
+      <c r="U1" s="273"/>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="269" t="s">
+        <v>676</v>
+      </c>
+      <c r="B2" s="269">
+        <v>1</v>
+      </c>
+      <c r="C2" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="269">
+        <v>126</v>
+      </c>
+      <c r="E2" s="269">
+        <v>0</v>
+      </c>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="276">
+        <v>0</v>
+      </c>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="105"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="269"/>
+      <c r="R2" s="105"/>
+      <c r="U2" s="273"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="269" t="s">
+        <v>565</v>
+      </c>
+      <c r="B3" s="269">
+        <v>2</v>
+      </c>
+      <c r="C3" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="269">
+        <v>140</v>
+      </c>
+      <c r="E3" s="269">
+        <v>0</v>
+      </c>
+      <c r="F3" s="269"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="276">
+        <v>0</v>
+      </c>
+      <c r="K3" s="269"/>
+      <c r="L3" s="269"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="269"/>
+      <c r="R3" s="105"/>
+      <c r="U3" s="273"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="269" t="s">
+        <v>566</v>
+      </c>
+      <c r="B4" s="269">
+        <v>3</v>
+      </c>
+      <c r="C4" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="269">
+        <v>168</v>
+      </c>
+      <c r="E4" s="269">
+        <v>0</v>
+      </c>
+      <c r="F4" s="269"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="276">
+        <v>0</v>
+      </c>
+      <c r="K4" s="269"/>
+      <c r="L4" s="269"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="269"/>
+      <c r="R4" s="105"/>
+      <c r="U4" s="273"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="269" t="s">
+        <v>567</v>
+      </c>
+      <c r="B5" s="269">
+        <v>4</v>
+      </c>
+      <c r="C5" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="269">
+        <v>182</v>
+      </c>
+      <c r="E5" s="269">
+        <v>0</v>
+      </c>
+      <c r="F5" s="269"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="269"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="276">
+        <v>0</v>
+      </c>
+      <c r="K5" s="269"/>
+      <c r="L5" s="269"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="105"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="269"/>
+      <c r="R5" s="105"/>
+      <c r="U5" s="273"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="269" t="s">
+        <v>568</v>
+      </c>
+      <c r="B6" s="269">
+        <v>5</v>
+      </c>
+      <c r="C6" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="269">
+        <v>196</v>
+      </c>
+      <c r="E6" s="269">
+        <v>0</v>
+      </c>
+      <c r="F6" s="269"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="269" t="s">
+        <v>436</v>
+      </c>
+      <c r="I6" s="269">
+        <v>120</v>
+      </c>
+      <c r="J6" s="276">
+        <v>0</v>
+      </c>
+      <c r="K6" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L6" s="269"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="269"/>
+      <c r="R6" s="105"/>
+      <c r="U6" s="273"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="269" t="s">
+        <v>570</v>
+      </c>
+      <c r="B7" s="269">
+        <v>6</v>
+      </c>
+      <c r="C7" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="269">
+        <v>224</v>
+      </c>
+      <c r="E7" s="269">
+        <v>0</v>
+      </c>
+      <c r="F7" s="269"/>
+      <c r="G7" s="272"/>
+      <c r="H7" s="269" t="s">
+        <v>436</v>
+      </c>
+      <c r="I7" s="269">
+        <v>150</v>
+      </c>
+      <c r="J7" s="276">
+        <v>0</v>
+      </c>
+      <c r="K7" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L7" s="269"/>
+      <c r="M7" s="105"/>
+      <c r="N7" s="105"/>
+      <c r="O7" s="105"/>
+      <c r="P7" s="105"/>
+      <c r="Q7" s="269"/>
+      <c r="R7" s="105"/>
+      <c r="U7" s="273"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="269" t="s">
+        <v>572</v>
+      </c>
+      <c r="B8" s="269">
+        <v>6</v>
+      </c>
+      <c r="C8" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="269">
+        <v>252</v>
+      </c>
+      <c r="E8" s="269">
+        <v>0</v>
+      </c>
+      <c r="F8" s="269"/>
+      <c r="G8" s="272"/>
+      <c r="H8" s="269" t="s">
+        <v>436</v>
+      </c>
+      <c r="I8" s="269">
+        <v>240</v>
+      </c>
+      <c r="J8" s="276">
+        <v>0</v>
+      </c>
+      <c r="K8" s="269" t="s">
+        <v>688</v>
+      </c>
+      <c r="L8" s="269"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="269"/>
+      <c r="R8" s="105"/>
+      <c r="U8" s="273"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="269" t="s">
+        <v>574</v>
+      </c>
+      <c r="B9" s="269">
+        <v>7</v>
+      </c>
+      <c r="C9" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="269">
+        <v>280</v>
+      </c>
+      <c r="E9" s="269">
+        <v>0</v>
+      </c>
+      <c r="F9" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="269" t="s">
+        <v>489</v>
+      </c>
+      <c r="H9" s="269"/>
+      <c r="I9" s="269"/>
+      <c r="J9" s="276">
+        <v>0</v>
+      </c>
+      <c r="K9" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L9" s="269"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="269"/>
+      <c r="R9" s="105"/>
+      <c r="U9" s="273"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="269" t="s">
+        <v>575</v>
+      </c>
+      <c r="B10" s="269">
+        <v>8</v>
+      </c>
+      <c r="C10" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="269">
+        <v>294</v>
+      </c>
+      <c r="E10" s="269">
+        <v>0</v>
+      </c>
+      <c r="F10" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="269" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="269"/>
+      <c r="I10" s="269"/>
+      <c r="J10" s="276">
+        <v>0</v>
+      </c>
+      <c r="K10" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L10" s="269"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="269"/>
+      <c r="R10" s="105"/>
+      <c r="U10" s="273"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="269" t="s">
+        <v>576</v>
+      </c>
+      <c r="B11" s="269">
+        <v>4</v>
+      </c>
+      <c r="C11" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="269">
+        <v>210</v>
+      </c>
+      <c r="E11" s="269">
+        <v>0</v>
+      </c>
+      <c r="F11" s="269"/>
+      <c r="G11" s="269"/>
+      <c r="H11" s="269"/>
+      <c r="I11" s="269"/>
+      <c r="J11" s="276">
+        <v>10</v>
+      </c>
+      <c r="K11" s="269"/>
+      <c r="L11" s="269"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="269"/>
+      <c r="R11" s="105"/>
+      <c r="U11" s="273"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="269" t="s">
+        <v>577</v>
+      </c>
+      <c r="B12" s="269">
+        <v>5</v>
+      </c>
+      <c r="C12" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" s="269">
+        <v>196</v>
+      </c>
+      <c r="E12" s="269">
+        <v>0</v>
+      </c>
+      <c r="F12" s="269" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="269">
+        <v>120</v>
+      </c>
+      <c r="H12" s="269"/>
+      <c r="I12" s="269"/>
+      <c r="J12" s="276">
+        <v>10</v>
+      </c>
+      <c r="K12" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L12" s="269"/>
+      <c r="M12" s="105"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="105"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="269"/>
+      <c r="R12" s="105"/>
+      <c r="U12" s="273"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="269" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" s="269">
+        <v>6</v>
+      </c>
+      <c r="C13" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="269">
+        <v>224</v>
+      </c>
+      <c r="E13" s="269">
+        <v>0</v>
+      </c>
+      <c r="F13" s="269" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="272">
+        <v>150</v>
+      </c>
+      <c r="H13" s="269"/>
+      <c r="I13" s="269"/>
+      <c r="J13" s="276">
+        <v>20</v>
+      </c>
+      <c r="K13" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L13" s="269"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="105"/>
+      <c r="P13" s="105"/>
+      <c r="Q13" s="269"/>
+      <c r="R13" s="105"/>
+      <c r="U13" s="273"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="269" t="s">
+        <v>579</v>
+      </c>
+      <c r="B14" s="269">
+        <v>7</v>
+      </c>
+      <c r="C14" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="269">
+        <v>266</v>
+      </c>
+      <c r="E14" s="269">
+        <v>0</v>
+      </c>
+      <c r="F14" s="269" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="272">
+        <v>180</v>
+      </c>
+      <c r="H14" s="269"/>
+      <c r="I14" s="269"/>
+      <c r="J14" s="276">
+        <v>20</v>
+      </c>
+      <c r="K14" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L14" s="269"/>
+      <c r="M14" s="105"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="105"/>
+      <c r="Q14" s="269"/>
+      <c r="R14" s="105"/>
+      <c r="U14" s="273"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="269" t="s">
+        <v>580</v>
+      </c>
+      <c r="B15" s="269">
+        <v>4</v>
+      </c>
+      <c r="C15" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" s="269">
+        <v>210</v>
+      </c>
+      <c r="E15" s="269">
+        <v>20</v>
+      </c>
+      <c r="F15" s="269"/>
+      <c r="G15" s="272"/>
+      <c r="H15" s="269"/>
+      <c r="I15" s="269"/>
+      <c r="J15" s="276">
+        <v>0</v>
+      </c>
+      <c r="K15" s="269"/>
+      <c r="L15" s="269"/>
+      <c r="M15" s="105"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="105"/>
+      <c r="Q15" s="269"/>
+      <c r="R15" s="105"/>
+      <c r="U15" s="273"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="269" t="s">
+        <v>581</v>
+      </c>
+      <c r="B16" s="269">
+        <v>6</v>
+      </c>
+      <c r="C16" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" s="269">
+        <v>252</v>
+      </c>
+      <c r="E16" s="269">
+        <v>20</v>
+      </c>
+      <c r="F16" s="269" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="272">
+        <v>270</v>
+      </c>
+      <c r="H16" s="269"/>
+      <c r="I16" s="269"/>
+      <c r="J16" s="276">
+        <v>0</v>
+      </c>
+      <c r="K16" s="269" t="s">
+        <v>460</v>
+      </c>
+      <c r="L16" s="269"/>
+      <c r="M16" s="105"/>
+      <c r="N16" s="105"/>
+      <c r="O16" s="105"/>
+      <c r="P16" s="105"/>
+      <c r="Q16" s="269"/>
+      <c r="R16" s="105"/>
+      <c r="U16" s="273"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="269" t="s">
+        <v>582</v>
+      </c>
+      <c r="B17" s="269">
+        <v>7</v>
+      </c>
+      <c r="C17" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="269">
+        <v>280</v>
+      </c>
+      <c r="E17" s="269">
+        <v>20</v>
+      </c>
+      <c r="F17" s="269" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="272">
+        <v>330</v>
+      </c>
+      <c r="H17" s="269"/>
+      <c r="I17" s="269"/>
+      <c r="J17" s="276">
+        <v>0</v>
+      </c>
+      <c r="K17" s="269" t="s">
+        <v>461</v>
+      </c>
+      <c r="L17" s="269"/>
+      <c r="M17" s="105"/>
+      <c r="N17" s="105"/>
+      <c r="O17" s="105"/>
+      <c r="P17" s="105"/>
+      <c r="Q17" s="269"/>
+      <c r="R17" s="105"/>
+      <c r="U17" s="273"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="269" t="s">
+        <v>677</v>
+      </c>
+      <c r="B18" s="269">
+        <v>2</v>
+      </c>
+      <c r="C18" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" s="269">
+        <v>140</v>
+      </c>
+      <c r="E18" s="269">
+        <v>0</v>
+      </c>
+      <c r="F18" s="269" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="269">
+        <v>90</v>
+      </c>
+      <c r="H18" s="269"/>
+      <c r="I18" s="269"/>
+      <c r="J18" s="276">
+        <v>0</v>
+      </c>
+      <c r="K18" s="269"/>
+      <c r="L18" s="269"/>
+      <c r="M18" s="105"/>
+      <c r="N18" s="105"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="105"/>
+      <c r="Q18" s="269"/>
+      <c r="R18" s="105"/>
+      <c r="U18" s="273"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="269" t="s">
+        <v>583</v>
+      </c>
+      <c r="B19" s="269">
+        <v>3</v>
+      </c>
+      <c r="C19" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="269">
+        <v>168</v>
+      </c>
+      <c r="E19" s="269">
+        <v>0</v>
+      </c>
+      <c r="F19" s="269" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" s="269">
+        <v>120</v>
+      </c>
+      <c r="H19" s="269"/>
+      <c r="I19" s="269"/>
+      <c r="J19" s="276">
+        <v>0</v>
+      </c>
+      <c r="K19" s="269"/>
+      <c r="L19" s="269"/>
+      <c r="M19" s="105"/>
+      <c r="N19" s="105"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="269"/>
+      <c r="R19" s="105"/>
+      <c r="U19" s="273"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="269" t="s">
+        <v>584</v>
+      </c>
+      <c r="B20" s="269">
+        <v>4</v>
+      </c>
+      <c r="C20" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="269">
+        <v>196</v>
+      </c>
+      <c r="E20" s="269">
+        <v>0</v>
+      </c>
+      <c r="F20" s="269" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="269">
+        <v>150</v>
+      </c>
+      <c r="H20" s="269"/>
+      <c r="I20" s="269"/>
+      <c r="J20" s="276">
+        <v>0</v>
+      </c>
+      <c r="K20" s="269"/>
+      <c r="L20" s="269"/>
+      <c r="M20" s="105"/>
+      <c r="N20" s="105"/>
+      <c r="O20" s="105"/>
+      <c r="P20" s="105"/>
+      <c r="Q20" s="269"/>
+      <c r="R20" s="105"/>
+      <c r="U20" s="273"/>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="269" t="s">
+        <v>585</v>
+      </c>
+      <c r="B21" s="269">
+        <v>5</v>
+      </c>
+      <c r="C21" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="269">
+        <v>210</v>
+      </c>
+      <c r="E21" s="269">
+        <v>0</v>
+      </c>
+      <c r="F21" s="269" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="269">
+        <v>180</v>
+      </c>
+      <c r="H21" s="269"/>
+      <c r="I21" s="269"/>
+      <c r="J21" s="276">
+        <v>0</v>
+      </c>
+      <c r="K21" s="269" t="s">
+        <v>460</v>
+      </c>
+      <c r="L21" s="269"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="105"/>
+      <c r="P21" s="105"/>
+      <c r="Q21" s="269"/>
+      <c r="R21" s="105"/>
+      <c r="U21" s="273"/>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="269" t="s">
+        <v>586</v>
+      </c>
+      <c r="B22" s="269">
+        <v>6</v>
+      </c>
+      <c r="C22" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="269">
+        <v>224</v>
+      </c>
+      <c r="E22" s="269">
+        <v>0</v>
+      </c>
+      <c r="F22" s="269" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="269">
+        <v>210</v>
+      </c>
+      <c r="H22" s="269"/>
+      <c r="I22" s="269"/>
+      <c r="J22" s="276">
+        <v>0</v>
+      </c>
+      <c r="K22" s="269" t="s">
+        <v>460</v>
+      </c>
+      <c r="L22" s="269"/>
+      <c r="M22" s="105"/>
+      <c r="N22" s="105"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="105"/>
+      <c r="Q22" s="269"/>
+      <c r="R22" s="105"/>
+      <c r="U22" s="273"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="269" t="s">
+        <v>587</v>
+      </c>
+      <c r="B23" s="269">
+        <v>6</v>
+      </c>
+      <c r="C23" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="269">
+        <v>252</v>
+      </c>
+      <c r="E23" s="269">
+        <v>0</v>
+      </c>
+      <c r="F23" s="269" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" s="269">
+        <v>240</v>
+      </c>
+      <c r="H23" s="269"/>
+      <c r="I23" s="269"/>
+      <c r="J23" s="276">
+        <v>0</v>
+      </c>
+      <c r="K23" s="269" t="s">
+        <v>460</v>
+      </c>
+      <c r="L23" s="269"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="269"/>
+      <c r="R23" s="105"/>
+      <c r="U23" s="273"/>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="269" t="s">
+        <v>588</v>
+      </c>
+      <c r="B24" s="269">
+        <v>4</v>
+      </c>
+      <c r="C24" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="269">
+        <v>182</v>
+      </c>
+      <c r="E24" s="269">
+        <v>0</v>
+      </c>
+      <c r="F24" s="269" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="269">
+        <v>210</v>
+      </c>
+      <c r="H24" s="269"/>
+      <c r="I24" s="269"/>
+      <c r="J24" s="276">
+        <v>0</v>
+      </c>
+      <c r="K24" s="269"/>
+      <c r="L24" s="269"/>
+      <c r="M24" s="105"/>
+      <c r="N24" s="105"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="105"/>
+      <c r="Q24" s="269"/>
+      <c r="R24" s="105"/>
+      <c r="U24" s="273"/>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="269" t="s">
+        <v>589</v>
+      </c>
+      <c r="B25" s="269">
+        <v>5</v>
+      </c>
+      <c r="C25" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="269">
+        <v>196</v>
+      </c>
+      <c r="E25" s="269">
+        <v>0</v>
+      </c>
+      <c r="F25" s="269" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="269">
+        <v>240</v>
+      </c>
+      <c r="H25" s="269"/>
+      <c r="I25" s="269"/>
+      <c r="J25" s="276">
+        <v>0</v>
+      </c>
+      <c r="K25" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L25" s="269"/>
+      <c r="M25" s="105"/>
+      <c r="N25" s="105"/>
+      <c r="O25" s="105"/>
+      <c r="P25" s="105"/>
+      <c r="Q25" s="269"/>
+      <c r="R25" s="105"/>
+      <c r="U25" s="273"/>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="269" t="s">
+        <v>590</v>
+      </c>
+      <c r="B26" s="269">
+        <v>6</v>
+      </c>
+      <c r="C26" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D26" s="269">
+        <v>210</v>
+      </c>
+      <c r="E26" s="269">
+        <v>0</v>
+      </c>
+      <c r="F26" s="269" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="269">
+        <v>300</v>
+      </c>
+      <c r="H26" s="269"/>
+      <c r="I26" s="269"/>
+      <c r="J26" s="276">
+        <v>0</v>
+      </c>
+      <c r="K26" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L26" s="269"/>
+      <c r="M26" s="105"/>
+      <c r="N26" s="105"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="105"/>
+      <c r="Q26" s="269"/>
+      <c r="R26" s="105"/>
+      <c r="U26" s="273"/>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="269" t="s">
+        <v>591</v>
+      </c>
+      <c r="B27" s="269">
+        <v>8</v>
+      </c>
+      <c r="C27" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D27" s="269">
+        <v>224</v>
+      </c>
+      <c r="E27" s="269">
+        <v>0</v>
+      </c>
+      <c r="F27" s="269" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="269">
+        <v>330</v>
+      </c>
+      <c r="H27" s="269"/>
+      <c r="I27" s="269"/>
+      <c r="J27" s="276">
+        <v>0</v>
+      </c>
+      <c r="K27" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L27" s="269"/>
+      <c r="M27" s="105"/>
+      <c r="N27" s="105"/>
+      <c r="O27" s="105"/>
+      <c r="P27" s="105"/>
+      <c r="Q27" s="269"/>
+      <c r="R27" s="105"/>
+      <c r="U27" s="273"/>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="269" t="s">
+        <v>592</v>
+      </c>
+      <c r="B28" s="269">
+        <v>3</v>
+      </c>
+      <c r="C28" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="269">
+        <v>168</v>
+      </c>
+      <c r="E28" s="269">
+        <v>0</v>
+      </c>
+      <c r="F28" s="269"/>
+      <c r="G28" s="269"/>
+      <c r="H28" s="269" t="s">
+        <v>434</v>
+      </c>
+      <c r="I28" s="269">
+        <v>150</v>
+      </c>
+      <c r="J28" s="276">
+        <v>10</v>
+      </c>
+      <c r="K28" s="269"/>
+      <c r="L28" s="269"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="105"/>
+      <c r="O28" s="105"/>
+      <c r="P28" s="105"/>
+      <c r="Q28" s="269"/>
+      <c r="R28" s="105"/>
+      <c r="U28" s="273"/>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="269" t="s">
+        <v>594</v>
+      </c>
+      <c r="B29" s="269">
+        <v>5</v>
+      </c>
+      <c r="C29" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D29" s="269">
+        <v>210</v>
+      </c>
+      <c r="E29" s="269">
+        <v>0</v>
+      </c>
+      <c r="F29" s="269"/>
+      <c r="G29" s="269"/>
+      <c r="H29" s="269" t="s">
+        <v>434</v>
+      </c>
+      <c r="I29" s="269">
+        <v>180</v>
+      </c>
+      <c r="J29" s="276">
+        <v>10</v>
+      </c>
+      <c r="K29" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L29" s="269"/>
+      <c r="M29" s="105"/>
+      <c r="N29" s="105"/>
+      <c r="O29" s="105"/>
+      <c r="P29" s="105"/>
+      <c r="Q29" s="269"/>
+      <c r="R29" s="105"/>
+      <c r="U29" s="273"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="269" t="s">
+        <v>596</v>
+      </c>
+      <c r="B30" s="269">
+        <v>6</v>
+      </c>
+      <c r="C30" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D30" s="269">
+        <v>238</v>
+      </c>
+      <c r="E30" s="269">
+        <v>0</v>
+      </c>
+      <c r="F30" s="269"/>
+      <c r="G30" s="269"/>
+      <c r="H30" s="269" t="s">
+        <v>434</v>
+      </c>
+      <c r="I30" s="269">
+        <v>210</v>
+      </c>
+      <c r="J30" s="276">
+        <v>10</v>
+      </c>
+      <c r="K30" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L30" s="269"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="105"/>
+      <c r="P30" s="105"/>
+      <c r="Q30" s="269"/>
+      <c r="R30" s="105"/>
+      <c r="U30" s="273"/>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="269" t="s">
+        <v>598</v>
+      </c>
+      <c r="B31" s="269">
+        <v>7</v>
+      </c>
+      <c r="C31" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D31" s="269">
+        <v>266</v>
+      </c>
+      <c r="E31" s="269">
+        <v>0</v>
+      </c>
+      <c r="F31" s="269"/>
+      <c r="G31" s="269"/>
+      <c r="H31" s="269" t="s">
+        <v>434</v>
+      </c>
+      <c r="I31" s="269">
+        <v>240</v>
+      </c>
+      <c r="J31" s="276">
+        <v>10</v>
+      </c>
+      <c r="K31" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L31" s="269"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
+      <c r="O31" s="105"/>
+      <c r="P31" s="105"/>
+      <c r="Q31" s="269"/>
+      <c r="R31" s="105"/>
+      <c r="U31" s="273"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="269" t="s">
+        <v>599</v>
+      </c>
+      <c r="B32" s="269">
+        <v>3</v>
+      </c>
+      <c r="C32" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D32" s="269">
+        <v>168</v>
+      </c>
+      <c r="E32" s="269">
+        <v>0</v>
+      </c>
+      <c r="F32" s="269"/>
+      <c r="G32" s="269"/>
+      <c r="H32" s="269"/>
+      <c r="I32" s="269"/>
+      <c r="J32" s="276">
+        <v>0</v>
+      </c>
+      <c r="K32" s="269"/>
+      <c r="L32" s="269"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="105"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="269"/>
+      <c r="R32" s="105"/>
+      <c r="U32" s="273"/>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="269" t="s">
+        <v>600</v>
+      </c>
+      <c r="B33" s="269">
+        <v>4</v>
+      </c>
+      <c r="C33" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" s="269">
+        <v>182</v>
+      </c>
+      <c r="E33" s="269">
+        <v>0</v>
+      </c>
+      <c r="F33" s="269"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="269"/>
+      <c r="I33" s="269"/>
+      <c r="J33" s="276">
+        <v>0</v>
+      </c>
+      <c r="K33" s="269"/>
+      <c r="L33" s="269"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
+      <c r="O33" s="105"/>
+      <c r="P33" s="105"/>
+      <c r="Q33" s="269"/>
+      <c r="R33" s="105"/>
+      <c r="U33" s="273"/>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="269" t="s">
+        <v>601</v>
+      </c>
+      <c r="B34" s="269">
+        <v>5</v>
+      </c>
+      <c r="C34" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D34" s="269">
+        <v>210</v>
+      </c>
+      <c r="E34" s="269">
+        <v>0</v>
+      </c>
+      <c r="F34" s="269"/>
+      <c r="G34" s="269"/>
+      <c r="H34" s="269" t="s">
+        <v>437</v>
+      </c>
+      <c r="I34" s="269">
+        <v>270</v>
+      </c>
+      <c r="J34" s="276">
+        <v>0</v>
+      </c>
+      <c r="K34" s="269" t="s">
+        <v>688</v>
+      </c>
+      <c r="L34" s="269"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="105"/>
+      <c r="Q34" s="269"/>
+      <c r="R34" s="105"/>
+      <c r="U34" s="273"/>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="269" t="s">
+        <v>603</v>
+      </c>
+      <c r="B35" s="269">
+        <v>6</v>
+      </c>
+      <c r="C35" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D35" s="269">
+        <v>224</v>
+      </c>
+      <c r="E35" s="269">
+        <v>0</v>
+      </c>
+      <c r="F35" s="269"/>
+      <c r="G35" s="269"/>
+      <c r="H35" s="269" t="s">
+        <v>437</v>
+      </c>
+      <c r="I35" s="269">
+        <v>300</v>
+      </c>
+      <c r="J35" s="276">
+        <v>0</v>
+      </c>
+      <c r="K35" s="269" t="s">
+        <v>689</v>
+      </c>
+      <c r="L35" s="269"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="105"/>
+      <c r="Q35" s="269"/>
+      <c r="R35" s="105"/>
+      <c r="U35" s="273"/>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="269" t="s">
+        <v>605</v>
+      </c>
+      <c r="B36" s="269">
+        <v>6</v>
+      </c>
+      <c r="C36" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D36" s="269">
+        <v>238</v>
+      </c>
+      <c r="E36" s="269">
+        <v>0</v>
+      </c>
+      <c r="F36" s="269"/>
+      <c r="G36" s="269"/>
+      <c r="H36" s="269" t="s">
+        <v>437</v>
+      </c>
+      <c r="I36" s="269">
+        <v>330</v>
+      </c>
+      <c r="J36" s="276">
+        <v>0</v>
+      </c>
+      <c r="K36" s="269" t="s">
+        <v>690</v>
+      </c>
+      <c r="L36" s="269"/>
+      <c r="M36" s="105"/>
+      <c r="N36" s="105"/>
+      <c r="O36" s="105"/>
+      <c r="P36" s="105"/>
+      <c r="Q36" s="269"/>
+      <c r="R36" s="105"/>
+      <c r="U36" s="273"/>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="269" t="s">
+        <v>680</v>
+      </c>
+      <c r="B37" s="269">
+        <v>2</v>
+      </c>
+      <c r="C37" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D37" s="269">
+        <v>154</v>
+      </c>
+      <c r="E37" s="269">
+        <v>0</v>
+      </c>
+      <c r="F37" s="269"/>
+      <c r="G37" s="269"/>
+      <c r="H37" s="269" t="s">
+        <v>434</v>
+      </c>
+      <c r="I37" s="269">
+        <v>210</v>
+      </c>
+      <c r="J37" s="276">
+        <v>0</v>
+      </c>
+      <c r="K37" s="269"/>
+      <c r="L37" s="269"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="269"/>
+      <c r="R37" s="105"/>
+      <c r="U37" s="273"/>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="269" t="s">
+        <v>607</v>
+      </c>
+      <c r="B38" s="269">
+        <v>3</v>
+      </c>
+      <c r="C38" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D38" s="269">
+        <v>182</v>
+      </c>
+      <c r="E38" s="269">
+        <v>0</v>
+      </c>
+      <c r="F38" s="269"/>
+      <c r="G38" s="269"/>
+      <c r="H38" s="269" t="s">
+        <v>434</v>
+      </c>
+      <c r="I38" s="269">
+        <v>240</v>
+      </c>
+      <c r="J38" s="276">
+        <v>0</v>
+      </c>
+      <c r="K38" s="269"/>
+      <c r="L38" s="269"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="269"/>
+      <c r="R38" s="105"/>
+      <c r="U38" s="273"/>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="269" t="s">
+        <v>608</v>
+      </c>
+      <c r="B39" s="269">
+        <v>4</v>
+      </c>
+      <c r="C39" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D39" s="269">
+        <v>196</v>
+      </c>
+      <c r="E39" s="269">
+        <v>0</v>
+      </c>
+      <c r="F39" s="269"/>
+      <c r="G39" s="269"/>
+      <c r="H39" s="269" t="s">
+        <v>434</v>
+      </c>
+      <c r="I39" s="269">
+        <v>270</v>
+      </c>
+      <c r="J39" s="276">
+        <v>0</v>
+      </c>
+      <c r="K39" s="269"/>
+      <c r="L39" s="269"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="269"/>
+      <c r="R39" s="105"/>
+      <c r="U39" s="273"/>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="269" t="s">
+        <v>610</v>
+      </c>
+      <c r="B40" s="269">
+        <v>5</v>
+      </c>
+      <c r="C40" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D40" s="269">
+        <v>210</v>
+      </c>
+      <c r="E40" s="269">
+        <v>0</v>
+      </c>
+      <c r="F40" s="269"/>
+      <c r="G40" s="269"/>
+      <c r="H40" s="269" t="s">
+        <v>434</v>
+      </c>
+      <c r="I40" s="269">
+        <v>330</v>
+      </c>
+      <c r="J40" s="276">
+        <v>0</v>
+      </c>
+      <c r="K40" s="269" t="s">
+        <v>689</v>
+      </c>
+      <c r="L40" s="269"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="269"/>
+      <c r="R40" s="105"/>
+      <c r="U40" s="273"/>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="269" t="s">
+        <v>612</v>
+      </c>
+      <c r="B41" s="269">
+        <v>6</v>
+      </c>
+      <c r="C41" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D41" s="269">
+        <v>224</v>
+      </c>
+      <c r="E41" s="269">
+        <v>0</v>
+      </c>
+      <c r="F41" s="269"/>
+      <c r="G41" s="269"/>
+      <c r="H41" s="269" t="s">
+        <v>434</v>
+      </c>
+      <c r="I41" s="269">
+        <v>360</v>
+      </c>
+      <c r="J41" s="276">
+        <v>0</v>
+      </c>
+      <c r="K41" s="269" t="s">
+        <v>691</v>
+      </c>
+      <c r="L41" s="269"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="269"/>
+      <c r="R41" s="105"/>
+      <c r="U41" s="273"/>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="269" t="s">
+        <v>613</v>
+      </c>
+      <c r="B42" s="269">
+        <v>6</v>
+      </c>
+      <c r="C42" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D42" s="269">
+        <v>238</v>
+      </c>
+      <c r="E42" s="269">
+        <v>0</v>
+      </c>
+      <c r="F42" s="269"/>
+      <c r="G42" s="269"/>
+      <c r="H42" s="269" t="s">
+        <v>434</v>
+      </c>
+      <c r="I42" s="269">
+        <v>390</v>
+      </c>
+      <c r="J42" s="276">
+        <v>0</v>
+      </c>
+      <c r="K42" s="269" t="s">
+        <v>691</v>
+      </c>
+      <c r="L42" s="269"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="269"/>
+      <c r="R42" s="105"/>
+      <c r="U42" s="273"/>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="269" t="s">
+        <v>615</v>
+      </c>
+      <c r="B43" s="269">
+        <v>3</v>
+      </c>
+      <c r="C43" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D43" s="269">
+        <v>168</v>
+      </c>
+      <c r="E43" s="269">
+        <v>0</v>
+      </c>
+      <c r="F43" s="269"/>
+      <c r="G43" s="269"/>
+      <c r="H43" s="269" t="s">
+        <v>435</v>
+      </c>
+      <c r="I43" s="269">
+        <v>120</v>
+      </c>
+      <c r="J43" s="276">
+        <v>10</v>
+      </c>
+      <c r="K43" s="269"/>
+      <c r="L43" s="269"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="269"/>
+      <c r="R43" s="105"/>
+      <c r="U43" s="273"/>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="269" t="s">
+        <v>617</v>
+      </c>
+      <c r="B44" s="269">
+        <v>4</v>
+      </c>
+      <c r="C44" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D44" s="269">
+        <v>182</v>
+      </c>
+      <c r="E44" s="269">
+        <v>0</v>
+      </c>
+      <c r="F44" s="269"/>
+      <c r="G44" s="269"/>
+      <c r="H44" s="269" t="s">
+        <v>435</v>
+      </c>
+      <c r="I44" s="269">
+        <v>150</v>
+      </c>
+      <c r="J44" s="276">
+        <v>10</v>
+      </c>
+      <c r="K44" s="269"/>
+      <c r="L44" s="269"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="105"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="269"/>
+      <c r="R44" s="105"/>
+      <c r="U44" s="273"/>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="269" t="s">
+        <v>619</v>
+      </c>
+      <c r="B45" s="269">
+        <v>5</v>
+      </c>
+      <c r="C45" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D45" s="269">
+        <v>196</v>
+      </c>
+      <c r="E45" s="269">
+        <v>0</v>
+      </c>
+      <c r="F45" s="269"/>
+      <c r="G45" s="269"/>
+      <c r="H45" s="269" t="s">
+        <v>435</v>
+      </c>
+      <c r="I45" s="269">
+        <v>180</v>
+      </c>
+      <c r="J45" s="276">
+        <v>20</v>
+      </c>
+      <c r="K45" s="269"/>
+      <c r="L45" s="269"/>
+      <c r="M45" s="105"/>
+      <c r="N45" s="105"/>
+      <c r="O45" s="105"/>
+      <c r="P45" s="105"/>
+      <c r="Q45" s="269"/>
+      <c r="R45" s="105"/>
+      <c r="U45" s="273"/>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="269" t="s">
+        <v>621</v>
+      </c>
+      <c r="B46" s="269">
+        <v>6</v>
+      </c>
+      <c r="C46" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D46" s="269">
+        <v>210</v>
+      </c>
+      <c r="E46" s="269">
+        <v>0</v>
+      </c>
+      <c r="F46" s="269"/>
+      <c r="G46" s="269"/>
+      <c r="H46" s="269" t="s">
+        <v>435</v>
+      </c>
+      <c r="I46" s="269">
+        <v>210</v>
+      </c>
+      <c r="J46" s="276">
+        <v>20</v>
+      </c>
+      <c r="K46" s="269"/>
+      <c r="L46" s="269"/>
+      <c r="M46" s="105"/>
+      <c r="N46" s="105"/>
+      <c r="O46" s="105"/>
+      <c r="P46" s="105"/>
+      <c r="Q46" s="269"/>
+      <c r="R46" s="105"/>
+      <c r="U46" s="273"/>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="269" t="s">
+        <v>623</v>
+      </c>
+      <c r="B47" s="269">
+        <v>6</v>
+      </c>
+      <c r="C47" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D47" s="269">
+        <v>224</v>
+      </c>
+      <c r="E47" s="269">
+        <v>0</v>
+      </c>
+      <c r="F47" s="269"/>
+      <c r="G47" s="269"/>
+      <c r="H47" s="269" t="s">
+        <v>435</v>
+      </c>
+      <c r="I47" s="269">
+        <v>240</v>
+      </c>
+      <c r="J47" s="276">
+        <v>20</v>
+      </c>
+      <c r="K47" s="269"/>
+      <c r="L47" s="269"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="105"/>
+      <c r="P47" s="105"/>
+      <c r="Q47" s="269"/>
+      <c r="R47" s="105"/>
+      <c r="U47" s="273"/>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="269" t="s">
+        <v>678</v>
+      </c>
+      <c r="B48" s="269">
+        <v>1</v>
+      </c>
+      <c r="C48" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="269">
+        <v>140</v>
+      </c>
+      <c r="E48" s="269">
+        <v>0</v>
+      </c>
+      <c r="F48" s="269"/>
+      <c r="G48" s="269"/>
+      <c r="H48" s="269"/>
+      <c r="I48" s="269"/>
+      <c r="J48" s="276">
+        <v>0</v>
+      </c>
+      <c r="K48" s="269"/>
+      <c r="L48" s="269"/>
+      <c r="M48" s="105"/>
+      <c r="N48" s="105"/>
+      <c r="O48" s="105"/>
+      <c r="P48" s="105"/>
+      <c r="Q48" s="269"/>
+      <c r="R48" s="105"/>
+      <c r="U48" s="273"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="269" t="s">
+        <v>679</v>
+      </c>
+      <c r="B49" s="269">
+        <v>1</v>
+      </c>
+      <c r="C49" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D49" s="269">
+        <v>154</v>
+      </c>
+      <c r="E49" s="269">
+        <v>0</v>
+      </c>
+      <c r="F49" s="269"/>
+      <c r="G49" s="269"/>
+      <c r="H49" s="269"/>
+      <c r="I49" s="269"/>
+      <c r="J49" s="276">
+        <v>0</v>
+      </c>
+      <c r="K49" s="269"/>
+      <c r="L49" s="269"/>
+      <c r="M49" s="105"/>
+      <c r="N49" s="105"/>
+      <c r="O49" s="105"/>
+      <c r="P49" s="105"/>
+      <c r="Q49" s="269"/>
+      <c r="R49" s="105"/>
+      <c r="U49" s="273"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="269" t="s">
+        <v>625</v>
+      </c>
+      <c r="B50" s="269">
+        <v>2</v>
+      </c>
+      <c r="C50" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D50" s="269">
+        <v>168</v>
+      </c>
+      <c r="E50" s="269">
+        <v>0</v>
+      </c>
+      <c r="F50" s="269"/>
+      <c r="G50" s="269"/>
+      <c r="H50" s="269"/>
+      <c r="I50" s="269"/>
+      <c r="J50" s="276">
+        <v>0</v>
+      </c>
+      <c r="K50" s="269"/>
+      <c r="L50" s="269"/>
+      <c r="M50" s="105"/>
+      <c r="N50" s="105"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="105"/>
+      <c r="Q50" s="269"/>
+      <c r="R50" s="105"/>
+      <c r="U50" s="273"/>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="269" t="s">
+        <v>626</v>
+      </c>
+      <c r="B51" s="269">
+        <v>3</v>
+      </c>
+      <c r="C51" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D51" s="269">
+        <v>196</v>
+      </c>
+      <c r="E51" s="269">
+        <v>0</v>
+      </c>
+      <c r="F51" s="269"/>
+      <c r="G51" s="269"/>
+      <c r="H51" s="269"/>
+      <c r="I51" s="269"/>
+      <c r="J51" s="276">
+        <v>0</v>
+      </c>
+      <c r="K51" s="269"/>
+      <c r="L51" s="269"/>
+      <c r="M51" s="105"/>
+      <c r="N51" s="105"/>
+      <c r="O51" s="105"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="269"/>
+      <c r="R51" s="105"/>
+      <c r="U51" s="273"/>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="269" t="s">
+        <v>627</v>
+      </c>
+      <c r="B52" s="269">
+        <v>4</v>
+      </c>
+      <c r="C52" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D52" s="269">
+        <v>210</v>
+      </c>
+      <c r="E52" s="269">
+        <v>0</v>
+      </c>
+      <c r="F52" s="269"/>
+      <c r="G52" s="269"/>
+      <c r="H52" s="269"/>
+      <c r="I52" s="269"/>
+      <c r="J52" s="276">
+        <v>0</v>
+      </c>
+      <c r="K52" s="269"/>
+      <c r="L52" s="269"/>
+      <c r="M52" s="105"/>
+      <c r="N52" s="105"/>
+      <c r="O52" s="105"/>
+      <c r="P52" s="105"/>
+      <c r="Q52" s="269"/>
+      <c r="R52" s="105"/>
+      <c r="U52" s="273"/>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="269" t="s">
+        <v>628</v>
+      </c>
+      <c r="B53" s="269">
+        <v>5</v>
+      </c>
+      <c r="C53" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D53" s="269">
+        <v>224</v>
+      </c>
+      <c r="E53" s="269">
+        <v>0</v>
+      </c>
+      <c r="F53" s="269"/>
+      <c r="G53" s="272"/>
+      <c r="H53" s="269" t="s">
+        <v>435</v>
+      </c>
+      <c r="I53" s="269">
+        <v>240</v>
+      </c>
+      <c r="J53" s="276">
+        <v>0</v>
+      </c>
+      <c r="K53" s="269" t="s">
+        <v>460</v>
+      </c>
+      <c r="L53" s="269"/>
+      <c r="M53" s="105"/>
+      <c r="N53" s="105"/>
+      <c r="O53" s="105"/>
+      <c r="P53" s="105"/>
+      <c r="Q53" s="269"/>
+      <c r="R53" s="105"/>
+      <c r="U53" s="273"/>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="269" t="s">
+        <v>630</v>
+      </c>
+      <c r="B54" s="269">
+        <v>6</v>
+      </c>
+      <c r="C54" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D54" s="269">
+        <v>238</v>
+      </c>
+      <c r="E54" s="269">
+        <v>10</v>
+      </c>
+      <c r="F54" s="269"/>
+      <c r="G54" s="272"/>
+      <c r="H54" s="269" t="s">
+        <v>435</v>
+      </c>
+      <c r="I54" s="269">
+        <v>240</v>
+      </c>
+      <c r="J54" s="276">
+        <v>0</v>
+      </c>
+      <c r="K54" s="269" t="s">
+        <v>460</v>
+      </c>
+      <c r="L54" s="269"/>
+      <c r="M54" s="105"/>
+      <c r="N54" s="105"/>
+      <c r="O54" s="105"/>
+      <c r="P54" s="105"/>
+      <c r="Q54" s="269"/>
+      <c r="R54" s="105"/>
+      <c r="U54" s="273"/>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="269" t="s">
+        <v>631</v>
+      </c>
+      <c r="B55" s="269">
+        <v>6</v>
+      </c>
+      <c r="C55" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D55" s="269">
+        <v>266</v>
+      </c>
+      <c r="E55" s="269">
+        <v>10</v>
+      </c>
+      <c r="F55" s="269"/>
+      <c r="G55" s="272"/>
+      <c r="H55" s="269" t="s">
+        <v>435</v>
+      </c>
+      <c r="I55" s="269">
+        <v>300</v>
+      </c>
+      <c r="J55" s="276">
+        <v>0</v>
+      </c>
+      <c r="K55" s="269" t="s">
+        <v>461</v>
+      </c>
+      <c r="L55" s="269"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="269"/>
+      <c r="R55" s="105"/>
+      <c r="U55" s="273"/>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="269" t="s">
+        <v>633</v>
+      </c>
+      <c r="B56" s="269">
+        <v>3</v>
+      </c>
+      <c r="C56" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D56" s="269">
+        <v>182</v>
+      </c>
+      <c r="E56" s="269">
+        <v>15</v>
+      </c>
+      <c r="F56" s="269"/>
+      <c r="G56" s="272"/>
+      <c r="H56" s="269" t="s">
+        <v>436</v>
+      </c>
+      <c r="I56" s="269">
+        <v>120</v>
+      </c>
+      <c r="J56" s="276">
+        <v>0</v>
+      </c>
+      <c r="K56" s="269"/>
+      <c r="L56" s="269"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="105"/>
+      <c r="O56" s="105"/>
+      <c r="P56" s="105"/>
+      <c r="Q56" s="269"/>
+      <c r="R56" s="105"/>
+      <c r="U56" s="273"/>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="269" t="s">
+        <v>635</v>
+      </c>
+      <c r="B57" s="269">
+        <v>4</v>
+      </c>
+      <c r="C57" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D57" s="269">
+        <v>196</v>
+      </c>
+      <c r="E57" s="269">
+        <v>15</v>
+      </c>
+      <c r="F57" s="269"/>
+      <c r="G57" s="272"/>
+      <c r="H57" s="269" t="s">
+        <v>436</v>
+      </c>
+      <c r="I57" s="269">
+        <v>120</v>
+      </c>
+      <c r="J57" s="276">
+        <v>0</v>
+      </c>
+      <c r="K57" s="269"/>
+      <c r="L57" s="269"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="105"/>
+      <c r="O57" s="105"/>
+      <c r="P57" s="105"/>
+      <c r="Q57" s="269"/>
+      <c r="R57" s="105"/>
+      <c r="U57" s="273"/>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="269" t="s">
+        <v>636</v>
+      </c>
+      <c r="B58" s="269">
+        <v>5</v>
+      </c>
+      <c r="C58" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D58" s="269">
+        <v>238</v>
+      </c>
+      <c r="E58" s="269">
+        <v>20</v>
+      </c>
+      <c r="F58" s="269"/>
+      <c r="G58" s="272"/>
+      <c r="H58" s="269" t="s">
+        <v>436</v>
+      </c>
+      <c r="I58" s="269">
+        <v>150</v>
+      </c>
+      <c r="J58" s="276">
+        <v>0</v>
+      </c>
+      <c r="K58" s="269"/>
+      <c r="L58" s="269"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="105"/>
+      <c r="O58" s="105"/>
+      <c r="P58" s="105"/>
+      <c r="Q58" s="269"/>
+      <c r="R58" s="105"/>
+      <c r="U58" s="273"/>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="269" t="s">
+        <v>638</v>
+      </c>
+      <c r="B59" s="269">
+        <v>6</v>
+      </c>
+      <c r="C59" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D59" s="269">
+        <v>252</v>
+      </c>
+      <c r="E59" s="269">
+        <v>20</v>
+      </c>
+      <c r="F59" s="269"/>
+      <c r="G59" s="272"/>
+      <c r="H59" s="269" t="s">
+        <v>436</v>
+      </c>
+      <c r="I59" s="269">
+        <v>180</v>
+      </c>
+      <c r="J59" s="276">
+        <v>0</v>
+      </c>
+      <c r="K59" s="269"/>
+      <c r="L59" s="269"/>
+      <c r="M59" s="105"/>
+      <c r="N59" s="105"/>
+      <c r="O59" s="105"/>
+      <c r="P59" s="105"/>
+      <c r="Q59" s="269"/>
+      <c r="R59" s="105"/>
+      <c r="U59" s="273"/>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="269" t="s">
+        <v>640</v>
+      </c>
+      <c r="B60" s="269">
+        <v>6</v>
+      </c>
+      <c r="C60" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D60" s="269">
+        <v>266</v>
+      </c>
+      <c r="E60" s="269">
+        <v>20</v>
+      </c>
+      <c r="F60" s="269"/>
+      <c r="G60" s="272"/>
+      <c r="H60" s="269" t="s">
+        <v>436</v>
+      </c>
+      <c r="I60" s="269">
+        <v>210</v>
+      </c>
+      <c r="J60" s="276">
+        <v>0</v>
+      </c>
+      <c r="K60" s="269"/>
+      <c r="L60" s="269"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="105"/>
+      <c r="O60" s="105"/>
+      <c r="P60" s="105"/>
+      <c r="Q60" s="269"/>
+      <c r="R60" s="105"/>
+      <c r="U60" s="273"/>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="269" t="s">
+        <v>642</v>
+      </c>
+      <c r="B61" s="269">
+        <v>2</v>
+      </c>
+      <c r="C61" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D61" s="269">
+        <v>168</v>
+      </c>
+      <c r="E61" s="269">
+        <v>0</v>
+      </c>
+      <c r="F61" s="269"/>
+      <c r="G61" s="269"/>
+      <c r="H61" s="269"/>
+      <c r="I61" s="269"/>
+      <c r="J61" s="276">
+        <v>0</v>
+      </c>
+      <c r="K61" s="269"/>
+      <c r="L61" s="269"/>
+      <c r="M61" s="105"/>
+      <c r="N61" s="105"/>
+      <c r="O61" s="105"/>
+      <c r="P61" s="105"/>
+      <c r="Q61" s="269"/>
+      <c r="R61" s="105"/>
+      <c r="U61" s="273"/>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="269" t="s">
+        <v>643</v>
+      </c>
+      <c r="B62" s="269">
+        <v>3</v>
+      </c>
+      <c r="C62" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D62" s="269">
+        <v>196</v>
+      </c>
+      <c r="E62" s="269">
+        <v>0</v>
+      </c>
+      <c r="F62" s="269"/>
+      <c r="G62" s="269"/>
+      <c r="H62" s="269"/>
+      <c r="I62" s="269"/>
+      <c r="J62" s="276">
+        <v>0</v>
+      </c>
+      <c r="K62" s="269"/>
+      <c r="L62" s="269"/>
+      <c r="M62" s="105"/>
+      <c r="N62" s="105"/>
+      <c r="O62" s="105"/>
+      <c r="P62" s="105"/>
+      <c r="Q62" s="269"/>
+      <c r="R62" s="105"/>
+      <c r="U62" s="273"/>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="269" t="s">
+        <v>644</v>
+      </c>
+      <c r="B63" s="269">
+        <v>4</v>
+      </c>
+      <c r="C63" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D63" s="269">
+        <v>210</v>
+      </c>
+      <c r="E63" s="269">
+        <v>0</v>
+      </c>
+      <c r="F63" s="269"/>
+      <c r="G63" s="269"/>
+      <c r="H63" s="269"/>
+      <c r="I63" s="269"/>
+      <c r="J63" s="276">
+        <v>0</v>
+      </c>
+      <c r="K63" s="269"/>
+      <c r="L63" s="269"/>
+      <c r="M63" s="105"/>
+      <c r="N63" s="105"/>
+      <c r="O63" s="105"/>
+      <c r="P63" s="105"/>
+      <c r="Q63" s="269"/>
+      <c r="R63" s="105"/>
+      <c r="U63" s="273"/>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="269" t="s">
+        <v>645</v>
+      </c>
+      <c r="B64" s="269">
+        <v>5</v>
+      </c>
+      <c r="C64" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D64" s="269">
+        <v>238</v>
+      </c>
+      <c r="E64" s="269">
+        <v>0</v>
+      </c>
+      <c r="F64" s="269" t="s">
+        <v>183</v>
+      </c>
+      <c r="G64" s="272">
+        <v>300</v>
+      </c>
+      <c r="H64" s="269"/>
+      <c r="I64" s="269"/>
+      <c r="J64" s="276">
+        <v>0</v>
+      </c>
+      <c r="K64" s="269" t="s">
+        <v>692</v>
+      </c>
+      <c r="L64" s="269"/>
+      <c r="M64" s="105"/>
+      <c r="N64" s="105"/>
+      <c r="O64" s="105"/>
+      <c r="P64" s="105"/>
+      <c r="Q64" s="269"/>
+      <c r="R64" s="105"/>
+      <c r="U64" s="273"/>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="269" t="s">
+        <v>646</v>
+      </c>
+      <c r="B65" s="269">
+        <v>6</v>
+      </c>
+      <c r="C65" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D65" s="269">
+        <v>252</v>
+      </c>
+      <c r="E65" s="269">
+        <v>0</v>
+      </c>
+      <c r="F65" s="269" t="s">
+        <v>183</v>
+      </c>
+      <c r="G65" s="272">
+        <v>330</v>
+      </c>
+      <c r="H65" s="269"/>
+      <c r="I65" s="269"/>
+      <c r="J65" s="276">
+        <v>0</v>
+      </c>
+      <c r="K65" s="269" t="s">
+        <v>693</v>
+      </c>
+      <c r="L65" s="269"/>
+      <c r="M65" s="105"/>
+      <c r="N65" s="105"/>
+      <c r="O65" s="105"/>
+      <c r="P65" s="105"/>
+      <c r="Q65" s="269"/>
+      <c r="R65" s="105"/>
+      <c r="U65" s="273"/>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="269" t="s">
+        <v>647</v>
+      </c>
+      <c r="B66" s="269">
+        <v>6</v>
+      </c>
+      <c r="C66" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D66" s="269">
+        <v>266</v>
+      </c>
+      <c r="E66" s="269">
+        <v>0</v>
+      </c>
+      <c r="F66" s="269" t="s">
+        <v>183</v>
+      </c>
+      <c r="G66" s="272">
+        <v>360</v>
+      </c>
+      <c r="H66" s="269"/>
+      <c r="I66" s="269"/>
+      <c r="J66" s="276">
+        <v>0</v>
+      </c>
+      <c r="K66" s="269" t="s">
+        <v>694</v>
+      </c>
+      <c r="L66" s="269"/>
+      <c r="M66" s="105"/>
+      <c r="N66" s="105"/>
+      <c r="O66" s="105"/>
+      <c r="P66" s="105"/>
+      <c r="Q66" s="269"/>
+      <c r="R66" s="105"/>
+      <c r="U66" s="273"/>
+    </row>
+    <row r="67" spans="1:21">
+      <c r="A67" s="269" t="s">
+        <v>648</v>
+      </c>
+      <c r="B67" s="269">
+        <v>3</v>
+      </c>
+      <c r="C67" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D67" s="269">
+        <v>182</v>
+      </c>
+      <c r="E67" s="269">
+        <v>0</v>
+      </c>
+      <c r="F67" s="269" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" s="272">
+        <v>90</v>
+      </c>
+      <c r="H67" s="269"/>
+      <c r="I67" s="269"/>
+      <c r="J67" s="276">
+        <v>0</v>
+      </c>
+      <c r="K67" s="269"/>
+      <c r="L67" s="269"/>
+      <c r="M67" s="105"/>
+      <c r="N67" s="105"/>
+      <c r="O67" s="105"/>
+      <c r="P67" s="105"/>
+      <c r="Q67" s="269"/>
+      <c r="R67" s="105"/>
+      <c r="U67" s="273"/>
+    </row>
+    <row r="68" spans="1:21">
+      <c r="A68" s="269" t="s">
+        <v>649</v>
+      </c>
+      <c r="B68" s="269">
+        <v>4</v>
+      </c>
+      <c r="C68" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D68" s="269">
+        <v>210</v>
+      </c>
+      <c r="E68" s="269">
+        <v>0</v>
+      </c>
+      <c r="F68" s="269" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" s="272">
+        <v>120</v>
+      </c>
+      <c r="H68" s="269"/>
+      <c r="I68" s="269"/>
+      <c r="J68" s="276">
+        <v>0</v>
+      </c>
+      <c r="K68" s="269"/>
+      <c r="L68" s="269"/>
+      <c r="M68" s="105"/>
+      <c r="N68" s="105"/>
+      <c r="O68" s="105"/>
+      <c r="P68" s="105"/>
+      <c r="Q68" s="269"/>
+      <c r="R68" s="105"/>
+      <c r="U68" s="273"/>
+    </row>
+    <row r="69" spans="1:21">
+      <c r="A69" s="269" t="s">
+        <v>650</v>
+      </c>
+      <c r="B69" s="269">
+        <v>5</v>
+      </c>
+      <c r="C69" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D69" s="269">
+        <v>224</v>
+      </c>
+      <c r="E69" s="269">
+        <v>0</v>
+      </c>
+      <c r="F69" s="269" t="s">
+        <v>27</v>
+      </c>
+      <c r="G69" s="272">
+        <v>150</v>
+      </c>
+      <c r="H69" s="269"/>
+      <c r="I69" s="269"/>
+      <c r="J69" s="276">
+        <v>0</v>
+      </c>
+      <c r="K69" s="269" t="s">
+        <v>460</v>
+      </c>
+      <c r="L69" s="269"/>
+      <c r="M69" s="105"/>
+      <c r="N69" s="105"/>
+      <c r="O69" s="105"/>
+      <c r="P69" s="105"/>
+      <c r="Q69" s="269"/>
+      <c r="R69" s="105"/>
+      <c r="U69" s="273"/>
+    </row>
+    <row r="70" spans="1:21">
+      <c r="A70" s="269" t="s">
+        <v>651</v>
+      </c>
+      <c r="B70" s="269">
+        <v>6</v>
+      </c>
+      <c r="C70" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D70" s="269">
+        <v>252</v>
+      </c>
+      <c r="E70" s="269">
+        <v>0</v>
+      </c>
+      <c r="F70" s="269" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="272">
+        <v>180</v>
+      </c>
+      <c r="H70" s="269"/>
+      <c r="I70" s="269"/>
+      <c r="J70" s="276">
+        <v>0</v>
+      </c>
+      <c r="K70" s="269" t="s">
+        <v>460</v>
+      </c>
+      <c r="L70" s="269"/>
+      <c r="M70" s="105"/>
+      <c r="N70" s="105"/>
+      <c r="O70" s="105"/>
+      <c r="P70" s="105"/>
+      <c r="Q70" s="269"/>
+      <c r="R70" s="105"/>
+      <c r="U70" s="273"/>
+    </row>
+    <row r="71" spans="1:21">
+      <c r="A71" s="269" t="s">
+        <v>652</v>
+      </c>
+      <c r="B71" s="269">
+        <v>6</v>
+      </c>
+      <c r="C71" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D71" s="269">
+        <v>266</v>
+      </c>
+      <c r="E71" s="269">
+        <v>0</v>
+      </c>
+      <c r="F71" s="269" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="272">
+        <v>210</v>
+      </c>
+      <c r="H71" s="269"/>
+      <c r="I71" s="269"/>
+      <c r="J71" s="276">
+        <v>0</v>
+      </c>
+      <c r="K71" s="269" t="s">
+        <v>460</v>
+      </c>
+      <c r="L71" s="269"/>
+      <c r="M71" s="105"/>
+      <c r="N71" s="105"/>
+      <c r="O71" s="105"/>
+      <c r="P71" s="105"/>
+      <c r="Q71" s="269"/>
+      <c r="R71" s="105"/>
+      <c r="U71" s="273"/>
+    </row>
+    <row r="72" spans="1:21">
+      <c r="A72" s="269" t="s">
+        <v>653</v>
+      </c>
+      <c r="B72" s="269">
+        <v>2</v>
+      </c>
+      <c r="C72" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D72" s="269">
+        <v>182</v>
+      </c>
+      <c r="E72" s="269">
+        <v>0</v>
+      </c>
+      <c r="F72" s="269"/>
+      <c r="G72" s="269"/>
+      <c r="H72" s="269"/>
+      <c r="I72" s="269"/>
+      <c r="J72" s="276">
+        <v>-10</v>
+      </c>
+      <c r="K72" s="269"/>
+      <c r="L72" s="269"/>
+      <c r="M72" s="105"/>
+      <c r="N72" s="105"/>
+      <c r="O72" s="105"/>
+      <c r="P72" s="105"/>
+      <c r="Q72" s="269"/>
+      <c r="R72" s="105"/>
+      <c r="U72" s="273"/>
+    </row>
+    <row r="73" spans="1:21">
+      <c r="A73" s="269" t="s">
+        <v>654</v>
+      </c>
+      <c r="B73" s="269">
+        <v>3</v>
+      </c>
+      <c r="C73" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D73" s="269">
+        <v>196</v>
+      </c>
+      <c r="E73" s="269">
+        <v>0</v>
+      </c>
+      <c r="F73" s="269"/>
+      <c r="G73" s="269"/>
+      <c r="H73" s="269"/>
+      <c r="I73" s="269"/>
+      <c r="J73" s="276">
+        <v>-10</v>
+      </c>
+      <c r="K73" s="269"/>
+      <c r="L73" s="269"/>
+      <c r="M73" s="105"/>
+      <c r="N73" s="105"/>
+      <c r="O73" s="105"/>
+      <c r="P73" s="105"/>
+      <c r="Q73" s="269"/>
+      <c r="R73" s="105"/>
+      <c r="U73" s="273"/>
+    </row>
+    <row r="74" spans="1:21">
+      <c r="A74" s="269" t="s">
+        <v>655</v>
+      </c>
+      <c r="B74" s="269">
+        <v>4</v>
+      </c>
+      <c r="C74" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D74" s="269">
+        <v>224</v>
+      </c>
+      <c r="E74" s="269">
+        <v>0</v>
+      </c>
+      <c r="F74" s="269"/>
+      <c r="G74" s="269"/>
+      <c r="H74" s="269"/>
+      <c r="I74" s="269"/>
+      <c r="J74" s="276">
+        <v>-10</v>
+      </c>
+      <c r="K74" s="269"/>
+      <c r="L74" s="269"/>
+      <c r="M74" s="105"/>
+      <c r="N74" s="105"/>
+      <c r="O74" s="105"/>
+      <c r="P74" s="105"/>
+      <c r="Q74" s="269"/>
+      <c r="R74" s="105"/>
+      <c r="U74" s="273"/>
+    </row>
+    <row r="75" spans="1:21">
+      <c r="A75" s="269" t="s">
+        <v>656</v>
+      </c>
+      <c r="B75" s="269">
+        <v>5</v>
+      </c>
+      <c r="C75" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D75" s="269">
+        <v>252</v>
+      </c>
+      <c r="E75" s="269">
+        <v>15</v>
+      </c>
+      <c r="F75" s="269"/>
+      <c r="G75" s="269"/>
+      <c r="H75" s="269" t="s">
+        <v>435</v>
+      </c>
+      <c r="I75" s="269">
+        <v>120</v>
+      </c>
+      <c r="J75" s="276">
+        <v>-10</v>
+      </c>
+      <c r="K75" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L75" s="269"/>
+      <c r="M75" s="105"/>
+      <c r="N75" s="105"/>
+      <c r="O75" s="105"/>
+      <c r="P75" s="105"/>
+      <c r="Q75" s="269"/>
+      <c r="R75" s="105"/>
+      <c r="U75" s="273"/>
+    </row>
+    <row r="76" spans="1:21">
+      <c r="A76" s="269" t="s">
+        <v>658</v>
+      </c>
+      <c r="B76" s="269">
+        <v>6</v>
+      </c>
+      <c r="C76" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D76" s="269">
+        <v>266</v>
+      </c>
+      <c r="E76" s="269">
+        <v>15</v>
+      </c>
+      <c r="F76" s="269"/>
+      <c r="G76" s="269"/>
+      <c r="H76" s="269" t="s">
+        <v>435</v>
+      </c>
+      <c r="I76" s="269">
+        <v>150</v>
+      </c>
+      <c r="J76" s="276">
+        <v>-10</v>
+      </c>
+      <c r="K76" s="269" t="s">
+        <v>695</v>
+      </c>
+      <c r="L76" s="269"/>
+      <c r="M76" s="105"/>
+      <c r="N76" s="105"/>
+      <c r="O76" s="105"/>
+      <c r="P76" s="105"/>
+      <c r="Q76" s="269"/>
+      <c r="R76" s="105"/>
+      <c r="U76" s="273"/>
+    </row>
+    <row r="77" spans="1:21">
+      <c r="A77" s="269" t="s">
+        <v>660</v>
+      </c>
+      <c r="B77" s="269">
+        <v>6</v>
+      </c>
+      <c r="C77" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D77" s="269">
+        <v>294</v>
+      </c>
+      <c r="E77" s="269">
+        <v>15</v>
+      </c>
+      <c r="F77" s="269"/>
+      <c r="G77" s="269"/>
+      <c r="H77" s="269" t="s">
+        <v>435</v>
+      </c>
+      <c r="I77" s="269">
+        <v>180</v>
+      </c>
+      <c r="J77" s="276">
+        <v>-10</v>
+      </c>
+      <c r="K77" s="269" t="s">
+        <v>692</v>
+      </c>
+      <c r="L77" s="269"/>
+      <c r="M77" s="105"/>
+      <c r="N77" s="105"/>
+      <c r="O77" s="105"/>
+      <c r="P77" s="105"/>
+      <c r="Q77" s="269"/>
+      <c r="R77" s="105"/>
+      <c r="U77" s="273"/>
+    </row>
+    <row r="78" spans="1:21">
+      <c r="A78" s="269" t="s">
+        <v>662</v>
+      </c>
+      <c r="B78" s="269">
+        <v>3</v>
+      </c>
+      <c r="C78" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D78" s="269">
+        <v>196</v>
+      </c>
+      <c r="E78" s="269">
+        <v>0</v>
+      </c>
+      <c r="F78" s="269" t="s">
+        <v>228</v>
+      </c>
+      <c r="G78" s="269">
+        <v>150</v>
+      </c>
+      <c r="H78" s="269"/>
+      <c r="I78" s="269"/>
+      <c r="J78" s="276">
+        <v>-20</v>
+      </c>
+      <c r="K78" s="269"/>
+      <c r="L78" s="269"/>
+      <c r="M78" s="105"/>
+      <c r="N78" s="105"/>
+      <c r="O78" s="105"/>
+      <c r="P78" s="105"/>
+      <c r="Q78" s="269"/>
+      <c r="R78" s="105"/>
+      <c r="U78" s="273"/>
+    </row>
+    <row r="79" spans="1:21">
+      <c r="A79" s="269" t="s">
+        <v>663</v>
+      </c>
+      <c r="B79" s="269">
+        <v>4</v>
+      </c>
+      <c r="C79" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D79" s="269">
+        <v>224</v>
+      </c>
+      <c r="E79" s="269">
+        <v>0</v>
+      </c>
+      <c r="F79" s="269" t="s">
+        <v>228</v>
+      </c>
+      <c r="G79" s="269">
+        <v>180</v>
+      </c>
+      <c r="H79" s="269"/>
+      <c r="I79" s="269"/>
+      <c r="J79" s="276">
+        <v>-20</v>
+      </c>
+      <c r="K79" s="269"/>
+      <c r="L79" s="269"/>
+      <c r="M79" s="105"/>
+      <c r="N79" s="105"/>
+      <c r="O79" s="105"/>
+      <c r="P79" s="105"/>
+      <c r="Q79" s="269"/>
+      <c r="R79" s="105"/>
+      <c r="U79" s="273"/>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="269" t="s">
+        <v>664</v>
+      </c>
+      <c r="B80" s="269">
+        <v>5</v>
+      </c>
+      <c r="C80" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="269">
+        <v>266</v>
+      </c>
+      <c r="E80" s="269">
+        <v>0</v>
+      </c>
+      <c r="F80" s="269" t="s">
+        <v>228</v>
+      </c>
+      <c r="G80" s="269">
+        <v>210</v>
+      </c>
+      <c r="H80" s="269"/>
+      <c r="I80" s="269"/>
+      <c r="J80" s="276">
+        <v>-20</v>
+      </c>
+      <c r="K80" s="269"/>
+      <c r="L80" s="269"/>
+      <c r="M80" s="105"/>
+      <c r="N80" s="105"/>
+      <c r="O80" s="105"/>
+      <c r="P80" s="105"/>
+      <c r="Q80" s="269"/>
+      <c r="R80" s="105"/>
+      <c r="U80" s="273"/>
+    </row>
+    <row r="81" spans="1:21">
+      <c r="A81" s="269" t="s">
+        <v>665</v>
+      </c>
+      <c r="B81" s="269">
+        <v>7</v>
+      </c>
+      <c r="C81" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D81" s="269">
+        <v>294</v>
+      </c>
+      <c r="E81" s="269">
+        <v>0</v>
+      </c>
+      <c r="F81" s="269" t="s">
+        <v>228</v>
+      </c>
+      <c r="G81" s="269">
+        <v>240</v>
+      </c>
+      <c r="H81" s="269"/>
+      <c r="I81" s="269"/>
+      <c r="J81" s="276">
+        <v>-20</v>
+      </c>
+      <c r="K81" s="269"/>
+      <c r="L81" s="269"/>
+      <c r="M81" s="105"/>
+      <c r="N81" s="105"/>
+      <c r="O81" s="105"/>
+      <c r="P81" s="105"/>
+      <c r="Q81" s="269"/>
+      <c r="R81" s="105"/>
+      <c r="U81" s="273"/>
+    </row>
+    <row r="82" spans="1:21">
+      <c r="A82" s="269" t="s">
+        <v>681</v>
+      </c>
+      <c r="B82" s="269">
+        <v>3</v>
+      </c>
+      <c r="C82" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="269">
+        <v>140</v>
+      </c>
+      <c r="E82" s="269">
+        <v>0</v>
+      </c>
+      <c r="F82" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G82" s="269" t="s">
+        <v>3</v>
+      </c>
+      <c r="H82" s="269"/>
+      <c r="I82" s="269"/>
+      <c r="J82" s="276">
+        <v>0</v>
+      </c>
+      <c r="K82" s="269"/>
+      <c r="L82" s="269"/>
+      <c r="M82" s="105"/>
+      <c r="N82" s="105"/>
+      <c r="O82" s="105"/>
+      <c r="P82" s="105"/>
+      <c r="Q82" s="269"/>
+      <c r="R82" s="105"/>
+      <c r="U82" s="273"/>
+    </row>
+    <row r="83" spans="1:21">
+      <c r="A83" s="269" t="s">
+        <v>682</v>
+      </c>
+      <c r="B83" s="269">
+        <v>4</v>
+      </c>
+      <c r="C83" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D83" s="269">
+        <v>154</v>
+      </c>
+      <c r="E83" s="269">
+        <v>0</v>
+      </c>
+      <c r="F83" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" s="269" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="269"/>
+      <c r="I83" s="269"/>
+      <c r="J83" s="276">
+        <v>0</v>
+      </c>
+      <c r="K83" s="269"/>
+      <c r="L83" s="269"/>
+      <c r="M83" s="105"/>
+      <c r="N83" s="105"/>
+      <c r="O83" s="105"/>
+      <c r="P83" s="105"/>
+      <c r="Q83" s="269"/>
+      <c r="R83" s="105"/>
+      <c r="U83" s="273"/>
+    </row>
+    <row r="84" spans="1:21">
+      <c r="A84" s="269" t="s">
+        <v>666</v>
+      </c>
+      <c r="B84" s="269">
+        <v>6</v>
+      </c>
+      <c r="C84" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D84" s="269">
+        <v>196</v>
+      </c>
+      <c r="E84" s="269">
+        <v>0</v>
+      </c>
+      <c r="F84" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="269" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="269"/>
+      <c r="I84" s="269"/>
+      <c r="J84" s="276">
+        <v>0</v>
+      </c>
+      <c r="K84" s="269" t="s">
+        <v>457</v>
+      </c>
+      <c r="L84" s="269"/>
+      <c r="M84" s="105"/>
+      <c r="N84" s="105"/>
+      <c r="O84" s="105"/>
+      <c r="P84" s="105"/>
+      <c r="Q84" s="269"/>
+      <c r="R84" s="105"/>
+      <c r="U84" s="273"/>
+    </row>
+    <row r="85" spans="1:21">
+      <c r="A85" s="269" t="s">
+        <v>683</v>
+      </c>
+      <c r="B85" s="269">
+        <v>4</v>
+      </c>
+      <c r="C85" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D85" s="269">
+        <v>154</v>
+      </c>
+      <c r="E85" s="269">
+        <v>0</v>
+      </c>
+      <c r="F85" s="269" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" s="269">
+        <v>270</v>
+      </c>
+      <c r="H85" s="269"/>
+      <c r="I85" s="269"/>
+      <c r="J85" s="276">
+        <v>0</v>
+      </c>
+      <c r="K85" s="269"/>
+      <c r="L85" s="269"/>
+      <c r="M85" s="105"/>
+      <c r="N85" s="105"/>
+      <c r="O85" s="105"/>
+      <c r="P85" s="105"/>
+      <c r="Q85" s="269"/>
+      <c r="R85" s="105"/>
+      <c r="U85" s="273"/>
+    </row>
+    <row r="86" spans="1:21">
+      <c r="A86" s="269" t="s">
+        <v>667</v>
+      </c>
+      <c r="B86" s="269">
+        <v>6</v>
+      </c>
+      <c r="C86" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D86" s="269">
+        <v>210</v>
+      </c>
+      <c r="E86" s="269">
+        <v>0</v>
+      </c>
+      <c r="F86" s="269" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="269">
+        <v>300</v>
+      </c>
+      <c r="H86" s="269"/>
+      <c r="I86" s="269"/>
+      <c r="J86" s="276">
+        <v>0</v>
+      </c>
+      <c r="K86" s="269"/>
+      <c r="L86" s="269"/>
+      <c r="M86" s="105"/>
+      <c r="N86" s="105"/>
+      <c r="O86" s="105"/>
+      <c r="P86" s="105"/>
+      <c r="Q86" s="269"/>
+      <c r="R86" s="105"/>
+      <c r="U86" s="273"/>
+    </row>
+    <row r="87" spans="1:21">
+      <c r="A87" s="269" t="s">
+        <v>668</v>
+      </c>
+      <c r="B87" s="269">
+        <v>7</v>
+      </c>
+      <c r="C87" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D87" s="269">
+        <v>224</v>
+      </c>
+      <c r="E87" s="269">
+        <v>0</v>
+      </c>
+      <c r="F87" s="269" t="s">
+        <v>27</v>
+      </c>
+      <c r="G87" s="269">
+        <v>360</v>
+      </c>
+      <c r="H87" s="269"/>
+      <c r="I87" s="269"/>
+      <c r="J87" s="276">
+        <v>0</v>
+      </c>
+      <c r="K87" s="269"/>
+      <c r="L87" s="269"/>
+      <c r="M87" s="105"/>
+      <c r="N87" s="105"/>
+      <c r="O87" s="105"/>
+      <c r="P87" s="105"/>
+      <c r="Q87" s="269"/>
+      <c r="R87" s="105"/>
+      <c r="U87" s="273"/>
+    </row>
+    <row r="88" spans="1:21">
+      <c r="A88" s="269" t="s">
+        <v>684</v>
+      </c>
+      <c r="B88" s="269">
+        <v>5</v>
+      </c>
+      <c r="C88" s="269" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" s="269">
+        <v>140</v>
+      </c>
+      <c r="E88" s="269">
+        <v>0</v>
+      </c>
+      <c r="F88" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88" s="269" t="s">
+        <v>63</v>
+      </c>
+      <c r="H88" s="269"/>
+      <c r="I88" s="269"/>
+      <c r="J88" s="276">
+        <v>0</v>
+      </c>
+      <c r="K88" s="269"/>
+      <c r="L88" s="269"/>
+      <c r="M88" s="105"/>
+      <c r="N88" s="105"/>
+      <c r="O88" s="105"/>
+      <c r="P88" s="105"/>
+      <c r="Q88" s="269"/>
+      <c r="R88" s="105"/>
+      <c r="U88" s="273"/>
+    </row>
+    <row r="89" spans="1:21">
+      <c r="A89" s="269" t="s">
+        <v>686</v>
+      </c>
+      <c r="B89" s="269">
+        <v>6</v>
+      </c>
+      <c r="C89" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D89" s="269">
+        <v>154</v>
+      </c>
+      <c r="E89" s="269">
+        <v>0</v>
+      </c>
+      <c r="F89" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89" s="269" t="s">
+        <v>558</v>
+      </c>
+      <c r="H89" s="269"/>
+      <c r="I89" s="269"/>
+      <c r="J89" s="276">
+        <v>0</v>
+      </c>
+      <c r="K89" s="269"/>
+      <c r="L89" s="269"/>
+      <c r="M89" s="105"/>
+      <c r="N89" s="105"/>
+      <c r="O89" s="105"/>
+      <c r="P89" s="105"/>
+      <c r="Q89" s="269"/>
+      <c r="R89" s="105"/>
+      <c r="U89" s="273"/>
+    </row>
+    <row r="90" spans="1:21">
+      <c r="A90" s="269" t="s">
+        <v>669</v>
+      </c>
+      <c r="B90" s="269">
+        <v>7</v>
+      </c>
+      <c r="C90" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D90" s="269">
+        <v>252</v>
+      </c>
+      <c r="E90" s="269">
+        <v>0</v>
+      </c>
+      <c r="F90" s="269"/>
+      <c r="G90" s="269"/>
+      <c r="H90" s="269" t="s">
+        <v>437</v>
+      </c>
+      <c r="I90" s="269">
+        <v>210</v>
+      </c>
+      <c r="J90" s="276">
+        <v>0</v>
+      </c>
+      <c r="K90" s="269"/>
+      <c r="L90" s="269"/>
+      <c r="M90" s="105"/>
+      <c r="N90" s="105"/>
+      <c r="O90" s="105"/>
+      <c r="P90" s="105"/>
+      <c r="Q90" s="269"/>
+      <c r="R90" s="105"/>
+      <c r="U90" s="273"/>
+    </row>
+    <row r="91" spans="1:21">
+      <c r="A91" s="269" t="s">
+        <v>671</v>
+      </c>
+      <c r="B91" s="269">
+        <v>8</v>
+      </c>
+      <c r="C91" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D91" s="269">
+        <v>266</v>
+      </c>
+      <c r="E91" s="269">
+        <v>0</v>
+      </c>
+      <c r="F91" s="269"/>
+      <c r="G91" s="269"/>
+      <c r="H91" s="269" t="s">
+        <v>437</v>
+      </c>
+      <c r="I91" s="269">
+        <v>240</v>
+      </c>
+      <c r="J91" s="276">
+        <v>0</v>
+      </c>
+      <c r="K91" s="269"/>
+      <c r="L91" s="269"/>
+      <c r="M91" s="105"/>
+      <c r="N91" s="105"/>
+      <c r="O91" s="105"/>
+      <c r="P91" s="105"/>
+      <c r="Q91" s="269"/>
+      <c r="R91" s="105"/>
+      <c r="U91" s="273"/>
+    </row>
+    <row r="92" spans="1:21">
+      <c r="A92" s="269" t="s">
+        <v>673</v>
+      </c>
+      <c r="B92" s="269">
+        <v>8</v>
+      </c>
+      <c r="C92" s="269" t="s">
+        <v>421</v>
+      </c>
+      <c r="D92" s="269">
+        <v>238</v>
+      </c>
+      <c r="E92" s="269">
+        <v>0</v>
+      </c>
+      <c r="F92" s="269" t="s">
+        <v>2</v>
+      </c>
+      <c r="G92" s="269" t="s">
+        <v>3</v>
+      </c>
+      <c r="H92" s="269"/>
+      <c r="I92" s="269"/>
+      <c r="J92" s="276">
+        <v>15</v>
+      </c>
+      <c r="K92" s="269" t="s">
+        <v>696</v>
+      </c>
+      <c r="L92" s="269"/>
+      <c r="M92" s="105"/>
+      <c r="N92" s="105"/>
+      <c r="O92" s="105"/>
+      <c r="P92" s="105"/>
+      <c r="Q92" s="269"/>
+      <c r="R92" s="105"/>
+      <c r="U92" s="273"/>
+    </row>
+    <row r="93" spans="1:21">
+      <c r="A93" s="273"/>
+      <c r="B93" s="273"/>
+      <c r="C93" s="273"/>
+      <c r="D93" s="273"/>
+      <c r="E93" s="273"/>
+      <c r="F93" s="273"/>
+      <c r="G93" s="273"/>
+      <c r="H93" s="273"/>
+      <c r="I93" s="273"/>
+      <c r="J93" s="277"/>
+      <c r="K93" s="273"/>
+      <c r="L93" s="273"/>
+      <c r="Q93" s="273"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="1" max="1" width="19.75499916" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="275" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="14" max="17" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="19" max="21" width="9.00500011" customWidth="1" outlineLevel="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="266" t="s">
+        <v>697</v>
+      </c>
+      <c r="B1" s="267">
+        <v>1</v>
+      </c>
+      <c r="C1" s="266" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="267">
+        <v>112</v>
+      </c>
+      <c r="E1" s="267">
+        <v>0</v>
+      </c>
+      <c r="F1" s="268"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="266"/>
+      <c r="J1" s="367">
+        <v>0</v>
+      </c>
+      <c r="K1" s="267"/>
+      <c r="L1" s="267"/>
+      <c r="M1" s="267"/>
+      <c r="R1" s="269"/>
+      <c r="V1" s="273"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="266" t="s">
+        <v>698</v>
+      </c>
+      <c r="B2" s="267">
+        <v>1</v>
+      </c>
+      <c r="C2" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="267">
+        <v>126</v>
+      </c>
+      <c r="E2" s="267">
+        <v>0</v>
+      </c>
+      <c r="F2" s="268"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="367">
+        <v>0</v>
+      </c>
+      <c r="K2" s="267"/>
+      <c r="L2" s="267"/>
+      <c r="M2" s="267"/>
+      <c r="R2" s="269"/>
+      <c r="V2" s="273"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="266" t="s">
+        <v>699</v>
+      </c>
+      <c r="B3" s="267">
+        <v>2</v>
+      </c>
+      <c r="C3" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="267">
+        <v>140</v>
+      </c>
+      <c r="E3" s="267">
+        <v>0</v>
+      </c>
+      <c r="F3" s="268"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="267"/>
+      <c r="I3" s="266"/>
+      <c r="J3" s="367">
+        <v>0</v>
+      </c>
+      <c r="K3" s="267"/>
+      <c r="L3" s="267"/>
+      <c r="M3" s="267"/>
+      <c r="R3" s="269"/>
+      <c r="V3" s="273"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="266" t="s">
+        <v>700</v>
+      </c>
+      <c r="B4" s="267">
+        <v>3</v>
+      </c>
+      <c r="C4" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="267">
+        <v>154</v>
+      </c>
+      <c r="E4" s="267">
+        <v>0</v>
+      </c>
+      <c r="F4" s="268"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="267"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="367">
+        <v>0</v>
+      </c>
+      <c r="K4" s="267"/>
+      <c r="L4" s="267"/>
+      <c r="M4" s="267"/>
+      <c r="R4" s="269"/>
+      <c r="V4" s="273"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="266" t="s">
+        <v>701</v>
+      </c>
+      <c r="B5" s="267">
+        <v>4</v>
+      </c>
+      <c r="C5" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="267">
+        <v>182</v>
+      </c>
+      <c r="E5" s="267">
+        <v>0</v>
+      </c>
+      <c r="F5" s="268"/>
+      <c r="G5" s="269"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="266"/>
+      <c r="J5" s="367">
+        <v>0</v>
+      </c>
+      <c r="K5" s="267"/>
+      <c r="L5" s="267"/>
+      <c r="M5" s="267"/>
+      <c r="R5" s="269"/>
+      <c r="V5" s="273"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="266" t="s">
+        <v>702</v>
+      </c>
+      <c r="B6" s="267">
+        <v>5</v>
+      </c>
+      <c r="C6" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="267">
+        <v>196</v>
+      </c>
+      <c r="E6" s="267">
+        <v>0</v>
+      </c>
+      <c r="F6" s="268"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="268" t="s">
+        <v>434</v>
+      </c>
+      <c r="I6" s="266">
+        <v>210</v>
+      </c>
+      <c r="J6" s="367">
+        <v>0</v>
+      </c>
+      <c r="K6" s="267" t="s">
+        <v>457</v>
+      </c>
+      <c r="L6" s="267"/>
+      <c r="M6" s="267"/>
+      <c r="R6" s="269"/>
+      <c r="V6" s="273"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="266" t="s">
+        <v>704</v>
+      </c>
+      <c r="B7" s="267">
+        <v>6</v>
+      </c>
+      <c r="C7" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="267">
+        <v>224</v>
+      </c>
+      <c r="E7" s="267">
+        <v>0</v>
+      </c>
+      <c r="F7" s="268"/>
+      <c r="G7" s="272"/>
+      <c r="H7" s="268" t="s">
+        <v>434</v>
+      </c>
+      <c r="I7" s="266">
+        <v>240</v>
+      </c>
+      <c r="J7" s="367">
+        <v>0</v>
+      </c>
+      <c r="K7" s="267" t="s">
+        <v>792</v>
+      </c>
+      <c r="L7" s="267"/>
+      <c r="M7" s="267"/>
+      <c r="R7" s="269"/>
+      <c r="V7" s="273"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="266" t="s">
+        <v>705</v>
+      </c>
+      <c r="B8" s="267">
+        <v>6</v>
+      </c>
+      <c r="C8" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="267">
+        <v>252</v>
+      </c>
+      <c r="E8" s="267">
+        <v>0</v>
+      </c>
+      <c r="F8" s="268"/>
+      <c r="G8" s="272"/>
+      <c r="H8" s="268" t="s">
+        <v>434</v>
+      </c>
+      <c r="I8" s="266">
+        <v>270</v>
+      </c>
+      <c r="J8" s="367">
+        <v>0</v>
+      </c>
+      <c r="K8" s="267" t="s">
+        <v>695</v>
+      </c>
+      <c r="L8" s="267"/>
+      <c r="M8" s="267"/>
+      <c r="R8" s="269"/>
+      <c r="V8" s="273"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="266" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" s="267">
+        <v>7</v>
+      </c>
+      <c r="C9" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="267">
+        <v>280</v>
+      </c>
+      <c r="E9" s="267">
+        <v>0</v>
+      </c>
+      <c r="F9" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="269" t="s">
+        <v>487</v>
+      </c>
+      <c r="H9" s="268"/>
+      <c r="I9" s="266"/>
+      <c r="J9" s="367">
+        <v>0</v>
+      </c>
+      <c r="K9" s="267" t="s">
+        <v>792</v>
+      </c>
+      <c r="L9" s="267"/>
+      <c r="M9" s="267"/>
+      <c r="R9" s="269"/>
+      <c r="V9" s="273"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="266" t="s">
+        <v>707</v>
+      </c>
+      <c r="B10" s="267">
+        <v>8</v>
+      </c>
+      <c r="C10" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="267">
+        <v>294</v>
+      </c>
+      <c r="E10" s="267">
+        <v>0</v>
+      </c>
+      <c r="F10" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="269" t="s">
+        <v>489</v>
+      </c>
+      <c r="H10" s="268"/>
+      <c r="I10" s="271"/>
+      <c r="J10" s="367">
+        <v>0</v>
+      </c>
+      <c r="K10" s="267" t="s">
+        <v>793</v>
+      </c>
+      <c r="L10" s="267"/>
+      <c r="M10" s="267"/>
+      <c r="R10" s="269"/>
+      <c r="V10" s="273"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="266" t="s">
+        <v>708</v>
+      </c>
+      <c r="B11" s="267">
+        <v>3</v>
+      </c>
+      <c r="C11" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="267">
+        <v>168</v>
+      </c>
+      <c r="E11" s="267">
+        <v>0</v>
+      </c>
+      <c r="F11" s="268"/>
+      <c r="G11" s="269"/>
+      <c r="H11" s="267"/>
+      <c r="I11" s="266"/>
+      <c r="J11" s="367">
+        <v>0</v>
+      </c>
+      <c r="K11" s="267"/>
+      <c r="L11" s="267"/>
+      <c r="M11" s="267"/>
+      <c r="R11" s="269"/>
+      <c r="V11" s="273"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="266" t="s">
+        <v>709</v>
+      </c>
+      <c r="B12" s="267">
+        <v>4</v>
+      </c>
+      <c r="C12" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" s="267">
+        <v>196</v>
+      </c>
+      <c r="E12" s="267">
+        <v>0</v>
+      </c>
+      <c r="F12" s="268"/>
+      <c r="G12" s="269"/>
+      <c r="H12" s="267"/>
+      <c r="I12" s="266"/>
+      <c r="J12" s="367">
+        <v>0</v>
+      </c>
+      <c r="K12" s="267"/>
+      <c r="L12" s="267"/>
+      <c r="M12" s="267"/>
+      <c r="R12" s="269"/>
+      <c r="V12" s="273"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="266" t="s">
+        <v>710</v>
+      </c>
+      <c r="B13" s="267">
+        <v>5</v>
+      </c>
+      <c r="C13" s="266" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="267">
+        <v>224</v>
+      </c>
+      <c r="E13" s="267">
+        <v>0</v>
+      </c>
+      <c r="F13" s="268" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="272">
+        <v>120</v>
+      </c>
+      <c r="H13" s="268"/>
+      <c r="I13" s="266"/>
+      <c r="J13" s="367">
+        <v>0</v>
+      </c>
+      <c r="K13" s="267" t="s">
+        <v>793</v>
+      </c>
+      <c r="L13" s="267"/>
+      <c r="M13" s="267"/>
+      <c r="R13" s="269"/>
+      <c r="V13" s="273"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="266" t="s">
+        <v>711</v>
+      </c>
+      <c r="B14" s="267">
+        <v>6</v>
+      </c>
+      <c r="C14" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="267">
+        <v>238</v>
+      </c>
+      <c r="E14" s="267">
+        <v>0</v>
+      </c>
+      <c r="F14" s="268" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="272">
+        <v>150</v>
+      </c>
+      <c r="H14" s="268"/>
+      <c r="I14" s="266"/>
+      <c r="J14" s="367">
+        <v>0</v>
+      </c>
+      <c r="K14" s="267" t="s">
+        <v>460</v>
+      </c>
+      <c r="L14" s="267"/>
+      <c r="M14" s="267"/>
+      <c r="R14" s="269"/>
+      <c r="V14" s="273"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="266" t="s">
+        <v>712</v>
+      </c>
+      <c r="B15" s="267">
+        <v>6</v>
+      </c>
+      <c r="C15" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" s="267">
+        <v>252</v>
+      </c>
+      <c r="E15" s="267">
+        <v>0</v>
+      </c>
+      <c r="F15" s="268" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="272">
+        <v>210</v>
+      </c>
+      <c r="H15" s="268"/>
+      <c r="I15" s="266"/>
+      <c r="J15" s="367">
+        <v>0</v>
+      </c>
+      <c r="K15" s="267" t="s">
+        <v>794</v>
+      </c>
+      <c r="L15" s="267"/>
+      <c r="M15" s="267"/>
+      <c r="R15" s="269"/>
+      <c r="V15" s="273"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="266" t="s">
+        <v>713</v>
+      </c>
+      <c r="B16" s="267">
+        <v>6</v>
+      </c>
+      <c r="C16" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D16" s="267">
+        <v>252</v>
+      </c>
+      <c r="E16" s="267">
+        <v>0</v>
+      </c>
+      <c r="F16" s="268"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="269" t="s">
+        <v>437</v>
+      </c>
+      <c r="I16" s="266">
+        <v>120</v>
+      </c>
+      <c r="J16" s="367">
+        <v>-10</v>
+      </c>
+      <c r="K16" s="267" t="s">
+        <v>795</v>
+      </c>
+      <c r="L16" s="267"/>
+      <c r="M16" s="267"/>
+      <c r="R16" s="269"/>
+      <c r="V16" s="273"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="266" t="s">
+        <v>715</v>
+      </c>
+      <c r="B17" s="267">
+        <v>8</v>
+      </c>
+      <c r="C17" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D17" s="267">
+        <v>280</v>
+      </c>
+      <c r="E17" s="267">
+        <v>0</v>
+      </c>
+      <c r="F17" s="268"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="269" t="s">
+        <v>789</v>
+      </c>
+      <c r="I17" s="266">
+        <v>150</v>
+      </c>
+      <c r="J17" s="367">
+        <v>-10</v>
+      </c>
+      <c r="K17" s="267" t="s">
+        <v>795</v>
+      </c>
+      <c r="L17" s="267"/>
+      <c r="M17" s="267"/>
+      <c r="R17" s="269"/>
+      <c r="V17" s="273"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="266" t="s">
+        <v>717</v>
+      </c>
+      <c r="B18" s="267">
+        <v>4</v>
+      </c>
+      <c r="C18" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D18" s="267">
+        <v>182</v>
+      </c>
+      <c r="E18" s="267">
+        <v>0</v>
+      </c>
+      <c r="F18" s="268" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="272">
+        <v>60</v>
+      </c>
+      <c r="H18" s="269"/>
+      <c r="I18" s="266"/>
+      <c r="J18" s="367">
+        <v>0</v>
+      </c>
+      <c r="K18" s="267"/>
+      <c r="L18" s="267"/>
+      <c r="M18" s="267"/>
+      <c r="R18" s="269"/>
+      <c r="V18" s="273"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="266" t="s">
+        <v>718</v>
+      </c>
+      <c r="B19" s="267">
+        <v>5</v>
+      </c>
+      <c r="C19" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D19" s="267">
+        <v>210</v>
+      </c>
+      <c r="E19" s="267">
+        <v>0</v>
+      </c>
+      <c r="F19" s="268" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="272">
+        <v>90</v>
+      </c>
+      <c r="H19" s="269"/>
+      <c r="I19" s="266"/>
+      <c r="J19" s="367">
+        <v>0</v>
+      </c>
+      <c r="K19" s="267" t="s">
+        <v>796</v>
+      </c>
+      <c r="L19" s="267"/>
+      <c r="M19" s="267"/>
+      <c r="R19" s="269"/>
+      <c r="V19" s="273"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="266" t="s">
+        <v>719</v>
+      </c>
+      <c r="B20" s="267">
+        <v>6</v>
+      </c>
+      <c r="C20" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="267">
+        <v>238</v>
+      </c>
+      <c r="E20" s="267">
+        <v>0</v>
+      </c>
+      <c r="F20" s="268" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="272">
+        <v>120</v>
+      </c>
+      <c r="H20" s="269"/>
+      <c r="I20" s="266"/>
+      <c r="J20" s="367">
+        <v>0</v>
+      </c>
+      <c r="K20" s="267" t="s">
+        <v>796</v>
+      </c>
+      <c r="L20" s="267"/>
+      <c r="M20" s="267"/>
+      <c r="R20" s="269"/>
+      <c r="V20" s="273"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="266" t="s">
+        <v>720</v>
+      </c>
+      <c r="B21" s="267">
+        <v>6</v>
+      </c>
+      <c r="C21" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D21" s="267">
+        <v>252</v>
+      </c>
+      <c r="E21" s="267">
+        <v>0</v>
+      </c>
+      <c r="F21" s="268" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="272">
+        <v>150</v>
+      </c>
+      <c r="H21" s="269"/>
+      <c r="I21" s="266"/>
+      <c r="J21" s="367">
+        <v>0</v>
+      </c>
+      <c r="K21" s="267" t="s">
+        <v>797</v>
+      </c>
+      <c r="L21" s="267"/>
+      <c r="M21" s="267"/>
+      <c r="R21" s="269"/>
+      <c r="V21" s="273"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="266" t="s">
+        <v>721</v>
+      </c>
+      <c r="B22" s="267">
+        <v>2</v>
+      </c>
+      <c r="C22" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" s="267">
+        <v>154</v>
+      </c>
+      <c r="E22" s="267">
+        <v>0</v>
+      </c>
+      <c r="F22" s="268"/>
+      <c r="G22" s="269"/>
+      <c r="H22" s="269"/>
+      <c r="I22" s="266"/>
+      <c r="J22" s="367">
+        <v>15</v>
+      </c>
+      <c r="K22" s="267"/>
+      <c r="L22" s="267"/>
+      <c r="M22" s="267"/>
+      <c r="R22" s="269"/>
+      <c r="V22" s="273"/>
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="266" t="s">
+        <v>722</v>
+      </c>
+      <c r="B23" s="267">
+        <v>3</v>
+      </c>
+      <c r="C23" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="267">
+        <v>168</v>
+      </c>
+      <c r="E23" s="267">
+        <v>0</v>
+      </c>
+      <c r="F23" s="268"/>
+      <c r="G23" s="269"/>
+      <c r="H23" s="269"/>
+      <c r="I23" s="266"/>
+      <c r="J23" s="367">
+        <v>15</v>
+      </c>
+      <c r="K23" s="267"/>
+      <c r="L23" s="267"/>
+      <c r="M23" s="267"/>
+      <c r="R23" s="269"/>
+      <c r="V23" s="273"/>
+    </row>
+    <row r="24" spans="1:22">
+      <c r="A24" s="266" t="s">
+        <v>723</v>
+      </c>
+      <c r="B24" s="267">
+        <v>4</v>
+      </c>
+      <c r="C24" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="267">
+        <v>182</v>
+      </c>
+      <c r="E24" s="267">
+        <v>0</v>
+      </c>
+      <c r="F24" s="268"/>
+      <c r="G24" s="269"/>
+      <c r="H24" s="269"/>
+      <c r="I24" s="266"/>
+      <c r="J24" s="367">
+        <v>15</v>
+      </c>
+      <c r="K24" s="267"/>
+      <c r="L24" s="267"/>
+      <c r="M24" s="267"/>
+      <c r="R24" s="269"/>
+      <c r="V24" s="273"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="269" t="s">
+        <v>724</v>
+      </c>
+      <c r="B25" s="267">
+        <v>5</v>
+      </c>
+      <c r="C25" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="267">
+        <v>210</v>
+      </c>
+      <c r="E25" s="267">
+        <v>0</v>
+      </c>
+      <c r="F25" s="268"/>
+      <c r="G25" s="269"/>
+      <c r="H25" s="268" t="s">
+        <v>436</v>
+      </c>
+      <c r="I25" s="266">
+        <v>90</v>
+      </c>
+      <c r="J25" s="367">
+        <v>20</v>
+      </c>
+      <c r="K25" s="267"/>
+      <c r="L25" s="267"/>
+      <c r="M25" s="267"/>
+      <c r="R25" s="269"/>
+      <c r="V25" s="273"/>
+    </row>
+    <row r="26" spans="1:22">
+      <c r="A26" s="269" t="s">
+        <v>726</v>
+      </c>
+      <c r="B26" s="267">
+        <v>6</v>
+      </c>
+      <c r="C26" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D26" s="267">
+        <v>224</v>
+      </c>
+      <c r="E26" s="267">
+        <v>0</v>
+      </c>
+      <c r="F26" s="268"/>
+      <c r="G26" s="269"/>
+      <c r="H26" s="268" t="s">
+        <v>436</v>
+      </c>
+      <c r="I26" s="266">
+        <v>90</v>
+      </c>
+      <c r="J26" s="367">
+        <v>20</v>
+      </c>
+      <c r="K26" s="267"/>
+      <c r="L26" s="267"/>
+      <c r="M26" s="267"/>
+      <c r="R26" s="269"/>
+      <c r="V26" s="273"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="269" t="s">
+        <v>727</v>
+      </c>
+      <c r="B27" s="267">
+        <v>6</v>
+      </c>
+      <c r="C27" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D27" s="267">
+        <v>238</v>
+      </c>
+      <c r="E27" s="267">
+        <v>0</v>
+      </c>
+      <c r="F27" s="268"/>
+      <c r="G27" s="269"/>
+      <c r="H27" s="268" t="s">
+        <v>436</v>
+      </c>
+      <c r="I27" s="266">
+        <v>120</v>
+      </c>
+      <c r="J27" s="367">
+        <v>20</v>
+      </c>
+      <c r="K27" s="267"/>
+      <c r="L27" s="267"/>
+      <c r="M27" s="267"/>
+      <c r="R27" s="269"/>
+      <c r="V27" s="273"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="266" t="s">
+        <v>728</v>
+      </c>
+      <c r="B28" s="267">
+        <v>3</v>
+      </c>
+      <c r="C28" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D28" s="267">
+        <v>182</v>
+      </c>
+      <c r="E28" s="267">
+        <v>0</v>
+      </c>
+      <c r="F28" s="268" t="s">
+        <v>183</v>
+      </c>
+      <c r="G28" s="269">
+        <v>90</v>
+      </c>
+      <c r="H28" s="268"/>
+      <c r="I28" s="266"/>
+      <c r="J28" s="367">
+        <v>0</v>
+      </c>
+      <c r="K28" s="267"/>
+      <c r="L28" s="267"/>
+      <c r="M28" s="267"/>
+      <c r="R28" s="269"/>
+      <c r="V28" s="273"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="266" t="s">
+        <v>729</v>
+      </c>
+      <c r="B29" s="267">
+        <v>5</v>
+      </c>
+      <c r="C29" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D29" s="267">
+        <v>210</v>
+      </c>
+      <c r="E29" s="267">
+        <v>0</v>
+      </c>
+      <c r="F29" s="268" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="269">
+        <v>90</v>
+      </c>
+      <c r="H29" s="268"/>
+      <c r="I29" s="266"/>
+      <c r="J29" s="367">
+        <v>0</v>
+      </c>
+      <c r="K29" s="267" t="s">
+        <v>797</v>
+      </c>
+      <c r="L29" s="267"/>
+      <c r="M29" s="267"/>
+      <c r="R29" s="269"/>
+      <c r="V29" s="273"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="266" t="s">
+        <v>730</v>
+      </c>
+      <c r="B30" s="267">
+        <v>7</v>
+      </c>
+      <c r="C30" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D30" s="267">
+        <v>252</v>
+      </c>
+      <c r="E30" s="267">
+        <v>0</v>
+      </c>
+      <c r="F30" s="268" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="269">
+        <v>120</v>
+      </c>
+      <c r="H30" s="268"/>
+      <c r="I30" s="266"/>
+      <c r="J30" s="367">
+        <v>0</v>
+      </c>
+      <c r="K30" s="267" t="s">
+        <v>794</v>
+      </c>
+      <c r="L30" s="267"/>
+      <c r="M30" s="267"/>
+      <c r="R30" s="269"/>
+      <c r="V30" s="273"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="266" t="s">
+        <v>731</v>
+      </c>
+      <c r="B31" s="267">
+        <v>1</v>
+      </c>
+      <c r="C31" s="266" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="267">
+        <v>140</v>
+      </c>
+      <c r="E31" s="267">
+        <v>0</v>
+      </c>
+      <c r="F31" s="268"/>
+      <c r="G31" s="269"/>
+      <c r="H31" s="269"/>
+      <c r="I31" s="266"/>
+      <c r="J31" s="367">
+        <v>0</v>
+      </c>
+      <c r="K31" s="267"/>
+      <c r="L31" s="267"/>
+      <c r="M31" s="267"/>
+      <c r="R31" s="269"/>
+      <c r="V31" s="273"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="266" t="s">
+        <v>732</v>
+      </c>
+      <c r="B32" s="267">
+        <v>1</v>
+      </c>
+      <c r="C32" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D32" s="267">
+        <v>154</v>
+      </c>
+      <c r="E32" s="267">
+        <v>0</v>
+      </c>
+      <c r="F32" s="268"/>
+      <c r="G32" s="269"/>
+      <c r="H32" s="269"/>
+      <c r="I32" s="266"/>
+      <c r="J32" s="367">
+        <v>0</v>
+      </c>
+      <c r="K32" s="267"/>
+      <c r="L32" s="267"/>
+      <c r="M32" s="267"/>
+      <c r="R32" s="269"/>
+      <c r="V32" s="273"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="266" t="s">
+        <v>733</v>
+      </c>
+      <c r="B33" s="267">
+        <v>2</v>
+      </c>
+      <c r="C33" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" s="267">
+        <v>168</v>
+      </c>
+      <c r="E33" s="267">
+        <v>0</v>
+      </c>
+      <c r="F33" s="268"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="269"/>
+      <c r="I33" s="266"/>
+      <c r="J33" s="367">
+        <v>0</v>
+      </c>
+      <c r="K33" s="267"/>
+      <c r="L33" s="267"/>
+      <c r="M33" s="267"/>
+      <c r="R33" s="269"/>
+      <c r="V33" s="273"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="266" t="s">
+        <v>734</v>
+      </c>
+      <c r="B34" s="267">
+        <v>3</v>
+      </c>
+      <c r="C34" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D34" s="267">
+        <v>196</v>
+      </c>
+      <c r="E34" s="267">
+        <v>0</v>
+      </c>
+      <c r="F34" s="268"/>
+      <c r="G34" s="269"/>
+      <c r="H34" s="269"/>
+      <c r="I34" s="266"/>
+      <c r="J34" s="367">
+        <v>0</v>
+      </c>
+      <c r="K34" s="267"/>
+      <c r="L34" s="267"/>
+      <c r="M34" s="267"/>
+      <c r="R34" s="269"/>
+      <c r="V34" s="273"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="266" t="s">
+        <v>735</v>
+      </c>
+      <c r="B35" s="267">
+        <v>4</v>
+      </c>
+      <c r="C35" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D35" s="267">
+        <v>210</v>
+      </c>
+      <c r="E35" s="267">
+        <v>0</v>
+      </c>
+      <c r="F35" s="268"/>
+      <c r="G35" s="269"/>
+      <c r="H35" s="269"/>
+      <c r="I35" s="266"/>
+      <c r="J35" s="367">
+        <v>0</v>
+      </c>
+      <c r="K35" s="267"/>
+      <c r="L35" s="267"/>
+      <c r="M35" s="267"/>
+      <c r="R35" s="269"/>
+      <c r="V35" s="273"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="266" t="s">
+        <v>736</v>
+      </c>
+      <c r="B36" s="267">
+        <v>5</v>
+      </c>
+      <c r="C36" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D36" s="267">
+        <v>224</v>
+      </c>
+      <c r="E36" s="267">
+        <v>0</v>
+      </c>
+      <c r="F36" s="268"/>
+      <c r="G36" s="272"/>
+      <c r="H36" s="269" t="s">
+        <v>789</v>
+      </c>
+      <c r="I36" s="266">
+        <v>120</v>
+      </c>
+      <c r="J36" s="367">
+        <v>0</v>
+      </c>
+      <c r="K36" s="267" t="s">
+        <v>798</v>
+      </c>
+      <c r="L36" s="267"/>
+      <c r="M36" s="267"/>
+      <c r="R36" s="269"/>
+      <c r="V36" s="273"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="266" t="s">
+        <v>738</v>
+      </c>
+      <c r="B37" s="267">
+        <v>6</v>
+      </c>
+      <c r="C37" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D37" s="267">
+        <v>238</v>
+      </c>
+      <c r="E37" s="267">
+        <v>10</v>
+      </c>
+      <c r="F37" s="268"/>
+      <c r="G37" s="272"/>
+      <c r="H37" s="269" t="s">
+        <v>789</v>
+      </c>
+      <c r="I37" s="266">
+        <v>150</v>
+      </c>
+      <c r="J37" s="367">
+        <v>0</v>
+      </c>
+      <c r="K37" s="267" t="s">
+        <v>798</v>
+      </c>
+      <c r="L37" s="267"/>
+      <c r="M37" s="267"/>
+      <c r="R37" s="269"/>
+      <c r="V37" s="273"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="266" t="s">
+        <v>740</v>
+      </c>
+      <c r="B38" s="267">
+        <v>6</v>
+      </c>
+      <c r="C38" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D38" s="267">
+        <v>266</v>
+      </c>
+      <c r="E38" s="267">
+        <v>10</v>
+      </c>
+      <c r="F38" s="268"/>
+      <c r="G38" s="272"/>
+      <c r="H38" s="269" t="s">
+        <v>789</v>
+      </c>
+      <c r="I38" s="266">
+        <v>180</v>
+      </c>
+      <c r="J38" s="367">
+        <v>0</v>
+      </c>
+      <c r="K38" s="267" t="s">
+        <v>799</v>
+      </c>
+      <c r="L38" s="267"/>
+      <c r="M38" s="267"/>
+      <c r="R38" s="269"/>
+      <c r="V38" s="273"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="266" t="s">
+        <v>742</v>
+      </c>
+      <c r="B39" s="267">
+        <v>3</v>
+      </c>
+      <c r="C39" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D39" s="267">
+        <v>196</v>
+      </c>
+      <c r="E39" s="267">
+        <v>0</v>
+      </c>
+      <c r="F39" s="268" t="s">
+        <v>228</v>
+      </c>
+      <c r="G39" s="272">
+        <v>90</v>
+      </c>
+      <c r="H39" s="269"/>
+      <c r="I39" s="266"/>
+      <c r="J39" s="367">
+        <v>-20</v>
+      </c>
+      <c r="K39" s="267"/>
+      <c r="L39" s="267"/>
+      <c r="M39" s="267"/>
+      <c r="R39" s="269"/>
+      <c r="V39" s="273"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="266" t="s">
+        <v>743</v>
+      </c>
+      <c r="B40" s="267">
+        <v>4</v>
+      </c>
+      <c r="C40" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D40" s="267">
+        <v>210</v>
+      </c>
+      <c r="E40" s="267">
+        <v>0</v>
+      </c>
+      <c r="F40" s="268" t="s">
+        <v>228</v>
+      </c>
+      <c r="G40" s="272">
+        <v>120</v>
+      </c>
+      <c r="H40" s="269"/>
+      <c r="I40" s="266"/>
+      <c r="J40" s="367">
+        <v>-20</v>
+      </c>
+      <c r="K40" s="267"/>
+      <c r="L40" s="267"/>
+      <c r="M40" s="267"/>
+      <c r="R40" s="269"/>
+      <c r="V40" s="273"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="266" t="s">
+        <v>744</v>
+      </c>
+      <c r="B41" s="267">
+        <v>5</v>
+      </c>
+      <c r="C41" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D41" s="267">
+        <v>238</v>
+      </c>
+      <c r="E41" s="267">
+        <v>0</v>
+      </c>
+      <c r="F41" s="268" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="272">
+        <v>150</v>
+      </c>
+      <c r="H41" s="269"/>
+      <c r="I41" s="266"/>
+      <c r="J41" s="367">
+        <v>-20</v>
+      </c>
+      <c r="K41" s="267"/>
+      <c r="L41" s="267"/>
+      <c r="M41" s="267"/>
+      <c r="R41" s="269"/>
+      <c r="V41" s="273"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="266" t="s">
+        <v>745</v>
+      </c>
+      <c r="B42" s="267">
+        <v>6</v>
+      </c>
+      <c r="C42" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D42" s="267">
+        <v>266</v>
+      </c>
+      <c r="E42" s="267">
+        <v>0</v>
+      </c>
+      <c r="F42" s="268" t="s">
+        <v>228</v>
+      </c>
+      <c r="G42" s="272">
+        <v>180</v>
+      </c>
+      <c r="H42" s="269"/>
+      <c r="I42" s="266"/>
+      <c r="J42" s="367">
+        <v>-20</v>
+      </c>
+      <c r="K42" s="267"/>
+      <c r="L42" s="267"/>
+      <c r="M42" s="267"/>
+      <c r="R42" s="269"/>
+      <c r="V42" s="273"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="266" t="s">
+        <v>746</v>
+      </c>
+      <c r="B43" s="267">
+        <v>6</v>
+      </c>
+      <c r="C43" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D43" s="267">
+        <v>294</v>
+      </c>
+      <c r="E43" s="267">
+        <v>0</v>
+      </c>
+      <c r="F43" s="268" t="s">
+        <v>228</v>
+      </c>
+      <c r="G43" s="272">
+        <v>210</v>
+      </c>
+      <c r="H43" s="269"/>
+      <c r="I43" s="266"/>
+      <c r="J43" s="367">
+        <v>-20</v>
+      </c>
+      <c r="K43" s="267"/>
+      <c r="L43" s="267"/>
+      <c r="M43" s="267"/>
+      <c r="R43" s="269"/>
+      <c r="V43" s="273"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="266" t="s">
+        <v>747</v>
+      </c>
+      <c r="B44" s="267">
+        <v>4</v>
+      </c>
+      <c r="C44" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D44" s="267">
+        <v>224</v>
+      </c>
+      <c r="E44" s="267">
+        <v>10</v>
+      </c>
+      <c r="F44" s="268"/>
+      <c r="G44" s="269"/>
+      <c r="H44" s="269"/>
+      <c r="I44" s="266"/>
+      <c r="J44" s="367">
+        <v>-10</v>
+      </c>
+      <c r="K44" s="267"/>
+      <c r="L44" s="267"/>
+      <c r="M44" s="267"/>
+      <c r="R44" s="269"/>
+      <c r="V44" s="273"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="266" t="s">
+        <v>748</v>
+      </c>
+      <c r="B45" s="267">
+        <v>5</v>
+      </c>
+      <c r="C45" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D45" s="267">
+        <v>266</v>
+      </c>
+      <c r="E45" s="267">
+        <v>10</v>
+      </c>
+      <c r="F45" s="268" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="272">
+        <v>90</v>
+      </c>
+      <c r="H45" s="269"/>
+      <c r="I45" s="266"/>
+      <c r="J45" s="367">
+        <v>-10</v>
+      </c>
+      <c r="K45" s="267" t="s">
+        <v>800</v>
+      </c>
+      <c r="L45" s="267"/>
+      <c r="M45" s="267"/>
+      <c r="R45" s="269"/>
+      <c r="V45" s="273"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="266" t="s">
+        <v>749</v>
+      </c>
+      <c r="B46" s="267">
+        <v>6</v>
+      </c>
+      <c r="C46" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D46" s="267">
+        <v>294</v>
+      </c>
+      <c r="E46" s="267">
+        <v>15</v>
+      </c>
+      <c r="F46" s="268" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="272">
+        <v>90</v>
+      </c>
+      <c r="H46" s="269"/>
+      <c r="I46" s="266"/>
+      <c r="J46" s="367">
+        <v>-10</v>
+      </c>
+      <c r="K46" s="267" t="s">
+        <v>800</v>
+      </c>
+      <c r="L46" s="267"/>
+      <c r="M46" s="267"/>
+      <c r="R46" s="269"/>
+      <c r="V46" s="273"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="266" t="s">
+        <v>750</v>
+      </c>
+      <c r="B47" s="267">
+        <v>7</v>
+      </c>
+      <c r="C47" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D47" s="267">
+        <v>322</v>
+      </c>
+      <c r="E47" s="267">
+        <v>15</v>
+      </c>
+      <c r="F47" s="268" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="272">
+        <v>90</v>
+      </c>
+      <c r="H47" s="269"/>
+      <c r="I47" s="266"/>
+      <c r="J47" s="367">
+        <v>-10</v>
+      </c>
+      <c r="K47" s="267" t="s">
+        <v>801</v>
+      </c>
+      <c r="L47" s="267"/>
+      <c r="M47" s="267"/>
+      <c r="R47" s="269"/>
+      <c r="V47" s="273"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="266" t="s">
+        <v>751</v>
+      </c>
+      <c r="B48" s="267">
+        <v>2</v>
+      </c>
+      <c r="C48" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D48" s="267">
+        <v>154</v>
+      </c>
+      <c r="E48" s="267">
+        <v>0</v>
+      </c>
+      <c r="F48" s="268" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" s="272">
+        <v>90</v>
+      </c>
+      <c r="H48" s="269"/>
+      <c r="I48" s="266"/>
+      <c r="J48" s="367">
+        <v>0</v>
+      </c>
+      <c r="K48" s="267"/>
+      <c r="L48" s="267"/>
+      <c r="M48" s="267"/>
+      <c r="R48" s="269"/>
+      <c r="V48" s="273"/>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="266" t="s">
+        <v>752</v>
+      </c>
+      <c r="B49" s="267">
+        <v>3</v>
+      </c>
+      <c r="C49" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D49" s="267">
+        <v>182</v>
+      </c>
+      <c r="E49" s="267">
+        <v>0</v>
+      </c>
+      <c r="F49" s="268" t="s">
+        <v>183</v>
+      </c>
+      <c r="G49" s="272">
+        <v>90</v>
+      </c>
+      <c r="H49" s="269"/>
+      <c r="I49" s="266"/>
+      <c r="J49" s="367">
+        <v>0</v>
+      </c>
+      <c r="K49" s="267"/>
+      <c r="L49" s="267"/>
+      <c r="M49" s="267"/>
+      <c r="R49" s="269"/>
+      <c r="V49" s="273"/>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="266" t="s">
+        <v>753</v>
+      </c>
+      <c r="B50" s="267">
+        <v>4</v>
+      </c>
+      <c r="C50" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D50" s="267">
+        <v>210</v>
+      </c>
+      <c r="E50" s="267">
+        <v>0</v>
+      </c>
+      <c r="F50" s="268" t="s">
+        <v>183</v>
+      </c>
+      <c r="G50" s="272">
+        <v>120</v>
+      </c>
+      <c r="H50" s="269"/>
+      <c r="I50" s="266"/>
+      <c r="J50" s="367">
+        <v>0</v>
+      </c>
+      <c r="K50" s="267"/>
+      <c r="L50" s="267"/>
+      <c r="M50" s="267"/>
+      <c r="R50" s="269"/>
+      <c r="V50" s="273"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="266" t="s">
+        <v>754</v>
+      </c>
+      <c r="B51" s="267">
+        <v>5</v>
+      </c>
+      <c r="C51" s="266" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="267">
+        <v>238</v>
+      </c>
+      <c r="E51" s="267">
+        <v>0</v>
+      </c>
+      <c r="F51" s="268" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51" s="272">
+        <v>150</v>
+      </c>
+      <c r="H51" s="269"/>
+      <c r="I51" s="266"/>
+      <c r="J51" s="367">
+        <v>0</v>
+      </c>
+      <c r="K51" s="267" t="s">
+        <v>802</v>
+      </c>
+      <c r="L51" s="267"/>
+      <c r="M51" s="267"/>
+      <c r="R51" s="269"/>
+      <c r="V51" s="273"/>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="266" t="s">
+        <v>755</v>
+      </c>
+      <c r="B52" s="267">
+        <v>6</v>
+      </c>
+      <c r="C52" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D52" s="267">
+        <v>252</v>
+      </c>
+      <c r="E52" s="267">
+        <v>0</v>
+      </c>
+      <c r="F52" s="268" t="s">
+        <v>183</v>
+      </c>
+      <c r="G52" s="272">
+        <v>180</v>
+      </c>
+      <c r="H52" s="269"/>
+      <c r="I52" s="266"/>
+      <c r="J52" s="367">
+        <v>0</v>
+      </c>
+      <c r="K52" s="267" t="s">
+        <v>802</v>
+      </c>
+      <c r="L52" s="267"/>
+      <c r="M52" s="267"/>
+      <c r="R52" s="269"/>
+      <c r="V52" s="273"/>
+    </row>
+    <row r="53" spans="1:22">
+      <c r="A53" s="266" t="s">
+        <v>756</v>
+      </c>
+      <c r="B53" s="267">
+        <v>6</v>
+      </c>
+      <c r="C53" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D53" s="267">
+        <v>266</v>
+      </c>
+      <c r="E53" s="267">
+        <v>0</v>
+      </c>
+      <c r="F53" s="268" t="s">
+        <v>183</v>
+      </c>
+      <c r="G53" s="272">
+        <v>210</v>
+      </c>
+      <c r="H53" s="269"/>
+      <c r="I53" s="266"/>
+      <c r="J53" s="367">
+        <v>0</v>
+      </c>
+      <c r="K53" s="267" t="s">
+        <v>803</v>
+      </c>
+      <c r="L53" s="267"/>
+      <c r="M53" s="267"/>
+      <c r="R53" s="269"/>
+      <c r="V53" s="273"/>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54" s="266" t="s">
+        <v>757</v>
+      </c>
+      <c r="B54" s="267">
+        <v>6</v>
+      </c>
+      <c r="C54" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D54" s="267">
+        <v>252</v>
+      </c>
+      <c r="E54" s="267">
+        <v>0</v>
+      </c>
+      <c r="F54" s="268" t="s">
+        <v>228</v>
+      </c>
+      <c r="G54" s="272">
+        <v>120</v>
+      </c>
+      <c r="H54" s="269"/>
+      <c r="I54" s="266"/>
+      <c r="J54" s="367">
+        <v>0</v>
+      </c>
+      <c r="K54" s="267" t="s">
+        <v>693</v>
+      </c>
+      <c r="L54" s="267"/>
+      <c r="M54" s="267"/>
+      <c r="R54" s="269"/>
+      <c r="V54" s="273"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="266" t="s">
+        <v>758</v>
+      </c>
+      <c r="B55" s="267">
+        <v>7</v>
+      </c>
+      <c r="C55" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D55" s="267">
+        <v>252</v>
+      </c>
+      <c r="E55" s="267">
+        <v>0</v>
+      </c>
+      <c r="F55" s="268" t="s">
+        <v>228</v>
+      </c>
+      <c r="G55" s="272">
+        <v>150</v>
+      </c>
+      <c r="H55" s="269"/>
+      <c r="I55" s="266"/>
+      <c r="J55" s="367">
+        <v>0</v>
+      </c>
+      <c r="K55" s="267" t="s">
+        <v>804</v>
+      </c>
+      <c r="L55" s="267"/>
+      <c r="M55" s="267"/>
+      <c r="R55" s="269"/>
+      <c r="V55" s="273"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="266" t="s">
+        <v>759</v>
+      </c>
+      <c r="B56" s="267">
+        <v>3</v>
+      </c>
+      <c r="C56" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D56" s="267">
+        <v>168</v>
+      </c>
+      <c r="E56" s="267">
+        <v>0</v>
+      </c>
+      <c r="F56" s="268"/>
+      <c r="G56" s="269"/>
+      <c r="H56" s="269"/>
+      <c r="I56" s="266"/>
+      <c r="J56" s="367">
+        <v>0</v>
+      </c>
+      <c r="K56" s="267"/>
+      <c r="L56" s="267"/>
+      <c r="M56" s="267"/>
+      <c r="R56" s="269"/>
+      <c r="V56" s="273"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="266" t="s">
+        <v>760</v>
+      </c>
+      <c r="B57" s="267">
+        <v>4</v>
+      </c>
+      <c r="C57" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D57" s="267">
+        <v>182</v>
+      </c>
+      <c r="E57" s="267">
+        <v>0</v>
+      </c>
+      <c r="F57" s="268"/>
+      <c r="G57" s="269"/>
+      <c r="H57" s="269"/>
+      <c r="I57" s="266"/>
+      <c r="J57" s="367">
+        <v>0</v>
+      </c>
+      <c r="K57" s="267"/>
+      <c r="L57" s="267"/>
+      <c r="M57" s="267"/>
+      <c r="R57" s="269"/>
+      <c r="V57" s="273"/>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="266" t="s">
+        <v>761</v>
+      </c>
+      <c r="B58" s="267">
+        <v>5</v>
+      </c>
+      <c r="C58" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D58" s="267">
+        <v>196</v>
+      </c>
+      <c r="E58" s="267">
+        <v>0</v>
+      </c>
+      <c r="F58" s="268"/>
+      <c r="G58" s="269"/>
+      <c r="H58" s="268" t="s">
+        <v>435</v>
+      </c>
+      <c r="I58" s="266">
+        <v>90</v>
+      </c>
+      <c r="J58" s="367">
+        <v>0</v>
+      </c>
+      <c r="K58" s="267" t="s">
+        <v>801</v>
+      </c>
+      <c r="L58" s="267"/>
+      <c r="M58" s="267"/>
+      <c r="R58" s="269"/>
+      <c r="V58" s="273"/>
+    </row>
+    <row r="59" spans="1:22">
+      <c r="A59" s="266" t="s">
+        <v>763</v>
+      </c>
+      <c r="B59" s="267">
+        <v>6</v>
+      </c>
+      <c r="C59" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D59" s="267">
+        <v>210</v>
+      </c>
+      <c r="E59" s="267">
+        <v>0</v>
+      </c>
+      <c r="F59" s="268"/>
+      <c r="G59" s="269"/>
+      <c r="H59" s="268" t="s">
+        <v>435</v>
+      </c>
+      <c r="I59" s="266">
+        <v>90</v>
+      </c>
+      <c r="J59" s="367">
+        <v>0</v>
+      </c>
+      <c r="K59" s="267" t="s">
+        <v>805</v>
+      </c>
+      <c r="L59" s="267"/>
+      <c r="M59" s="267"/>
+      <c r="R59" s="269"/>
+      <c r="V59" s="273"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="A60" s="266" t="s">
+        <v>764</v>
+      </c>
+      <c r="B60" s="267">
+        <v>6</v>
+      </c>
+      <c r="C60" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D60" s="267">
+        <v>224</v>
+      </c>
+      <c r="E60" s="267">
+        <v>0</v>
+      </c>
+      <c r="F60" s="268"/>
+      <c r="G60" s="269"/>
+      <c r="H60" s="268" t="s">
+        <v>435</v>
+      </c>
+      <c r="I60" s="266">
+        <v>90</v>
+      </c>
+      <c r="J60" s="367">
+        <v>0</v>
+      </c>
+      <c r="K60" s="267" t="s">
+        <v>805</v>
+      </c>
+      <c r="L60" s="267"/>
+      <c r="M60" s="267"/>
+      <c r="R60" s="269"/>
+      <c r="V60" s="273"/>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="266" t="s">
+        <v>765</v>
+      </c>
+      <c r="B61" s="267">
+        <v>2</v>
+      </c>
+      <c r="C61" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D61" s="267">
+        <v>154</v>
+      </c>
+      <c r="E61" s="267">
+        <v>0</v>
+      </c>
+      <c r="F61" s="268" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" s="269">
+        <v>60</v>
+      </c>
+      <c r="H61" s="269"/>
+      <c r="I61" s="266"/>
+      <c r="J61" s="367">
+        <v>10</v>
+      </c>
+      <c r="K61" s="267"/>
+      <c r="L61" s="267"/>
+      <c r="M61" s="267"/>
+      <c r="R61" s="269"/>
+      <c r="V61" s="273"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="266" t="s">
+        <v>766</v>
+      </c>
+      <c r="B62" s="267">
+        <v>3</v>
+      </c>
+      <c r="C62" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D62" s="267">
+        <v>168</v>
+      </c>
+      <c r="E62" s="267">
+        <v>0</v>
+      </c>
+      <c r="F62" s="268" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" s="269">
+        <v>60</v>
+      </c>
+      <c r="H62" s="269"/>
+      <c r="I62" s="266"/>
+      <c r="J62" s="367">
+        <v>10</v>
+      </c>
+      <c r="K62" s="267"/>
+      <c r="L62" s="267"/>
+      <c r="M62" s="267"/>
+      <c r="R62" s="269"/>
+      <c r="V62" s="273"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="266" t="s">
+        <v>767</v>
+      </c>
+      <c r="B63" s="267">
+        <v>4</v>
+      </c>
+      <c r="C63" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D63" s="267">
+        <v>196</v>
+      </c>
+      <c r="E63" s="267">
+        <v>0</v>
+      </c>
+      <c r="F63" s="268" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="269">
+        <v>60</v>
+      </c>
+      <c r="H63" s="269"/>
+      <c r="I63" s="266"/>
+      <c r="J63" s="367">
+        <v>10</v>
+      </c>
+      <c r="K63" s="267"/>
+      <c r="L63" s="267"/>
+      <c r="M63" s="267"/>
+      <c r="R63" s="269"/>
+      <c r="V63" s="273"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="266" t="s">
+        <v>768</v>
+      </c>
+      <c r="B64" s="267">
+        <v>5</v>
+      </c>
+      <c r="C64" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D64" s="267">
+        <v>224</v>
+      </c>
+      <c r="E64" s="267">
+        <v>0</v>
+      </c>
+      <c r="F64" s="268" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" s="269">
+        <v>90</v>
+      </c>
+      <c r="H64" s="268"/>
+      <c r="I64" s="266"/>
+      <c r="J64" s="367">
+        <v>15</v>
+      </c>
+      <c r="K64" s="267" t="s">
+        <v>803</v>
+      </c>
+      <c r="L64" s="267"/>
+      <c r="M64" s="267"/>
+      <c r="R64" s="269"/>
+      <c r="V64" s="273"/>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="A65" s="266" t="s">
+        <v>769</v>
+      </c>
+      <c r="B65" s="267">
+        <v>6</v>
+      </c>
+      <c r="C65" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D65" s="267">
+        <v>238</v>
+      </c>
+      <c r="E65" s="267">
+        <v>0</v>
+      </c>
+      <c r="F65" s="268" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" s="269">
+        <v>120</v>
+      </c>
+      <c r="H65" s="268"/>
+      <c r="I65" s="266"/>
+      <c r="J65" s="367">
+        <v>15</v>
+      </c>
+      <c r="K65" s="267" t="s">
+        <v>806</v>
+      </c>
+      <c r="L65" s="267"/>
+      <c r="M65" s="267"/>
+      <c r="R65" s="269"/>
+      <c r="V65" s="273"/>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="A66" s="266" t="s">
+        <v>770</v>
+      </c>
+      <c r="B66" s="267">
+        <v>6</v>
+      </c>
+      <c r="C66" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D66" s="267">
+        <v>252</v>
+      </c>
+      <c r="E66" s="267">
+        <v>0</v>
+      </c>
+      <c r="F66" s="268" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" s="269">
+        <v>150</v>
+      </c>
+      <c r="H66" s="268"/>
+      <c r="I66" s="266"/>
+      <c r="J66" s="367">
+        <v>15</v>
+      </c>
+      <c r="K66" s="267" t="s">
+        <v>806</v>
+      </c>
+      <c r="L66" s="267"/>
+      <c r="M66" s="267"/>
+      <c r="R66" s="269"/>
+      <c r="V66" s="273"/>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="A67" s="266" t="s">
+        <v>771</v>
+      </c>
+      <c r="B67" s="267">
+        <v>4</v>
+      </c>
+      <c r="C67" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D67" s="267">
+        <v>182</v>
+      </c>
+      <c r="E67" s="267">
+        <v>0</v>
+      </c>
+      <c r="F67" s="268"/>
+      <c r="G67" s="269"/>
+      <c r="H67" s="269"/>
+      <c r="I67" s="266"/>
+      <c r="J67" s="367">
+        <v>20</v>
+      </c>
+      <c r="K67" s="267"/>
+      <c r="L67" s="267"/>
+      <c r="M67" s="267"/>
+      <c r="R67" s="269"/>
+      <c r="V67" s="273"/>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="A68" s="266" t="s">
+        <v>772</v>
+      </c>
+      <c r="B68" s="267">
+        <v>5</v>
+      </c>
+      <c r="C68" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D68" s="267">
+        <v>196</v>
+      </c>
+      <c r="E68" s="267">
+        <v>0</v>
+      </c>
+      <c r="F68" s="268" t="s">
+        <v>228</v>
+      </c>
+      <c r="G68" s="272">
+        <v>180</v>
+      </c>
+      <c r="H68" s="268"/>
+      <c r="I68" s="266"/>
+      <c r="J68" s="367">
+        <v>20</v>
+      </c>
+      <c r="K68" s="267"/>
+      <c r="L68" s="267"/>
+      <c r="M68" s="267"/>
+      <c r="R68" s="269"/>
+      <c r="V68" s="273"/>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="A69" s="266" t="s">
+        <v>773</v>
+      </c>
+      <c r="B69" s="267">
+        <v>6</v>
+      </c>
+      <c r="C69" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D69" s="267">
+        <v>210</v>
+      </c>
+      <c r="E69" s="267">
+        <v>0</v>
+      </c>
+      <c r="F69" s="268" t="s">
+        <v>228</v>
+      </c>
+      <c r="G69" s="272">
+        <v>180</v>
+      </c>
+      <c r="H69" s="268"/>
+      <c r="I69" s="266"/>
+      <c r="J69" s="367">
+        <v>20</v>
+      </c>
+      <c r="K69" s="267"/>
+      <c r="L69" s="267"/>
+      <c r="M69" s="267"/>
+      <c r="R69" s="269"/>
+      <c r="V69" s="273"/>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="A70" s="266" t="s">
+        <v>774</v>
+      </c>
+      <c r="B70" s="267">
+        <v>8</v>
+      </c>
+      <c r="C70" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D70" s="267">
+        <v>224</v>
+      </c>
+      <c r="E70" s="267">
+        <v>0</v>
+      </c>
+      <c r="F70" s="268" t="s">
+        <v>228</v>
+      </c>
+      <c r="G70" s="272">
+        <v>180</v>
+      </c>
+      <c r="H70" s="268"/>
+      <c r="I70" s="266"/>
+      <c r="J70" s="367">
+        <v>20</v>
+      </c>
+      <c r="K70" s="267"/>
+      <c r="L70" s="267"/>
+      <c r="M70" s="267"/>
+      <c r="R70" s="269"/>
+      <c r="V70" s="273"/>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="A71" s="266" t="s">
+        <v>775</v>
+      </c>
+      <c r="B71" s="267">
+        <v>3</v>
+      </c>
+      <c r="C71" s="266" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="267">
+        <v>140</v>
+      </c>
+      <c r="E71" s="267">
+        <v>0</v>
+      </c>
+      <c r="F71" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G71" s="269" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="268"/>
+      <c r="I71" s="266"/>
+      <c r="J71" s="367">
+        <v>0</v>
+      </c>
+      <c r="K71" s="267"/>
+      <c r="L71" s="267"/>
+      <c r="M71" s="267"/>
+      <c r="R71" s="269"/>
+      <c r="V71" s="273"/>
+    </row>
+    <row r="72" spans="1:22">
+      <c r="A72" s="266" t="s">
+        <v>776</v>
+      </c>
+      <c r="B72" s="267">
+        <v>4</v>
+      </c>
+      <c r="C72" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D72" s="267">
+        <v>168</v>
+      </c>
+      <c r="E72" s="267">
+        <v>0</v>
+      </c>
+      <c r="F72" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G72" s="269" t="s">
+        <v>558</v>
+      </c>
+      <c r="H72" s="268"/>
+      <c r="I72" s="266"/>
+      <c r="J72" s="367">
+        <v>0</v>
+      </c>
+      <c r="K72" s="267"/>
+      <c r="L72" s="267"/>
+      <c r="M72" s="267"/>
+      <c r="R72" s="269"/>
+      <c r="V72" s="273"/>
+    </row>
+    <row r="73" spans="1:22">
+      <c r="A73" s="266" t="s">
+        <v>777</v>
+      </c>
+      <c r="B73" s="267">
+        <v>7</v>
+      </c>
+      <c r="C73" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D73" s="267">
+        <v>196</v>
+      </c>
+      <c r="E73" s="267">
+        <v>0</v>
+      </c>
+      <c r="F73" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73" s="269" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" s="268"/>
+      <c r="I73" s="266"/>
+      <c r="J73" s="367">
+        <v>0</v>
+      </c>
+      <c r="K73" s="267" t="s">
+        <v>807</v>
+      </c>
+      <c r="L73" s="267"/>
+      <c r="M73" s="267"/>
+      <c r="R73" s="269"/>
+      <c r="V73" s="273"/>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="A74" s="266" t="s">
+        <v>778</v>
+      </c>
+      <c r="B74" s="267">
+        <v>4</v>
+      </c>
+      <c r="C74" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D74" s="267">
+        <v>154</v>
+      </c>
+      <c r="E74" s="267">
+        <v>0</v>
+      </c>
+      <c r="F74" s="268" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" s="269">
+        <v>210</v>
+      </c>
+      <c r="H74" s="269"/>
+      <c r="I74" s="266"/>
+      <c r="J74" s="367">
+        <v>0</v>
+      </c>
+      <c r="K74" s="267"/>
+      <c r="L74" s="267"/>
+      <c r="M74" s="267"/>
+      <c r="R74" s="269"/>
+      <c r="V74" s="273"/>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="266" t="s">
+        <v>779</v>
+      </c>
+      <c r="B75" s="267">
+        <v>6</v>
+      </c>
+      <c r="C75" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D75" s="267">
+        <v>196</v>
+      </c>
+      <c r="E75" s="267">
+        <v>0</v>
+      </c>
+      <c r="F75" s="268" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="269">
+        <v>240</v>
+      </c>
+      <c r="H75" s="269"/>
+      <c r="I75" s="266"/>
+      <c r="J75" s="367">
+        <v>0</v>
+      </c>
+      <c r="K75" s="267"/>
+      <c r="L75" s="267"/>
+      <c r="M75" s="267"/>
+      <c r="R75" s="269"/>
+      <c r="V75" s="273"/>
+    </row>
+    <row r="76" spans="1:22">
+      <c r="A76" s="266" t="s">
+        <v>780</v>
+      </c>
+      <c r="B76" s="267">
+        <v>7</v>
+      </c>
+      <c r="C76" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D76" s="267">
+        <v>224</v>
+      </c>
+      <c r="E76" s="267">
+        <v>0</v>
+      </c>
+      <c r="F76" s="268" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" s="269">
+        <v>270</v>
+      </c>
+      <c r="H76" s="268"/>
+      <c r="I76" s="266"/>
+      <c r="J76" s="367">
+        <v>0</v>
+      </c>
+      <c r="K76" s="267"/>
+      <c r="L76" s="267"/>
+      <c r="M76" s="267"/>
+      <c r="R76" s="269"/>
+      <c r="V76" s="273"/>
+    </row>
+    <row r="77" spans="1:22">
+      <c r="A77" s="266" t="s">
+        <v>781</v>
+      </c>
+      <c r="B77" s="267">
+        <v>5</v>
+      </c>
+      <c r="C77" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D77" s="267">
+        <v>224</v>
+      </c>
+      <c r="E77" s="267">
+        <v>20</v>
+      </c>
+      <c r="F77" s="268"/>
+      <c r="G77" s="269"/>
+      <c r="H77" s="269" t="s">
+        <v>789</v>
+      </c>
+      <c r="I77" s="266">
+        <v>180</v>
+      </c>
+      <c r="J77" s="367">
+        <v>-20</v>
+      </c>
+      <c r="K77" s="267" t="s">
+        <v>808</v>
+      </c>
+      <c r="L77" s="267"/>
+      <c r="M77" s="267"/>
+      <c r="R77" s="269"/>
+      <c r="V77" s="273"/>
+    </row>
+    <row r="78" spans="1:22">
+      <c r="A78" s="266" t="s">
+        <v>783</v>
+      </c>
+      <c r="B78" s="267">
+        <v>7</v>
+      </c>
+      <c r="C78" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D78" s="267">
+        <v>308</v>
+      </c>
+      <c r="E78" s="267">
+        <v>20</v>
+      </c>
+      <c r="F78" s="268"/>
+      <c r="G78" s="269"/>
+      <c r="H78" s="269" t="s">
+        <v>789</v>
+      </c>
+      <c r="I78" s="266">
+        <v>210</v>
+      </c>
+      <c r="J78" s="367">
+        <v>-20</v>
+      </c>
+      <c r="K78" s="267" t="s">
+        <v>808</v>
+      </c>
+      <c r="L78" s="267"/>
+      <c r="M78" s="267"/>
+      <c r="R78" s="269"/>
+      <c r="V78" s="273"/>
+    </row>
+    <row r="79" spans="1:22">
+      <c r="A79" s="266" t="s">
+        <v>784</v>
+      </c>
+      <c r="B79" s="267">
+        <v>5</v>
+      </c>
+      <c r="C79" s="266" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="267">
+        <v>140</v>
+      </c>
+      <c r="E79" s="267">
+        <v>0</v>
+      </c>
+      <c r="F79" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79" s="269" t="s">
+        <v>57</v>
+      </c>
+      <c r="H79" s="268"/>
+      <c r="I79" s="266"/>
+      <c r="J79" s="367">
+        <v>0</v>
+      </c>
+      <c r="K79" s="267"/>
+      <c r="L79" s="267"/>
+      <c r="M79" s="267"/>
+      <c r="R79" s="269"/>
+      <c r="V79" s="273"/>
+    </row>
+    <row r="80" spans="1:22">
+      <c r="A80" s="266" t="s">
+        <v>785</v>
+      </c>
+      <c r="B80" s="267">
+        <v>6</v>
+      </c>
+      <c r="C80" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D80" s="267">
+        <v>154</v>
+      </c>
+      <c r="E80" s="267">
+        <v>0</v>
+      </c>
+      <c r="F80" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G80" s="269" t="s">
+        <v>63</v>
+      </c>
+      <c r="H80" s="268"/>
+      <c r="I80" s="266"/>
+      <c r="J80" s="367">
+        <v>0</v>
+      </c>
+      <c r="K80" s="267"/>
+      <c r="L80" s="267"/>
+      <c r="M80" s="267"/>
+      <c r="R80" s="269"/>
+      <c r="V80" s="273"/>
+    </row>
+    <row r="81" spans="1:22">
+      <c r="A81" s="266" t="s">
+        <v>786</v>
+      </c>
+      <c r="B81" s="267">
+        <v>7</v>
+      </c>
+      <c r="C81" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D81" s="267">
+        <v>238</v>
+      </c>
+      <c r="E81" s="267">
+        <v>0</v>
+      </c>
+      <c r="F81" s="268" t="s">
+        <v>69</v>
+      </c>
+      <c r="G81" s="269">
+        <v>210</v>
+      </c>
+      <c r="H81" s="269" t="s">
+        <v>789</v>
+      </c>
+      <c r="I81" s="266">
+        <v>210</v>
+      </c>
+      <c r="J81" s="367">
+        <v>10</v>
+      </c>
+      <c r="K81" s="267" t="s">
+        <v>809</v>
+      </c>
+      <c r="L81" s="267"/>
+      <c r="M81" s="267"/>
+      <c r="R81" s="269"/>
+      <c r="V81" s="273"/>
+    </row>
+    <row r="82" spans="1:22">
+      <c r="A82" s="266" t="s">
+        <v>787</v>
+      </c>
+      <c r="B82" s="267">
+        <v>8</v>
+      </c>
+      <c r="C82" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D82" s="267">
+        <v>252</v>
+      </c>
+      <c r="E82" s="267">
+        <v>0</v>
+      </c>
+      <c r="F82" s="268" t="s">
+        <v>69</v>
+      </c>
+      <c r="G82" s="269">
+        <v>240</v>
+      </c>
+      <c r="H82" s="269" t="s">
+        <v>789</v>
+      </c>
+      <c r="I82" s="266">
+        <v>240</v>
+      </c>
+      <c r="J82" s="367">
+        <v>10</v>
+      </c>
+      <c r="K82" s="267" t="s">
+        <v>809</v>
+      </c>
+      <c r="L82" s="267"/>
+      <c r="M82" s="267"/>
+      <c r="R82" s="269"/>
+      <c r="V82" s="273"/>
+    </row>
+    <row r="83" spans="1:22">
+      <c r="A83" s="266" t="s">
+        <v>788</v>
+      </c>
+      <c r="B83" s="267">
+        <v>8</v>
+      </c>
+      <c r="C83" s="266" t="s">
+        <v>421</v>
+      </c>
+      <c r="D83" s="267">
+        <v>238</v>
+      </c>
+      <c r="E83" s="267">
+        <v>0</v>
+      </c>
+      <c r="F83" s="268" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" s="269" t="s">
+        <v>558</v>
+      </c>
+      <c r="H83" s="268"/>
+      <c r="I83" s="266"/>
+      <c r="J83" s="367">
+        <v>15</v>
+      </c>
+      <c r="K83" s="267" t="s">
+        <v>696</v>
+      </c>
+      <c r="L83" s="267"/>
+      <c r="M83" s="267"/>
+      <c r="R83" s="269"/>
+      <c r="V83" s="273"/>
+    </row>
+    <row r="84" spans="1:22">
+      <c r="A84" s="273"/>
+      <c r="B84" s="273"/>
+      <c r="C84" s="273"/>
+      <c r="D84" s="273"/>
+      <c r="E84" s="273"/>
+      <c r="F84" s="273"/>
+      <c r="G84" s="273"/>
+      <c r="H84" s="273"/>
+      <c r="I84" s="273"/>
+      <c r="J84" s="277"/>
+      <c r="K84" s="273"/>
+      <c r="L84" s="273"/>
+      <c r="M84" s="273"/>
+      <c r="R84" s="273"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
